--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(HitachiVSP)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(HitachiVSP)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(HitachiVSP)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(HitachiVSP)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$87</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
   <si>
     <t>共通設定</t>
   </si>
@@ -283,13 +287,488 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* Hitachi VSP ストレージの構成情報を採取します。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* .\template\Hitachi_VSP が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* 本テンプレートは直接ストレージにアクセスはせずに、事前に採取した構成レポートファイルから構成情報を抽出します。</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>構成レポートの作成手順については同ディレクトリの「HitachiVSP構成レポート作成手順.xlsx」を参照してください。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>以下スクリプトを実行して構成レポート保存用ディレクトリを作成します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ホゾンヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>.\lib\script\prepare_svp_report.ps1 {ストレージホスト名}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引数にVSPストレージホスト名を入力してください。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「HitachiVSP構成レポート作成手順.xlsx」のシート「SVP操作手順」を参照して、構成レポートをダウンロードしてください。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ダウンロードファイル保存先は、1で実行した保存用ディレクトリを指定してください。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象ストレージ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象ストレージのIPを入力します。</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ストレージ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象ストレージ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象ストレージ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>vsp1</t>
+  </si>
+  <si>
+    <t>10.10.0.10</t>
+  </si>
+  <si>
+    <t>10.10.0.11</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Hitachi_VSP\config_vsp.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>// HitachiVSP 接続情報</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.report_dir = './src/hitachi_vsp_report'</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.user     = 'administrator'</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.password = 'P@ssw0rd'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Hitachi_VSP\config_vsp.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -345,8 +824,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +868,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -474,8 +965,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,8 +1123,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,13 +1200,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="14" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="14" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="説明文 2" xfId="4"/>
     <cellStyle name="説明文 3" xfId="12"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 10" xfId="11"/>
+    <cellStyle name="標準 10 2" xfId="14"/>
+    <cellStyle name="標準 11" xfId="13"/>
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="標準 3" xfId="3"/>
     <cellStyle name="標準 4" xfId="6"/>
@@ -913,9 +1586,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.375" style="24" customWidth="1"/>
+    <col min="3" max="10" width="16.125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="9" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="C17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="C19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B43" s="31">
+        <v>1</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B44" s="31">
+        <v>2</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B45" s="31">
+        <v>3</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B46" s="31">
+        <v>4</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B47" s="31">
+        <v>5</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B48" s="31">
+        <v>6</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B49" s="31">
+        <v>7</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B50" s="31">
+        <v>8</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B51" s="31">
+        <v>9</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B52" s="31">
+        <v>10</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="32"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="38"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="38"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="38"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="41"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="32"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="32"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="32"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C40:J40"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
@@ -1278,7 +3072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
@@ -1576,7 +3370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -1669,7 +3463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1929,7 +3723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -831,7 +831,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +872,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1130,7 +1136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,64 +1203,67 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="14" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="14" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="14" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="14" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="13" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="14" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,1107 +1598,1687 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="24" customWidth="1"/>
-    <col min="3" max="10" width="16.125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="9" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="24"/>
+    <col min="1" max="2" width="3.375" style="22" customWidth="1"/>
+    <col min="3" max="10" width="16.125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="C17" s="25" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="C21" s="23" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="38" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="38" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="38" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
-      <c r="C40" s="30" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I41" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="29" t="s">
+      <c r="J41" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="29" t="s">
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="31">
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="39"/>
+      <c r="B43" s="42">
         <v>1</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="31">
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42">
         <v>2</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="31">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="39"/>
+      <c r="B45" s="42">
         <v>3</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="31">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="39"/>
+      <c r="B46" s="42">
         <v>4</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="31">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="39"/>
+      <c r="B47" s="42">
         <v>5</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B48" s="31">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="39"/>
+      <c r="B48" s="42">
         <v>6</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B49" s="31">
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="39"/>
+      <c r="B49" s="42">
         <v>7</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B50" s="31">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="39"/>
+      <c r="B50" s="42">
         <v>8</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="31">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
+      <c r="B51" s="42">
         <v>9</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-    </row>
-    <row r="52" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="31">
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42">
         <v>10</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="25" t="s">
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="32"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23" t="s">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="39"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="39"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="33" t="s">
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="39"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="39"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="35"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="38"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="36" t="s">
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="39"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="39"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="38"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="36" t="s">
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="39"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="38"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="39" t="s">
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="39"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="41"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="23" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="39"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="39"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23" t="s">
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="39"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="39"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="25" t="s">
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="39"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="39"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="32"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="23" t="s">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="39"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="39"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23" t="s">
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="39"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="39"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="25" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="39"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="39"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="32"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="39"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="39"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="25" t="s">
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="39"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="39"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="32"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="39"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="39"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="25" t="s">
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="39"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="39"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="32"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="39"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2723,16 +3312,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>共通設定</t>
   </si>
@@ -272,21 +272,6 @@
   </si>
   <si>
     <t>snmp_trap:k</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>10.20.5.1</t>
-  </si>
-  <si>
-    <t>public</t>
   </si>
   <si>
     <t>0. はじめに</t>
@@ -761,6 +746,21 @@
   </si>
   <si>
     <t>getconfig -u db</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>_redmine:ストレージ</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1136,7 +1136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,9 +1184,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1248,9 +1245,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="13" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,10 +1254,22 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,1685 +1606,1685 @@
   </sheetPr>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="22" customWidth="1"/>
-    <col min="3" max="10" width="16.125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="9" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
+    <col min="1" max="2" width="3.375" style="21" customWidth="1"/>
+    <col min="3" max="10" width="16.125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="38" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="38" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="23" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="38" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="38" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="38" t="s">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
+      <c r="D29" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38" t="s">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38" t="s">
+      <c r="D41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="37"/>
+      <c r="B43" s="39">
+        <v>1</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="E43" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38" t="s">
+      <c r="F43" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="G43" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39">
+        <v>2</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39">
+        <v>3</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="37"/>
+      <c r="B46" s="39">
+        <v>4</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="37"/>
+      <c r="B47" s="39">
+        <v>5</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="37"/>
+      <c r="B48" s="39">
+        <v>6</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="37"/>
+      <c r="B49" s="39">
+        <v>7</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="37"/>
+      <c r="B50" s="39">
+        <v>8</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="39">
+        <v>9</v>
+      </c>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39">
+        <v>10</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38" t="s">
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="37"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42">
-        <v>1</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="42" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="37"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="37"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="37"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="37"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="42">
-        <v>2</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="39"/>
-      <c r="B45" s="42">
-        <v>3</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42">
-        <v>4</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42">
-        <v>5</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
-      <c r="B48" s="42">
-        <v>6</v>
-      </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-    </row>
-    <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42">
-        <v>7</v>
-      </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-    </row>
-    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42">
-        <v>8</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-    </row>
-    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42">
-        <v>9</v>
-      </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42">
-        <v>10</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="38" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="37"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="37"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="39"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="37"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="39"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="23" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="37"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="39"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38" t="s">
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="37"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="37"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="39"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="28" t="s">
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="37"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="37"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="39"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="39"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="31" t="s">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="37"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="37"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="39"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="31" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="37"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="37"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="34" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="37"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="37"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="39"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="39"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="38" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="37"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="37"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="39"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="37"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="37"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="39"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="39"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="23" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="37"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="39"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="39"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="38" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="37"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="37"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="39"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="39"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38" t="s">
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="37"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="37"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="39"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="39"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="23" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="37"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="37"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="39"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="39"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="39"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="39"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="39"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="39"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="39"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="39"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="39"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="39"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="37"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3312,16 +3318,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -3666,7 +3672,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3682,7 +3688,7 @@
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1023" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3696,7 +3702,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3710,7 +3716,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -3748,77 +3754,3118 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="12"/>
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="12"/>
+      <c r="CL4" s="12"/>
+      <c r="CM4" s="12"/>
+      <c r="CN4" s="12"/>
+      <c r="CO4" s="12"/>
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="12"/>
+      <c r="CT4" s="12"/>
+      <c r="CU4" s="12"/>
+      <c r="CV4" s="12"/>
+      <c r="CW4" s="12"/>
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="12"/>
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="12"/>
+      <c r="DB4" s="12"/>
+      <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
+      <c r="DE4" s="12"/>
+      <c r="DF4" s="12"/>
+      <c r="DG4" s="12"/>
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="12"/>
+      <c r="DJ4" s="12"/>
+      <c r="DK4" s="12"/>
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="12"/>
+      <c r="DN4" s="12"/>
+      <c r="DO4" s="12"/>
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="12"/>
+      <c r="DR4" s="12"/>
+      <c r="DS4" s="12"/>
+      <c r="DT4" s="12"/>
+      <c r="DU4" s="12"/>
+      <c r="DV4" s="12"/>
+      <c r="DW4" s="12"/>
+      <c r="DX4" s="12"/>
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12"/>
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12"/>
+      <c r="EF4" s="12"/>
+      <c r="EG4" s="12"/>
+      <c r="EH4" s="12"/>
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="12"/>
+      <c r="EK4" s="12"/>
+      <c r="EL4" s="12"/>
+      <c r="EM4" s="12"/>
+      <c r="EN4" s="12"/>
+      <c r="EO4" s="12"/>
+      <c r="EP4" s="12"/>
+      <c r="EQ4" s="12"/>
+      <c r="ER4" s="12"/>
+      <c r="ES4" s="12"/>
+      <c r="ET4" s="12"/>
+      <c r="EU4" s="12"/>
+      <c r="EV4" s="12"/>
+      <c r="EW4" s="12"/>
+      <c r="EX4" s="12"/>
+      <c r="EY4" s="12"/>
+      <c r="EZ4" s="12"/>
+      <c r="FA4" s="12"/>
+      <c r="FB4" s="12"/>
+      <c r="FC4" s="12"/>
+      <c r="FD4" s="12"/>
+      <c r="FE4" s="12"/>
+      <c r="FF4" s="12"/>
+      <c r="FG4" s="12"/>
+      <c r="FH4" s="12"/>
+      <c r="FI4" s="12"/>
+      <c r="FJ4" s="12"/>
+      <c r="FK4" s="12"/>
+      <c r="FL4" s="12"/>
+      <c r="FM4" s="12"/>
+      <c r="FN4" s="12"/>
+      <c r="FO4" s="12"/>
+      <c r="FP4" s="12"/>
+      <c r="FQ4" s="12"/>
+      <c r="FR4" s="12"/>
+      <c r="FS4" s="12"/>
+      <c r="FT4" s="12"/>
+      <c r="FU4" s="12"/>
+      <c r="FV4" s="12"/>
+      <c r="FW4" s="12"/>
+      <c r="FX4" s="12"/>
+      <c r="FY4" s="12"/>
+      <c r="FZ4" s="12"/>
+      <c r="GA4" s="12"/>
+      <c r="GB4" s="12"/>
+      <c r="GC4" s="12"/>
+      <c r="GD4" s="12"/>
+      <c r="GE4" s="12"/>
+      <c r="GF4" s="12"/>
+      <c r="GG4" s="12"/>
+      <c r="GH4" s="12"/>
+      <c r="GI4" s="12"/>
+      <c r="GJ4" s="12"/>
+      <c r="GK4" s="12"/>
+      <c r="GL4" s="12"/>
+      <c r="GM4" s="12"/>
+      <c r="GN4" s="12"/>
+      <c r="GO4" s="12"/>
+      <c r="GP4" s="12"/>
+      <c r="GQ4" s="12"/>
+      <c r="GR4" s="12"/>
+      <c r="GS4" s="12"/>
+      <c r="GT4" s="12"/>
+      <c r="GU4" s="12"/>
+      <c r="GV4" s="12"/>
+      <c r="GW4" s="12"/>
+      <c r="GX4" s="12"/>
+      <c r="GY4" s="12"/>
+      <c r="GZ4" s="12"/>
+      <c r="HA4" s="12"/>
+      <c r="HB4" s="12"/>
+      <c r="HC4" s="12"/>
+      <c r="HD4" s="12"/>
+      <c r="HE4" s="12"/>
+      <c r="HF4" s="12"/>
+      <c r="HG4" s="12"/>
+      <c r="HH4" s="12"/>
+      <c r="HI4" s="12"/>
+      <c r="HJ4" s="12"/>
+      <c r="HK4" s="12"/>
+      <c r="HL4" s="12"/>
+      <c r="HM4" s="12"/>
+      <c r="HN4" s="12"/>
+      <c r="HO4" s="12"/>
+      <c r="HP4" s="12"/>
+      <c r="HQ4" s="12"/>
+      <c r="HR4" s="12"/>
+      <c r="HS4" s="12"/>
+      <c r="HT4" s="12"/>
+      <c r="HU4" s="12"/>
+      <c r="HV4" s="12"/>
+      <c r="HW4" s="12"/>
+      <c r="HX4" s="12"/>
+      <c r="HY4" s="12"/>
+      <c r="HZ4" s="12"/>
+      <c r="IA4" s="12"/>
+      <c r="IB4" s="12"/>
+      <c r="IC4" s="12"/>
+      <c r="ID4" s="12"/>
+      <c r="IE4" s="12"/>
+      <c r="IF4" s="12"/>
+      <c r="IG4" s="12"/>
+      <c r="IH4" s="12"/>
+      <c r="II4" s="12"/>
+      <c r="IJ4" s="12"/>
+      <c r="IK4" s="12"/>
+      <c r="IL4" s="12"/>
+      <c r="IM4" s="12"/>
+      <c r="IN4" s="12"/>
+      <c r="IO4" s="12"/>
+      <c r="IP4" s="12"/>
+      <c r="IQ4" s="12"/>
+      <c r="IR4" s="12"/>
+      <c r="IS4" s="12"/>
+      <c r="IT4" s="12"/>
+      <c r="IU4" s="12"/>
+      <c r="IV4" s="12"/>
+      <c r="IW4" s="12"/>
+      <c r="IX4" s="12"/>
+      <c r="IY4" s="12"/>
+      <c r="IZ4" s="12"/>
+      <c r="JA4" s="12"/>
+      <c r="JB4" s="12"/>
+      <c r="JC4" s="12"/>
+      <c r="JD4" s="12"/>
+      <c r="JE4" s="12"/>
+      <c r="JF4" s="12"/>
+      <c r="JG4" s="12"/>
+      <c r="JH4" s="12"/>
+      <c r="JI4" s="12"/>
+      <c r="JJ4" s="12"/>
+      <c r="JK4" s="12"/>
+      <c r="JL4" s="12"/>
+      <c r="JM4" s="12"/>
+      <c r="JN4" s="12"/>
+      <c r="JO4" s="12"/>
+      <c r="JP4" s="12"/>
+      <c r="JQ4" s="12"/>
+      <c r="JR4" s="12"/>
+      <c r="JS4" s="12"/>
+      <c r="JT4" s="12"/>
+      <c r="JU4" s="12"/>
+      <c r="JV4" s="12"/>
+      <c r="JW4" s="12"/>
+      <c r="JX4" s="12"/>
+      <c r="JY4" s="12"/>
+      <c r="JZ4" s="12"/>
+      <c r="KA4" s="12"/>
+      <c r="KB4" s="12"/>
+      <c r="KC4" s="12"/>
+      <c r="KD4" s="12"/>
+      <c r="KE4" s="12"/>
+      <c r="KF4" s="12"/>
+      <c r="KG4" s="12"/>
+      <c r="KH4" s="12"/>
+      <c r="KI4" s="12"/>
+      <c r="KJ4" s="12"/>
+      <c r="KK4" s="12"/>
+      <c r="KL4" s="12"/>
+      <c r="KM4" s="12"/>
+      <c r="KN4" s="12"/>
+      <c r="KO4" s="12"/>
+      <c r="KP4" s="12"/>
+      <c r="KQ4" s="12"/>
+      <c r="KR4" s="12"/>
+      <c r="KS4" s="12"/>
+      <c r="KT4" s="12"/>
+      <c r="KU4" s="12"/>
+      <c r="KV4" s="12"/>
+      <c r="KW4" s="12"/>
+      <c r="KX4" s="12"/>
+      <c r="KY4" s="12"/>
+      <c r="KZ4" s="12"/>
+      <c r="LA4" s="12"/>
+      <c r="LB4" s="12"/>
+      <c r="LC4" s="12"/>
+      <c r="LD4" s="12"/>
+      <c r="LE4" s="12"/>
+      <c r="LF4" s="12"/>
+      <c r="LG4" s="12"/>
+      <c r="LH4" s="12"/>
+      <c r="LI4" s="12"/>
+      <c r="LJ4" s="12"/>
+      <c r="LK4" s="12"/>
+      <c r="LL4" s="12"/>
+      <c r="LM4" s="12"/>
+      <c r="LN4" s="12"/>
+      <c r="LO4" s="12"/>
+      <c r="LP4" s="12"/>
+      <c r="LQ4" s="12"/>
+      <c r="LR4" s="12"/>
+      <c r="LS4" s="12"/>
+      <c r="LT4" s="12"/>
+      <c r="LU4" s="12"/>
+      <c r="LV4" s="12"/>
+      <c r="LW4" s="12"/>
+      <c r="LX4" s="12"/>
+      <c r="LY4" s="12"/>
+      <c r="LZ4" s="12"/>
+      <c r="MA4" s="12"/>
+      <c r="MB4" s="12"/>
+      <c r="MC4" s="12"/>
+      <c r="MD4" s="12"/>
+      <c r="ME4" s="12"/>
+      <c r="MF4" s="12"/>
+      <c r="MG4" s="12"/>
+      <c r="MH4" s="12"/>
+      <c r="MI4" s="12"/>
+      <c r="MJ4" s="12"/>
+      <c r="MK4" s="12"/>
+      <c r="ML4" s="12"/>
+      <c r="MM4" s="12"/>
+      <c r="MN4" s="12"/>
+      <c r="MO4" s="12"/>
+      <c r="MP4" s="12"/>
+      <c r="MQ4" s="12"/>
+      <c r="MR4" s="12"/>
+      <c r="MS4" s="12"/>
+      <c r="MT4" s="12"/>
+      <c r="MU4" s="12"/>
+      <c r="MV4" s="12"/>
+      <c r="MW4" s="12"/>
+      <c r="MX4" s="12"/>
+      <c r="MY4" s="12"/>
+      <c r="MZ4" s="12"/>
+      <c r="NA4" s="12"/>
+      <c r="NB4" s="12"/>
+      <c r="NC4" s="12"/>
+      <c r="ND4" s="12"/>
+      <c r="NE4" s="12"/>
+      <c r="NF4" s="12"/>
+      <c r="NG4" s="12"/>
+      <c r="NH4" s="12"/>
+      <c r="NI4" s="12"/>
+      <c r="NJ4" s="12"/>
+      <c r="NK4" s="12"/>
+      <c r="NL4" s="12"/>
+      <c r="NM4" s="12"/>
+      <c r="NN4" s="12"/>
+      <c r="NO4" s="12"/>
+      <c r="NP4" s="12"/>
+      <c r="NQ4" s="12"/>
+      <c r="NR4" s="12"/>
+      <c r="NS4" s="12"/>
+      <c r="NT4" s="12"/>
+      <c r="NU4" s="12"/>
+      <c r="NV4" s="12"/>
+      <c r="NW4" s="12"/>
+      <c r="NX4" s="12"/>
+      <c r="NY4" s="12"/>
+      <c r="NZ4" s="12"/>
+      <c r="OA4" s="12"/>
+      <c r="OB4" s="12"/>
+      <c r="OC4" s="12"/>
+      <c r="OD4" s="12"/>
+      <c r="OE4" s="12"/>
+      <c r="OF4" s="12"/>
+      <c r="OG4" s="12"/>
+      <c r="OH4" s="12"/>
+      <c r="OI4" s="12"/>
+      <c r="OJ4" s="12"/>
+      <c r="OK4" s="12"/>
+      <c r="OL4" s="12"/>
+      <c r="OM4" s="12"/>
+      <c r="ON4" s="12"/>
+      <c r="OO4" s="12"/>
+      <c r="OP4" s="12"/>
+      <c r="OQ4" s="12"/>
+      <c r="OR4" s="12"/>
+      <c r="OS4" s="12"/>
+      <c r="OT4" s="12"/>
+      <c r="OU4" s="12"/>
+      <c r="OV4" s="12"/>
+      <c r="OW4" s="12"/>
+      <c r="OX4" s="12"/>
+      <c r="OY4" s="12"/>
+      <c r="OZ4" s="12"/>
+      <c r="PA4" s="12"/>
+      <c r="PB4" s="12"/>
+      <c r="PC4" s="12"/>
+      <c r="PD4" s="12"/>
+      <c r="PE4" s="12"/>
+      <c r="PF4" s="12"/>
+      <c r="PG4" s="12"/>
+      <c r="PH4" s="12"/>
+      <c r="PI4" s="12"/>
+      <c r="PJ4" s="12"/>
+      <c r="PK4" s="12"/>
+      <c r="PL4" s="12"/>
+      <c r="PM4" s="12"/>
+      <c r="PN4" s="12"/>
+      <c r="PO4" s="12"/>
+      <c r="PP4" s="12"/>
+      <c r="PQ4" s="12"/>
+      <c r="PR4" s="12"/>
+      <c r="PS4" s="12"/>
+      <c r="PT4" s="12"/>
+      <c r="PU4" s="12"/>
+      <c r="PV4" s="12"/>
+      <c r="PW4" s="12"/>
+      <c r="PX4" s="12"/>
+      <c r="PY4" s="12"/>
+      <c r="PZ4" s="12"/>
+      <c r="QA4" s="12"/>
+      <c r="QB4" s="12"/>
+      <c r="QC4" s="12"/>
+      <c r="QD4" s="12"/>
+      <c r="QE4" s="12"/>
+      <c r="QF4" s="12"/>
+      <c r="QG4" s="12"/>
+      <c r="QH4" s="12"/>
+      <c r="QI4" s="12"/>
+      <c r="QJ4" s="12"/>
+      <c r="QK4" s="12"/>
+      <c r="QL4" s="12"/>
+      <c r="QM4" s="12"/>
+      <c r="QN4" s="12"/>
+      <c r="QO4" s="12"/>
+      <c r="QP4" s="12"/>
+      <c r="QQ4" s="12"/>
+      <c r="QR4" s="12"/>
+      <c r="QS4" s="12"/>
+      <c r="QT4" s="12"/>
+      <c r="QU4" s="12"/>
+      <c r="QV4" s="12"/>
+      <c r="QW4" s="12"/>
+      <c r="QX4" s="12"/>
+      <c r="QY4" s="12"/>
+      <c r="QZ4" s="12"/>
+      <c r="RA4" s="12"/>
+      <c r="RB4" s="12"/>
+      <c r="RC4" s="12"/>
+      <c r="RD4" s="12"/>
+      <c r="RE4" s="12"/>
+      <c r="RF4" s="12"/>
+      <c r="RG4" s="12"/>
+      <c r="RH4" s="12"/>
+      <c r="RI4" s="12"/>
+      <c r="RJ4" s="12"/>
+      <c r="RK4" s="12"/>
+      <c r="RL4" s="12"/>
+      <c r="RM4" s="12"/>
+      <c r="RN4" s="12"/>
+      <c r="RO4" s="12"/>
+      <c r="RP4" s="12"/>
+      <c r="RQ4" s="12"/>
+      <c r="RR4" s="12"/>
+      <c r="RS4" s="12"/>
+      <c r="RT4" s="12"/>
+      <c r="RU4" s="12"/>
+      <c r="RV4" s="12"/>
+      <c r="RW4" s="12"/>
+      <c r="RX4" s="12"/>
+      <c r="RY4" s="12"/>
+      <c r="RZ4" s="12"/>
+      <c r="SA4" s="12"/>
+      <c r="SB4" s="12"/>
+      <c r="SC4" s="12"/>
+      <c r="SD4" s="12"/>
+      <c r="SE4" s="12"/>
+      <c r="SF4" s="12"/>
+      <c r="SG4" s="12"/>
+      <c r="SH4" s="12"/>
+      <c r="SI4" s="12"/>
+      <c r="SJ4" s="12"/>
+      <c r="SK4" s="12"/>
+      <c r="SL4" s="12"/>
+      <c r="SM4" s="12"/>
+      <c r="SN4" s="12"/>
+      <c r="SO4" s="12"/>
+      <c r="SP4" s="12"/>
+      <c r="SQ4" s="12"/>
+      <c r="SR4" s="12"/>
+      <c r="SS4" s="12"/>
+      <c r="ST4" s="12"/>
+      <c r="SU4" s="12"/>
+      <c r="SV4" s="12"/>
+      <c r="SW4" s="12"/>
+      <c r="SX4" s="12"/>
+      <c r="SY4" s="12"/>
+      <c r="SZ4" s="12"/>
+      <c r="TA4" s="12"/>
+      <c r="TB4" s="12"/>
+      <c r="TC4" s="12"/>
+      <c r="TD4" s="12"/>
+      <c r="TE4" s="12"/>
+      <c r="TF4" s="12"/>
+      <c r="TG4" s="12"/>
+      <c r="TH4" s="12"/>
+      <c r="TI4" s="12"/>
+      <c r="TJ4" s="12"/>
+      <c r="TK4" s="12"/>
+      <c r="TL4" s="12"/>
+      <c r="TM4" s="12"/>
+      <c r="TN4" s="12"/>
+      <c r="TO4" s="12"/>
+      <c r="TP4" s="12"/>
+      <c r="TQ4" s="12"/>
+      <c r="TR4" s="12"/>
+      <c r="TS4" s="12"/>
+      <c r="TT4" s="12"/>
+      <c r="TU4" s="12"/>
+      <c r="TV4" s="12"/>
+      <c r="TW4" s="12"/>
+      <c r="TX4" s="12"/>
+      <c r="TY4" s="12"/>
+      <c r="TZ4" s="12"/>
+      <c r="UA4" s="12"/>
+      <c r="UB4" s="12"/>
+      <c r="UC4" s="12"/>
+      <c r="UD4" s="12"/>
+      <c r="UE4" s="12"/>
+      <c r="UF4" s="12"/>
+      <c r="UG4" s="12"/>
+      <c r="UH4" s="12"/>
+      <c r="UI4" s="12"/>
+      <c r="UJ4" s="12"/>
+      <c r="UK4" s="12"/>
+      <c r="UL4" s="12"/>
+      <c r="UM4" s="12"/>
+      <c r="UN4" s="12"/>
+      <c r="UO4" s="12"/>
+      <c r="UP4" s="12"/>
+      <c r="UQ4" s="12"/>
+      <c r="UR4" s="12"/>
+      <c r="US4" s="12"/>
+      <c r="UT4" s="12"/>
+      <c r="UU4" s="12"/>
+      <c r="UV4" s="12"/>
+      <c r="UW4" s="12"/>
+      <c r="UX4" s="12"/>
+      <c r="UY4" s="12"/>
+      <c r="UZ4" s="12"/>
+      <c r="VA4" s="12"/>
+      <c r="VB4" s="12"/>
+      <c r="VC4" s="12"/>
+      <c r="VD4" s="12"/>
+      <c r="VE4" s="12"/>
+      <c r="VF4" s="12"/>
+      <c r="VG4" s="12"/>
+      <c r="VH4" s="12"/>
+      <c r="VI4" s="12"/>
+      <c r="VJ4" s="12"/>
+      <c r="VK4" s="12"/>
+      <c r="VL4" s="12"/>
+      <c r="VM4" s="12"/>
+      <c r="VN4" s="12"/>
+      <c r="VO4" s="12"/>
+      <c r="VP4" s="12"/>
+      <c r="VQ4" s="12"/>
+      <c r="VR4" s="12"/>
+      <c r="VS4" s="12"/>
+      <c r="VT4" s="12"/>
+      <c r="VU4" s="12"/>
+      <c r="VV4" s="12"/>
+      <c r="VW4" s="12"/>
+      <c r="VX4" s="12"/>
+      <c r="VY4" s="12"/>
+      <c r="VZ4" s="12"/>
+      <c r="WA4" s="12"/>
+      <c r="WB4" s="12"/>
+      <c r="WC4" s="12"/>
+      <c r="WD4" s="12"/>
+      <c r="WE4" s="12"/>
+      <c r="WF4" s="12"/>
+      <c r="WG4" s="12"/>
+      <c r="WH4" s="12"/>
+      <c r="WI4" s="12"/>
+      <c r="WJ4" s="12"/>
+      <c r="WK4" s="12"/>
+      <c r="WL4" s="12"/>
+      <c r="WM4" s="12"/>
+      <c r="WN4" s="12"/>
+      <c r="WO4" s="12"/>
+      <c r="WP4" s="12"/>
+      <c r="WQ4" s="12"/>
+      <c r="WR4" s="12"/>
+      <c r="WS4" s="12"/>
+      <c r="WT4" s="12"/>
+      <c r="WU4" s="12"/>
+      <c r="WV4" s="12"/>
+      <c r="WW4" s="12"/>
+      <c r="WX4" s="12"/>
+      <c r="WY4" s="12"/>
+      <c r="WZ4" s="12"/>
+      <c r="XA4" s="12"/>
+      <c r="XB4" s="12"/>
+      <c r="XC4" s="12"/>
+      <c r="XD4" s="12"/>
+      <c r="XE4" s="12"/>
+      <c r="XF4" s="12"/>
+      <c r="XG4" s="12"/>
+      <c r="XH4" s="12"/>
+      <c r="XI4" s="12"/>
+      <c r="XJ4" s="12"/>
+      <c r="XK4" s="12"/>
+      <c r="XL4" s="12"/>
+      <c r="XM4" s="12"/>
+      <c r="XN4" s="12"/>
+      <c r="XO4" s="12"/>
+      <c r="XP4" s="12"/>
+      <c r="XQ4" s="12"/>
+      <c r="XR4" s="12"/>
+      <c r="XS4" s="12"/>
+      <c r="XT4" s="12"/>
+      <c r="XU4" s="12"/>
+      <c r="XV4" s="12"/>
+      <c r="XW4" s="12"/>
+      <c r="XX4" s="12"/>
+      <c r="XY4" s="12"/>
+      <c r="XZ4" s="12"/>
+      <c r="YA4" s="12"/>
+      <c r="YB4" s="12"/>
+      <c r="YC4" s="12"/>
+      <c r="YD4" s="12"/>
+      <c r="YE4" s="12"/>
+      <c r="YF4" s="12"/>
+      <c r="YG4" s="12"/>
+      <c r="YH4" s="12"/>
+      <c r="YI4" s="12"/>
+      <c r="YJ4" s="12"/>
+      <c r="YK4" s="12"/>
+      <c r="YL4" s="12"/>
+      <c r="YM4" s="12"/>
+      <c r="YN4" s="12"/>
+      <c r="YO4" s="12"/>
+      <c r="YP4" s="12"/>
+      <c r="YQ4" s="12"/>
+      <c r="YR4" s="12"/>
+      <c r="YS4" s="12"/>
+      <c r="YT4" s="12"/>
+      <c r="YU4" s="12"/>
+      <c r="YV4" s="12"/>
+      <c r="YW4" s="12"/>
+      <c r="YX4" s="12"/>
+      <c r="YY4" s="12"/>
+      <c r="YZ4" s="12"/>
+      <c r="ZA4" s="12"/>
+      <c r="ZB4" s="12"/>
+      <c r="ZC4" s="12"/>
+      <c r="ZD4" s="12"/>
+      <c r="ZE4" s="12"/>
+      <c r="ZF4" s="12"/>
+      <c r="ZG4" s="12"/>
+      <c r="ZH4" s="12"/>
+      <c r="ZI4" s="12"/>
+      <c r="ZJ4" s="12"/>
+      <c r="ZK4" s="12"/>
+      <c r="ZL4" s="12"/>
+      <c r="ZM4" s="12"/>
+      <c r="ZN4" s="12"/>
+      <c r="ZO4" s="12"/>
+      <c r="ZP4" s="12"/>
+      <c r="ZQ4" s="12"/>
+      <c r="ZR4" s="12"/>
+      <c r="ZS4" s="12"/>
+      <c r="ZT4" s="12"/>
+      <c r="ZU4" s="12"/>
+      <c r="ZV4" s="12"/>
+      <c r="ZW4" s="12"/>
+      <c r="ZX4" s="12"/>
+      <c r="ZY4" s="12"/>
+      <c r="ZZ4" s="12"/>
+      <c r="AAA4" s="12"/>
+      <c r="AAB4" s="12"/>
+      <c r="AAC4" s="12"/>
+      <c r="AAD4" s="12"/>
+      <c r="AAE4" s="12"/>
+      <c r="AAF4" s="12"/>
+      <c r="AAG4" s="12"/>
+      <c r="AAH4" s="12"/>
+      <c r="AAI4" s="12"/>
+      <c r="AAJ4" s="12"/>
+      <c r="AAK4" s="12"/>
+      <c r="AAL4" s="12"/>
+      <c r="AAM4" s="12"/>
+      <c r="AAN4" s="12"/>
+      <c r="AAO4" s="12"/>
+      <c r="AAP4" s="12"/>
+      <c r="AAQ4" s="12"/>
+      <c r="AAR4" s="12"/>
+      <c r="AAS4" s="12"/>
+      <c r="AAT4" s="12"/>
+      <c r="AAU4" s="12"/>
+      <c r="AAV4" s="12"/>
+      <c r="AAW4" s="12"/>
+      <c r="AAX4" s="12"/>
+      <c r="AAY4" s="12"/>
+      <c r="AAZ4" s="12"/>
+      <c r="ABA4" s="12"/>
+      <c r="ABB4" s="12"/>
+      <c r="ABC4" s="12"/>
+      <c r="ABD4" s="12"/>
+      <c r="ABE4" s="12"/>
+      <c r="ABF4" s="12"/>
+      <c r="ABG4" s="12"/>
+      <c r="ABH4" s="12"/>
+      <c r="ABI4" s="12"/>
+      <c r="ABJ4" s="12"/>
+      <c r="ABK4" s="12"/>
+      <c r="ABL4" s="12"/>
+      <c r="ABM4" s="12"/>
+      <c r="ABN4" s="12"/>
+      <c r="ABO4" s="12"/>
+      <c r="ABP4" s="12"/>
+      <c r="ABQ4" s="12"/>
+      <c r="ABR4" s="12"/>
+      <c r="ABS4" s="12"/>
+      <c r="ABT4" s="12"/>
+      <c r="ABU4" s="12"/>
+      <c r="ABV4" s="12"/>
+      <c r="ABW4" s="12"/>
+      <c r="ABX4" s="12"/>
+      <c r="ABY4" s="12"/>
+      <c r="ABZ4" s="12"/>
+      <c r="ACA4" s="12"/>
+      <c r="ACB4" s="12"/>
+      <c r="ACC4" s="12"/>
+      <c r="ACD4" s="12"/>
+      <c r="ACE4" s="12"/>
+      <c r="ACF4" s="12"/>
+      <c r="ACG4" s="12"/>
+      <c r="ACH4" s="12"/>
+      <c r="ACI4" s="12"/>
+      <c r="ACJ4" s="12"/>
+      <c r="ACK4" s="12"/>
+      <c r="ACL4" s="12"/>
+      <c r="ACM4" s="12"/>
+      <c r="ACN4" s="12"/>
+      <c r="ACO4" s="12"/>
+      <c r="ACP4" s="12"/>
+      <c r="ACQ4" s="12"/>
+      <c r="ACR4" s="12"/>
+      <c r="ACS4" s="12"/>
+      <c r="ACT4" s="12"/>
+      <c r="ACU4" s="12"/>
+      <c r="ACV4" s="12"/>
+      <c r="ACW4" s="12"/>
+      <c r="ACX4" s="12"/>
+      <c r="ACY4" s="12"/>
+      <c r="ACZ4" s="12"/>
+      <c r="ADA4" s="12"/>
+      <c r="ADB4" s="12"/>
+      <c r="ADC4" s="12"/>
+      <c r="ADD4" s="12"/>
+      <c r="ADE4" s="12"/>
+      <c r="ADF4" s="12"/>
+      <c r="ADG4" s="12"/>
+      <c r="ADH4" s="12"/>
+      <c r="ADI4" s="12"/>
+      <c r="ADJ4" s="12"/>
+      <c r="ADK4" s="12"/>
+      <c r="ADL4" s="12"/>
+      <c r="ADM4" s="12"/>
+      <c r="ADN4" s="12"/>
+      <c r="ADO4" s="12"/>
+      <c r="ADP4" s="12"/>
+      <c r="ADQ4" s="12"/>
+      <c r="ADR4" s="12"/>
+      <c r="ADS4" s="12"/>
+      <c r="ADT4" s="12"/>
+      <c r="ADU4" s="12"/>
+      <c r="ADV4" s="12"/>
+      <c r="ADW4" s="12"/>
+      <c r="ADX4" s="12"/>
+      <c r="ADY4" s="12"/>
+      <c r="ADZ4" s="12"/>
+      <c r="AEA4" s="12"/>
+      <c r="AEB4" s="12"/>
+      <c r="AEC4" s="12"/>
+      <c r="AED4" s="12"/>
+      <c r="AEE4" s="12"/>
+      <c r="AEF4" s="12"/>
+      <c r="AEG4" s="12"/>
+      <c r="AEH4" s="12"/>
+      <c r="AEI4" s="12"/>
+      <c r="AEJ4" s="12"/>
+      <c r="AEK4" s="12"/>
+      <c r="AEL4" s="12"/>
+      <c r="AEM4" s="12"/>
+      <c r="AEN4" s="12"/>
+      <c r="AEO4" s="12"/>
+      <c r="AEP4" s="12"/>
+      <c r="AEQ4" s="12"/>
+      <c r="AER4" s="12"/>
+      <c r="AES4" s="12"/>
+      <c r="AET4" s="12"/>
+      <c r="AEU4" s="12"/>
+      <c r="AEV4" s="12"/>
+      <c r="AEW4" s="12"/>
+      <c r="AEX4" s="12"/>
+      <c r="AEY4" s="12"/>
+      <c r="AEZ4" s="12"/>
+      <c r="AFA4" s="12"/>
+      <c r="AFB4" s="12"/>
+      <c r="AFC4" s="12"/>
+      <c r="AFD4" s="12"/>
+      <c r="AFE4" s="12"/>
+      <c r="AFF4" s="12"/>
+      <c r="AFG4" s="12"/>
+      <c r="AFH4" s="12"/>
+      <c r="AFI4" s="12"/>
+      <c r="AFJ4" s="12"/>
+      <c r="AFK4" s="12"/>
+      <c r="AFL4" s="12"/>
+      <c r="AFM4" s="12"/>
+      <c r="AFN4" s="12"/>
+      <c r="AFO4" s="12"/>
+      <c r="AFP4" s="12"/>
+      <c r="AFQ4" s="12"/>
+      <c r="AFR4" s="12"/>
+      <c r="AFS4" s="12"/>
+      <c r="AFT4" s="12"/>
+      <c r="AFU4" s="12"/>
+      <c r="AFV4" s="12"/>
+      <c r="AFW4" s="12"/>
+      <c r="AFX4" s="12"/>
+      <c r="AFY4" s="12"/>
+      <c r="AFZ4" s="12"/>
+      <c r="AGA4" s="12"/>
+      <c r="AGB4" s="12"/>
+      <c r="AGC4" s="12"/>
+      <c r="AGD4" s="12"/>
+      <c r="AGE4" s="12"/>
+      <c r="AGF4" s="12"/>
+      <c r="AGG4" s="12"/>
+      <c r="AGH4" s="12"/>
+      <c r="AGI4" s="12"/>
+      <c r="AGJ4" s="12"/>
+      <c r="AGK4" s="12"/>
+      <c r="AGL4" s="12"/>
+      <c r="AGM4" s="12"/>
+      <c r="AGN4" s="12"/>
+      <c r="AGO4" s="12"/>
+      <c r="AGP4" s="12"/>
+      <c r="AGQ4" s="12"/>
+      <c r="AGR4" s="12"/>
+      <c r="AGS4" s="12"/>
+      <c r="AGT4" s="12"/>
+      <c r="AGU4" s="12"/>
+      <c r="AGV4" s="12"/>
+      <c r="AGW4" s="12"/>
+      <c r="AGX4" s="12"/>
+      <c r="AGY4" s="12"/>
+      <c r="AGZ4" s="12"/>
+      <c r="AHA4" s="12"/>
+      <c r="AHB4" s="12"/>
+      <c r="AHC4" s="12"/>
+      <c r="AHD4" s="12"/>
+      <c r="AHE4" s="12"/>
+      <c r="AHF4" s="12"/>
+      <c r="AHG4" s="12"/>
+      <c r="AHH4" s="12"/>
+      <c r="AHI4" s="12"/>
+      <c r="AHJ4" s="12"/>
+      <c r="AHK4" s="12"/>
+      <c r="AHL4" s="12"/>
+      <c r="AHM4" s="12"/>
+      <c r="AHN4" s="12"/>
+      <c r="AHO4" s="12"/>
+      <c r="AHP4" s="12"/>
+      <c r="AHQ4" s="12"/>
+      <c r="AHR4" s="12"/>
+      <c r="AHS4" s="12"/>
+      <c r="AHT4" s="12"/>
+      <c r="AHU4" s="12"/>
+      <c r="AHV4" s="12"/>
+      <c r="AHW4" s="12"/>
+      <c r="AHX4" s="12"/>
+      <c r="AHY4" s="12"/>
+      <c r="AHZ4" s="12"/>
+      <c r="AIA4" s="12"/>
+      <c r="AIB4" s="12"/>
+      <c r="AIC4" s="12"/>
+      <c r="AID4" s="12"/>
+      <c r="AIE4" s="12"/>
+      <c r="AIF4" s="12"/>
+      <c r="AIG4" s="12"/>
+      <c r="AIH4" s="12"/>
+      <c r="AII4" s="12"/>
+      <c r="AIJ4" s="12"/>
+      <c r="AIK4" s="12"/>
+      <c r="AIL4" s="12"/>
+      <c r="AIM4" s="12"/>
+      <c r="AIN4" s="12"/>
+      <c r="AIO4" s="12"/>
+      <c r="AIP4" s="12"/>
+      <c r="AIQ4" s="12"/>
+      <c r="AIR4" s="12"/>
+      <c r="AIS4" s="12"/>
+      <c r="AIT4" s="12"/>
+      <c r="AIU4" s="12"/>
+      <c r="AIV4" s="12"/>
+      <c r="AIW4" s="12"/>
+      <c r="AIX4" s="12"/>
+      <c r="AIY4" s="12"/>
+      <c r="AIZ4" s="12"/>
+      <c r="AJA4" s="12"/>
+      <c r="AJB4" s="12"/>
+      <c r="AJC4" s="12"/>
+      <c r="AJD4" s="12"/>
+      <c r="AJE4" s="12"/>
+      <c r="AJF4" s="12"/>
+      <c r="AJG4" s="12"/>
+      <c r="AJH4" s="12"/>
+      <c r="AJI4" s="12"/>
+      <c r="AJJ4" s="12"/>
+      <c r="AJK4" s="12"/>
+      <c r="AJL4" s="12"/>
+      <c r="AJM4" s="12"/>
+      <c r="AJN4" s="12"/>
+      <c r="AJO4" s="12"/>
+      <c r="AJP4" s="12"/>
+      <c r="AJQ4" s="12"/>
+      <c r="AJR4" s="12"/>
+      <c r="AJS4" s="12"/>
+      <c r="AJT4" s="12"/>
+      <c r="AJU4" s="12"/>
+      <c r="AJV4" s="12"/>
+      <c r="AJW4" s="12"/>
+      <c r="AJX4" s="12"/>
+      <c r="AJY4" s="12"/>
+      <c r="AJZ4" s="12"/>
+      <c r="AKA4" s="12"/>
+      <c r="AKB4" s="12"/>
+      <c r="AKC4" s="12"/>
+      <c r="AKD4" s="12"/>
+      <c r="AKE4" s="12"/>
+      <c r="AKF4" s="12"/>
+      <c r="AKG4" s="12"/>
+      <c r="AKH4" s="12"/>
+      <c r="AKI4" s="12"/>
+      <c r="AKJ4" s="12"/>
+      <c r="AKK4" s="12"/>
+      <c r="AKL4" s="12"/>
+      <c r="AKM4" s="12"/>
+      <c r="AKN4" s="12"/>
+      <c r="AKO4" s="12"/>
+      <c r="AKP4" s="12"/>
+      <c r="AKQ4" s="12"/>
+      <c r="AKR4" s="12"/>
+      <c r="AKS4" s="12"/>
+      <c r="AKT4" s="12"/>
+      <c r="AKU4" s="12"/>
+      <c r="AKV4" s="12"/>
+      <c r="AKW4" s="12"/>
+      <c r="AKX4" s="12"/>
+      <c r="AKY4" s="12"/>
+      <c r="AKZ4" s="12"/>
+      <c r="ALA4" s="12"/>
+      <c r="ALB4" s="12"/>
+      <c r="ALC4" s="12"/>
+      <c r="ALD4" s="12"/>
+      <c r="ALE4" s="12"/>
+      <c r="ALF4" s="12"/>
+      <c r="ALG4" s="12"/>
+      <c r="ALH4" s="12"/>
+      <c r="ALI4" s="12"/>
+      <c r="ALJ4" s="12"/>
+      <c r="ALK4" s="12"/>
+      <c r="ALL4" s="12"/>
+      <c r="ALM4" s="12"/>
+      <c r="ALN4" s="12"/>
+      <c r="ALO4" s="12"/>
+      <c r="ALP4" s="12"/>
+      <c r="ALQ4" s="12"/>
+      <c r="ALR4" s="12"/>
+      <c r="ALS4" s="12"/>
+      <c r="ALT4" s="12"/>
+      <c r="ALU4" s="12"/>
+      <c r="ALV4" s="12"/>
+      <c r="ALW4" s="12"/>
+      <c r="ALX4" s="12"/>
+      <c r="ALY4" s="12"/>
+      <c r="ALZ4" s="12"/>
+      <c r="AMA4" s="12"/>
+      <c r="AMB4" s="12"/>
+      <c r="AMC4" s="12"/>
+      <c r="AMD4" s="12"/>
+      <c r="AME4" s="12"/>
+      <c r="AMF4" s="12"/>
+      <c r="AMG4" s="12"/>
+      <c r="AMH4" s="12"/>
+      <c r="AMI4" s="12"/>
+    </row>
+    <row r="5" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12"/>
+      <c r="BT5" s="12"/>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="12"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="12"/>
+      <c r="CK5" s="12"/>
+      <c r="CL5" s="12"/>
+      <c r="CM5" s="12"/>
+      <c r="CN5" s="12"/>
+      <c r="CO5" s="12"/>
+      <c r="CP5" s="12"/>
+      <c r="CQ5" s="12"/>
+      <c r="CR5" s="12"/>
+      <c r="CS5" s="12"/>
+      <c r="CT5" s="12"/>
+      <c r="CU5" s="12"/>
+      <c r="CV5" s="12"/>
+      <c r="CW5" s="12"/>
+      <c r="CX5" s="12"/>
+      <c r="CY5" s="12"/>
+      <c r="CZ5" s="12"/>
+      <c r="DA5" s="12"/>
+      <c r="DB5" s="12"/>
+      <c r="DC5" s="12"/>
+      <c r="DD5" s="12"/>
+      <c r="DE5" s="12"/>
+      <c r="DF5" s="12"/>
+      <c r="DG5" s="12"/>
+      <c r="DH5" s="12"/>
+      <c r="DI5" s="12"/>
+      <c r="DJ5" s="12"/>
+      <c r="DK5" s="12"/>
+      <c r="DL5" s="12"/>
+      <c r="DM5" s="12"/>
+      <c r="DN5" s="12"/>
+      <c r="DO5" s="12"/>
+      <c r="DP5" s="12"/>
+      <c r="DQ5" s="12"/>
+      <c r="DR5" s="12"/>
+      <c r="DS5" s="12"/>
+      <c r="DT5" s="12"/>
+      <c r="DU5" s="12"/>
+      <c r="DV5" s="12"/>
+      <c r="DW5" s="12"/>
+      <c r="DX5" s="12"/>
+      <c r="DY5" s="12"/>
+      <c r="DZ5" s="12"/>
+      <c r="EA5" s="12"/>
+      <c r="EB5" s="12"/>
+      <c r="EC5" s="12"/>
+      <c r="ED5" s="12"/>
+      <c r="EE5" s="12"/>
+      <c r="EF5" s="12"/>
+      <c r="EG5" s="12"/>
+      <c r="EH5" s="12"/>
+      <c r="EI5" s="12"/>
+      <c r="EJ5" s="12"/>
+      <c r="EK5" s="12"/>
+      <c r="EL5" s="12"/>
+      <c r="EM5" s="12"/>
+      <c r="EN5" s="12"/>
+      <c r="EO5" s="12"/>
+      <c r="EP5" s="12"/>
+      <c r="EQ5" s="12"/>
+      <c r="ER5" s="12"/>
+      <c r="ES5" s="12"/>
+      <c r="ET5" s="12"/>
+      <c r="EU5" s="12"/>
+      <c r="EV5" s="12"/>
+      <c r="EW5" s="12"/>
+      <c r="EX5" s="12"/>
+      <c r="EY5" s="12"/>
+      <c r="EZ5" s="12"/>
+      <c r="FA5" s="12"/>
+      <c r="FB5" s="12"/>
+      <c r="FC5" s="12"/>
+      <c r="FD5" s="12"/>
+      <c r="FE5" s="12"/>
+      <c r="FF5" s="12"/>
+      <c r="FG5" s="12"/>
+      <c r="FH5" s="12"/>
+      <c r="FI5" s="12"/>
+      <c r="FJ5" s="12"/>
+      <c r="FK5" s="12"/>
+      <c r="FL5" s="12"/>
+      <c r="FM5" s="12"/>
+      <c r="FN5" s="12"/>
+      <c r="FO5" s="12"/>
+      <c r="FP5" s="12"/>
+      <c r="FQ5" s="12"/>
+      <c r="FR5" s="12"/>
+      <c r="FS5" s="12"/>
+      <c r="FT5" s="12"/>
+      <c r="FU5" s="12"/>
+      <c r="FV5" s="12"/>
+      <c r="FW5" s="12"/>
+      <c r="FX5" s="12"/>
+      <c r="FY5" s="12"/>
+      <c r="FZ5" s="12"/>
+      <c r="GA5" s="12"/>
+      <c r="GB5" s="12"/>
+      <c r="GC5" s="12"/>
+      <c r="GD5" s="12"/>
+      <c r="GE5" s="12"/>
+      <c r="GF5" s="12"/>
+      <c r="GG5" s="12"/>
+      <c r="GH5" s="12"/>
+      <c r="GI5" s="12"/>
+      <c r="GJ5" s="12"/>
+      <c r="GK5" s="12"/>
+      <c r="GL5" s="12"/>
+      <c r="GM5" s="12"/>
+      <c r="GN5" s="12"/>
+      <c r="GO5" s="12"/>
+      <c r="GP5" s="12"/>
+      <c r="GQ5" s="12"/>
+      <c r="GR5" s="12"/>
+      <c r="GS5" s="12"/>
+      <c r="GT5" s="12"/>
+      <c r="GU5" s="12"/>
+      <c r="GV5" s="12"/>
+      <c r="GW5" s="12"/>
+      <c r="GX5" s="12"/>
+      <c r="GY5" s="12"/>
+      <c r="GZ5" s="12"/>
+      <c r="HA5" s="12"/>
+      <c r="HB5" s="12"/>
+      <c r="HC5" s="12"/>
+      <c r="HD5" s="12"/>
+      <c r="HE5" s="12"/>
+      <c r="HF5" s="12"/>
+      <c r="HG5" s="12"/>
+      <c r="HH5" s="12"/>
+      <c r="HI5" s="12"/>
+      <c r="HJ5" s="12"/>
+      <c r="HK5" s="12"/>
+      <c r="HL5" s="12"/>
+      <c r="HM5" s="12"/>
+      <c r="HN5" s="12"/>
+      <c r="HO5" s="12"/>
+      <c r="HP5" s="12"/>
+      <c r="HQ5" s="12"/>
+      <c r="HR5" s="12"/>
+      <c r="HS5" s="12"/>
+      <c r="HT5" s="12"/>
+      <c r="HU5" s="12"/>
+      <c r="HV5" s="12"/>
+      <c r="HW5" s="12"/>
+      <c r="HX5" s="12"/>
+      <c r="HY5" s="12"/>
+      <c r="HZ5" s="12"/>
+      <c r="IA5" s="12"/>
+      <c r="IB5" s="12"/>
+      <c r="IC5" s="12"/>
+      <c r="ID5" s="12"/>
+      <c r="IE5" s="12"/>
+      <c r="IF5" s="12"/>
+      <c r="IG5" s="12"/>
+      <c r="IH5" s="12"/>
+      <c r="II5" s="12"/>
+      <c r="IJ5" s="12"/>
+      <c r="IK5" s="12"/>
+      <c r="IL5" s="12"/>
+      <c r="IM5" s="12"/>
+      <c r="IN5" s="12"/>
+      <c r="IO5" s="12"/>
+      <c r="IP5" s="12"/>
+      <c r="IQ5" s="12"/>
+      <c r="IR5" s="12"/>
+      <c r="IS5" s="12"/>
+      <c r="IT5" s="12"/>
+      <c r="IU5" s="12"/>
+      <c r="IV5" s="12"/>
+      <c r="IW5" s="12"/>
+      <c r="IX5" s="12"/>
+      <c r="IY5" s="12"/>
+      <c r="IZ5" s="12"/>
+      <c r="JA5" s="12"/>
+      <c r="JB5" s="12"/>
+      <c r="JC5" s="12"/>
+      <c r="JD5" s="12"/>
+      <c r="JE5" s="12"/>
+      <c r="JF5" s="12"/>
+      <c r="JG5" s="12"/>
+      <c r="JH5" s="12"/>
+      <c r="JI5" s="12"/>
+      <c r="JJ5" s="12"/>
+      <c r="JK5" s="12"/>
+      <c r="JL5" s="12"/>
+      <c r="JM5" s="12"/>
+      <c r="JN5" s="12"/>
+      <c r="JO5" s="12"/>
+      <c r="JP5" s="12"/>
+      <c r="JQ5" s="12"/>
+      <c r="JR5" s="12"/>
+      <c r="JS5" s="12"/>
+      <c r="JT5" s="12"/>
+      <c r="JU5" s="12"/>
+      <c r="JV5" s="12"/>
+      <c r="JW5" s="12"/>
+      <c r="JX5" s="12"/>
+      <c r="JY5" s="12"/>
+      <c r="JZ5" s="12"/>
+      <c r="KA5" s="12"/>
+      <c r="KB5" s="12"/>
+      <c r="KC5" s="12"/>
+      <c r="KD5" s="12"/>
+      <c r="KE5" s="12"/>
+      <c r="KF5" s="12"/>
+      <c r="KG5" s="12"/>
+      <c r="KH5" s="12"/>
+      <c r="KI5" s="12"/>
+      <c r="KJ5" s="12"/>
+      <c r="KK5" s="12"/>
+      <c r="KL5" s="12"/>
+      <c r="KM5" s="12"/>
+      <c r="KN5" s="12"/>
+      <c r="KO5" s="12"/>
+      <c r="KP5" s="12"/>
+      <c r="KQ5" s="12"/>
+      <c r="KR5" s="12"/>
+      <c r="KS5" s="12"/>
+      <c r="KT5" s="12"/>
+      <c r="KU5" s="12"/>
+      <c r="KV5" s="12"/>
+      <c r="KW5" s="12"/>
+      <c r="KX5" s="12"/>
+      <c r="KY5" s="12"/>
+      <c r="KZ5" s="12"/>
+      <c r="LA5" s="12"/>
+      <c r="LB5" s="12"/>
+      <c r="LC5" s="12"/>
+      <c r="LD5" s="12"/>
+      <c r="LE5" s="12"/>
+      <c r="LF5" s="12"/>
+      <c r="LG5" s="12"/>
+      <c r="LH5" s="12"/>
+      <c r="LI5" s="12"/>
+      <c r="LJ5" s="12"/>
+      <c r="LK5" s="12"/>
+      <c r="LL5" s="12"/>
+      <c r="LM5" s="12"/>
+      <c r="LN5" s="12"/>
+      <c r="LO5" s="12"/>
+      <c r="LP5" s="12"/>
+      <c r="LQ5" s="12"/>
+      <c r="LR5" s="12"/>
+      <c r="LS5" s="12"/>
+      <c r="LT5" s="12"/>
+      <c r="LU5" s="12"/>
+      <c r="LV5" s="12"/>
+      <c r="LW5" s="12"/>
+      <c r="LX5" s="12"/>
+      <c r="LY5" s="12"/>
+      <c r="LZ5" s="12"/>
+      <c r="MA5" s="12"/>
+      <c r="MB5" s="12"/>
+      <c r="MC5" s="12"/>
+      <c r="MD5" s="12"/>
+      <c r="ME5" s="12"/>
+      <c r="MF5" s="12"/>
+      <c r="MG5" s="12"/>
+      <c r="MH5" s="12"/>
+      <c r="MI5" s="12"/>
+      <c r="MJ5" s="12"/>
+      <c r="MK5" s="12"/>
+      <c r="ML5" s="12"/>
+      <c r="MM5" s="12"/>
+      <c r="MN5" s="12"/>
+      <c r="MO5" s="12"/>
+      <c r="MP5" s="12"/>
+      <c r="MQ5" s="12"/>
+      <c r="MR5" s="12"/>
+      <c r="MS5" s="12"/>
+      <c r="MT5" s="12"/>
+      <c r="MU5" s="12"/>
+      <c r="MV5" s="12"/>
+      <c r="MW5" s="12"/>
+      <c r="MX5" s="12"/>
+      <c r="MY5" s="12"/>
+      <c r="MZ5" s="12"/>
+      <c r="NA5" s="12"/>
+      <c r="NB5" s="12"/>
+      <c r="NC5" s="12"/>
+      <c r="ND5" s="12"/>
+      <c r="NE5" s="12"/>
+      <c r="NF5" s="12"/>
+      <c r="NG5" s="12"/>
+      <c r="NH5" s="12"/>
+      <c r="NI5" s="12"/>
+      <c r="NJ5" s="12"/>
+      <c r="NK5" s="12"/>
+      <c r="NL5" s="12"/>
+      <c r="NM5" s="12"/>
+      <c r="NN5" s="12"/>
+      <c r="NO5" s="12"/>
+      <c r="NP5" s="12"/>
+      <c r="NQ5" s="12"/>
+      <c r="NR5" s="12"/>
+      <c r="NS5" s="12"/>
+      <c r="NT5" s="12"/>
+      <c r="NU5" s="12"/>
+      <c r="NV5" s="12"/>
+      <c r="NW5" s="12"/>
+      <c r="NX5" s="12"/>
+      <c r="NY5" s="12"/>
+      <c r="NZ5" s="12"/>
+      <c r="OA5" s="12"/>
+      <c r="OB5" s="12"/>
+      <c r="OC5" s="12"/>
+      <c r="OD5" s="12"/>
+      <c r="OE5" s="12"/>
+      <c r="OF5" s="12"/>
+      <c r="OG5" s="12"/>
+      <c r="OH5" s="12"/>
+      <c r="OI5" s="12"/>
+      <c r="OJ5" s="12"/>
+      <c r="OK5" s="12"/>
+      <c r="OL5" s="12"/>
+      <c r="OM5" s="12"/>
+      <c r="ON5" s="12"/>
+      <c r="OO5" s="12"/>
+      <c r="OP5" s="12"/>
+      <c r="OQ5" s="12"/>
+      <c r="OR5" s="12"/>
+      <c r="OS5" s="12"/>
+      <c r="OT5" s="12"/>
+      <c r="OU5" s="12"/>
+      <c r="OV5" s="12"/>
+      <c r="OW5" s="12"/>
+      <c r="OX5" s="12"/>
+      <c r="OY5" s="12"/>
+      <c r="OZ5" s="12"/>
+      <c r="PA5" s="12"/>
+      <c r="PB5" s="12"/>
+      <c r="PC5" s="12"/>
+      <c r="PD5" s="12"/>
+      <c r="PE5" s="12"/>
+      <c r="PF5" s="12"/>
+      <c r="PG5" s="12"/>
+      <c r="PH5" s="12"/>
+      <c r="PI5" s="12"/>
+      <c r="PJ5" s="12"/>
+      <c r="PK5" s="12"/>
+      <c r="PL5" s="12"/>
+      <c r="PM5" s="12"/>
+      <c r="PN5" s="12"/>
+      <c r="PO5" s="12"/>
+      <c r="PP5" s="12"/>
+      <c r="PQ5" s="12"/>
+      <c r="PR5" s="12"/>
+      <c r="PS5" s="12"/>
+      <c r="PT5" s="12"/>
+      <c r="PU5" s="12"/>
+      <c r="PV5" s="12"/>
+      <c r="PW5" s="12"/>
+      <c r="PX5" s="12"/>
+      <c r="PY5" s="12"/>
+      <c r="PZ5" s="12"/>
+      <c r="QA5" s="12"/>
+      <c r="QB5" s="12"/>
+      <c r="QC5" s="12"/>
+      <c r="QD5" s="12"/>
+      <c r="QE5" s="12"/>
+      <c r="QF5" s="12"/>
+      <c r="QG5" s="12"/>
+      <c r="QH5" s="12"/>
+      <c r="QI5" s="12"/>
+      <c r="QJ5" s="12"/>
+      <c r="QK5" s="12"/>
+      <c r="QL5" s="12"/>
+      <c r="QM5" s="12"/>
+      <c r="QN5" s="12"/>
+      <c r="QO5" s="12"/>
+      <c r="QP5" s="12"/>
+      <c r="QQ5" s="12"/>
+      <c r="QR5" s="12"/>
+      <c r="QS5" s="12"/>
+      <c r="QT5" s="12"/>
+      <c r="QU5" s="12"/>
+      <c r="QV5" s="12"/>
+      <c r="QW5" s="12"/>
+      <c r="QX5" s="12"/>
+      <c r="QY5" s="12"/>
+      <c r="QZ5" s="12"/>
+      <c r="RA5" s="12"/>
+      <c r="RB5" s="12"/>
+      <c r="RC5" s="12"/>
+      <c r="RD5" s="12"/>
+      <c r="RE5" s="12"/>
+      <c r="RF5" s="12"/>
+      <c r="RG5" s="12"/>
+      <c r="RH5" s="12"/>
+      <c r="RI5" s="12"/>
+      <c r="RJ5" s="12"/>
+      <c r="RK5" s="12"/>
+      <c r="RL5" s="12"/>
+      <c r="RM5" s="12"/>
+      <c r="RN5" s="12"/>
+      <c r="RO5" s="12"/>
+      <c r="RP5" s="12"/>
+      <c r="RQ5" s="12"/>
+      <c r="RR5" s="12"/>
+      <c r="RS5" s="12"/>
+      <c r="RT5" s="12"/>
+      <c r="RU5" s="12"/>
+      <c r="RV5" s="12"/>
+      <c r="RW5" s="12"/>
+      <c r="RX5" s="12"/>
+      <c r="RY5" s="12"/>
+      <c r="RZ5" s="12"/>
+      <c r="SA5" s="12"/>
+      <c r="SB5" s="12"/>
+      <c r="SC5" s="12"/>
+      <c r="SD5" s="12"/>
+      <c r="SE5" s="12"/>
+      <c r="SF5" s="12"/>
+      <c r="SG5" s="12"/>
+      <c r="SH5" s="12"/>
+      <c r="SI5" s="12"/>
+      <c r="SJ5" s="12"/>
+      <c r="SK5" s="12"/>
+      <c r="SL5" s="12"/>
+      <c r="SM5" s="12"/>
+      <c r="SN5" s="12"/>
+      <c r="SO5" s="12"/>
+      <c r="SP5" s="12"/>
+      <c r="SQ5" s="12"/>
+      <c r="SR5" s="12"/>
+      <c r="SS5" s="12"/>
+      <c r="ST5" s="12"/>
+      <c r="SU5" s="12"/>
+      <c r="SV5" s="12"/>
+      <c r="SW5" s="12"/>
+      <c r="SX5" s="12"/>
+      <c r="SY5" s="12"/>
+      <c r="SZ5" s="12"/>
+      <c r="TA5" s="12"/>
+      <c r="TB5" s="12"/>
+      <c r="TC5" s="12"/>
+      <c r="TD5" s="12"/>
+      <c r="TE5" s="12"/>
+      <c r="TF5" s="12"/>
+      <c r="TG5" s="12"/>
+      <c r="TH5" s="12"/>
+      <c r="TI5" s="12"/>
+      <c r="TJ5" s="12"/>
+      <c r="TK5" s="12"/>
+      <c r="TL5" s="12"/>
+      <c r="TM5" s="12"/>
+      <c r="TN5" s="12"/>
+      <c r="TO5" s="12"/>
+      <c r="TP5" s="12"/>
+      <c r="TQ5" s="12"/>
+      <c r="TR5" s="12"/>
+      <c r="TS5" s="12"/>
+      <c r="TT5" s="12"/>
+      <c r="TU5" s="12"/>
+      <c r="TV5" s="12"/>
+      <c r="TW5" s="12"/>
+      <c r="TX5" s="12"/>
+      <c r="TY5" s="12"/>
+      <c r="TZ5" s="12"/>
+      <c r="UA5" s="12"/>
+      <c r="UB5" s="12"/>
+      <c r="UC5" s="12"/>
+      <c r="UD5" s="12"/>
+      <c r="UE5" s="12"/>
+      <c r="UF5" s="12"/>
+      <c r="UG5" s="12"/>
+      <c r="UH5" s="12"/>
+      <c r="UI5" s="12"/>
+      <c r="UJ5" s="12"/>
+      <c r="UK5" s="12"/>
+      <c r="UL5" s="12"/>
+      <c r="UM5" s="12"/>
+      <c r="UN5" s="12"/>
+      <c r="UO5" s="12"/>
+      <c r="UP5" s="12"/>
+      <c r="UQ5" s="12"/>
+      <c r="UR5" s="12"/>
+      <c r="US5" s="12"/>
+      <c r="UT5" s="12"/>
+      <c r="UU5" s="12"/>
+      <c r="UV5" s="12"/>
+      <c r="UW5" s="12"/>
+      <c r="UX5" s="12"/>
+      <c r="UY5" s="12"/>
+      <c r="UZ5" s="12"/>
+      <c r="VA5" s="12"/>
+      <c r="VB5" s="12"/>
+      <c r="VC5" s="12"/>
+      <c r="VD5" s="12"/>
+      <c r="VE5" s="12"/>
+      <c r="VF5" s="12"/>
+      <c r="VG5" s="12"/>
+      <c r="VH5" s="12"/>
+      <c r="VI5" s="12"/>
+      <c r="VJ5" s="12"/>
+      <c r="VK5" s="12"/>
+      <c r="VL5" s="12"/>
+      <c r="VM5" s="12"/>
+      <c r="VN5" s="12"/>
+      <c r="VO5" s="12"/>
+      <c r="VP5" s="12"/>
+      <c r="VQ5" s="12"/>
+      <c r="VR5" s="12"/>
+      <c r="VS5" s="12"/>
+      <c r="VT5" s="12"/>
+      <c r="VU5" s="12"/>
+      <c r="VV5" s="12"/>
+      <c r="VW5" s="12"/>
+      <c r="VX5" s="12"/>
+      <c r="VY5" s="12"/>
+      <c r="VZ5" s="12"/>
+      <c r="WA5" s="12"/>
+      <c r="WB5" s="12"/>
+      <c r="WC5" s="12"/>
+      <c r="WD5" s="12"/>
+      <c r="WE5" s="12"/>
+      <c r="WF5" s="12"/>
+      <c r="WG5" s="12"/>
+      <c r="WH5" s="12"/>
+      <c r="WI5" s="12"/>
+      <c r="WJ5" s="12"/>
+      <c r="WK5" s="12"/>
+      <c r="WL5" s="12"/>
+      <c r="WM5" s="12"/>
+      <c r="WN5" s="12"/>
+      <c r="WO5" s="12"/>
+      <c r="WP5" s="12"/>
+      <c r="WQ5" s="12"/>
+      <c r="WR5" s="12"/>
+      <c r="WS5" s="12"/>
+      <c r="WT5" s="12"/>
+      <c r="WU5" s="12"/>
+      <c r="WV5" s="12"/>
+      <c r="WW5" s="12"/>
+      <c r="WX5" s="12"/>
+      <c r="WY5" s="12"/>
+      <c r="WZ5" s="12"/>
+      <c r="XA5" s="12"/>
+      <c r="XB5" s="12"/>
+      <c r="XC5" s="12"/>
+      <c r="XD5" s="12"/>
+      <c r="XE5" s="12"/>
+      <c r="XF5" s="12"/>
+      <c r="XG5" s="12"/>
+      <c r="XH5" s="12"/>
+      <c r="XI5" s="12"/>
+      <c r="XJ5" s="12"/>
+      <c r="XK5" s="12"/>
+      <c r="XL5" s="12"/>
+      <c r="XM5" s="12"/>
+      <c r="XN5" s="12"/>
+      <c r="XO5" s="12"/>
+      <c r="XP5" s="12"/>
+      <c r="XQ5" s="12"/>
+      <c r="XR5" s="12"/>
+      <c r="XS5" s="12"/>
+      <c r="XT5" s="12"/>
+      <c r="XU5" s="12"/>
+      <c r="XV5" s="12"/>
+      <c r="XW5" s="12"/>
+      <c r="XX5" s="12"/>
+      <c r="XY5" s="12"/>
+      <c r="XZ5" s="12"/>
+      <c r="YA5" s="12"/>
+      <c r="YB5" s="12"/>
+      <c r="YC5" s="12"/>
+      <c r="YD5" s="12"/>
+      <c r="YE5" s="12"/>
+      <c r="YF5" s="12"/>
+      <c r="YG5" s="12"/>
+      <c r="YH5" s="12"/>
+      <c r="YI5" s="12"/>
+      <c r="YJ5" s="12"/>
+      <c r="YK5" s="12"/>
+      <c r="YL5" s="12"/>
+      <c r="YM5" s="12"/>
+      <c r="YN5" s="12"/>
+      <c r="YO5" s="12"/>
+      <c r="YP5" s="12"/>
+      <c r="YQ5" s="12"/>
+      <c r="YR5" s="12"/>
+      <c r="YS5" s="12"/>
+      <c r="YT5" s="12"/>
+      <c r="YU5" s="12"/>
+      <c r="YV5" s="12"/>
+      <c r="YW5" s="12"/>
+      <c r="YX5" s="12"/>
+      <c r="YY5" s="12"/>
+      <c r="YZ5" s="12"/>
+      <c r="ZA5" s="12"/>
+      <c r="ZB5" s="12"/>
+      <c r="ZC5" s="12"/>
+      <c r="ZD5" s="12"/>
+      <c r="ZE5" s="12"/>
+      <c r="ZF5" s="12"/>
+      <c r="ZG5" s="12"/>
+      <c r="ZH5" s="12"/>
+      <c r="ZI5" s="12"/>
+      <c r="ZJ5" s="12"/>
+      <c r="ZK5" s="12"/>
+      <c r="ZL5" s="12"/>
+      <c r="ZM5" s="12"/>
+      <c r="ZN5" s="12"/>
+      <c r="ZO5" s="12"/>
+      <c r="ZP5" s="12"/>
+      <c r="ZQ5" s="12"/>
+      <c r="ZR5" s="12"/>
+      <c r="ZS5" s="12"/>
+      <c r="ZT5" s="12"/>
+      <c r="ZU5" s="12"/>
+      <c r="ZV5" s="12"/>
+      <c r="ZW5" s="12"/>
+      <c r="ZX5" s="12"/>
+      <c r="ZY5" s="12"/>
+      <c r="ZZ5" s="12"/>
+      <c r="AAA5" s="12"/>
+      <c r="AAB5" s="12"/>
+      <c r="AAC5" s="12"/>
+      <c r="AAD5" s="12"/>
+      <c r="AAE5" s="12"/>
+      <c r="AAF5" s="12"/>
+      <c r="AAG5" s="12"/>
+      <c r="AAH5" s="12"/>
+      <c r="AAI5" s="12"/>
+      <c r="AAJ5" s="12"/>
+      <c r="AAK5" s="12"/>
+      <c r="AAL5" s="12"/>
+      <c r="AAM5" s="12"/>
+      <c r="AAN5" s="12"/>
+      <c r="AAO5" s="12"/>
+      <c r="AAP5" s="12"/>
+      <c r="AAQ5" s="12"/>
+      <c r="AAR5" s="12"/>
+      <c r="AAS5" s="12"/>
+      <c r="AAT5" s="12"/>
+      <c r="AAU5" s="12"/>
+      <c r="AAV5" s="12"/>
+      <c r="AAW5" s="12"/>
+      <c r="AAX5" s="12"/>
+      <c r="AAY5" s="12"/>
+      <c r="AAZ5" s="12"/>
+      <c r="ABA5" s="12"/>
+      <c r="ABB5" s="12"/>
+      <c r="ABC5" s="12"/>
+      <c r="ABD5" s="12"/>
+      <c r="ABE5" s="12"/>
+      <c r="ABF5" s="12"/>
+      <c r="ABG5" s="12"/>
+      <c r="ABH5" s="12"/>
+      <c r="ABI5" s="12"/>
+      <c r="ABJ5" s="12"/>
+      <c r="ABK5" s="12"/>
+      <c r="ABL5" s="12"/>
+      <c r="ABM5" s="12"/>
+      <c r="ABN5" s="12"/>
+      <c r="ABO5" s="12"/>
+      <c r="ABP5" s="12"/>
+      <c r="ABQ5" s="12"/>
+      <c r="ABR5" s="12"/>
+      <c r="ABS5" s="12"/>
+      <c r="ABT5" s="12"/>
+      <c r="ABU5" s="12"/>
+      <c r="ABV5" s="12"/>
+      <c r="ABW5" s="12"/>
+      <c r="ABX5" s="12"/>
+      <c r="ABY5" s="12"/>
+      <c r="ABZ5" s="12"/>
+      <c r="ACA5" s="12"/>
+      <c r="ACB5" s="12"/>
+      <c r="ACC5" s="12"/>
+      <c r="ACD5" s="12"/>
+      <c r="ACE5" s="12"/>
+      <c r="ACF5" s="12"/>
+      <c r="ACG5" s="12"/>
+      <c r="ACH5" s="12"/>
+      <c r="ACI5" s="12"/>
+      <c r="ACJ5" s="12"/>
+      <c r="ACK5" s="12"/>
+      <c r="ACL5" s="12"/>
+      <c r="ACM5" s="12"/>
+      <c r="ACN5" s="12"/>
+      <c r="ACO5" s="12"/>
+      <c r="ACP5" s="12"/>
+      <c r="ACQ5" s="12"/>
+      <c r="ACR5" s="12"/>
+      <c r="ACS5" s="12"/>
+      <c r="ACT5" s="12"/>
+      <c r="ACU5" s="12"/>
+      <c r="ACV5" s="12"/>
+      <c r="ACW5" s="12"/>
+      <c r="ACX5" s="12"/>
+      <c r="ACY5" s="12"/>
+      <c r="ACZ5" s="12"/>
+      <c r="ADA5" s="12"/>
+      <c r="ADB5" s="12"/>
+      <c r="ADC5" s="12"/>
+      <c r="ADD5" s="12"/>
+      <c r="ADE5" s="12"/>
+      <c r="ADF5" s="12"/>
+      <c r="ADG5" s="12"/>
+      <c r="ADH5" s="12"/>
+      <c r="ADI5" s="12"/>
+      <c r="ADJ5" s="12"/>
+      <c r="ADK5" s="12"/>
+      <c r="ADL5" s="12"/>
+      <c r="ADM5" s="12"/>
+      <c r="ADN5" s="12"/>
+      <c r="ADO5" s="12"/>
+      <c r="ADP5" s="12"/>
+      <c r="ADQ5" s="12"/>
+      <c r="ADR5" s="12"/>
+      <c r="ADS5" s="12"/>
+      <c r="ADT5" s="12"/>
+      <c r="ADU5" s="12"/>
+      <c r="ADV5" s="12"/>
+      <c r="ADW5" s="12"/>
+      <c r="ADX5" s="12"/>
+      <c r="ADY5" s="12"/>
+      <c r="ADZ5" s="12"/>
+      <c r="AEA5" s="12"/>
+      <c r="AEB5" s="12"/>
+      <c r="AEC5" s="12"/>
+      <c r="AED5" s="12"/>
+      <c r="AEE5" s="12"/>
+      <c r="AEF5" s="12"/>
+      <c r="AEG5" s="12"/>
+      <c r="AEH5" s="12"/>
+      <c r="AEI5" s="12"/>
+      <c r="AEJ5" s="12"/>
+      <c r="AEK5" s="12"/>
+      <c r="AEL5" s="12"/>
+      <c r="AEM5" s="12"/>
+      <c r="AEN5" s="12"/>
+      <c r="AEO5" s="12"/>
+      <c r="AEP5" s="12"/>
+      <c r="AEQ5" s="12"/>
+      <c r="AER5" s="12"/>
+      <c r="AES5" s="12"/>
+      <c r="AET5" s="12"/>
+      <c r="AEU5" s="12"/>
+      <c r="AEV5" s="12"/>
+      <c r="AEW5" s="12"/>
+      <c r="AEX5" s="12"/>
+      <c r="AEY5" s="12"/>
+      <c r="AEZ5" s="12"/>
+      <c r="AFA5" s="12"/>
+      <c r="AFB5" s="12"/>
+      <c r="AFC5" s="12"/>
+      <c r="AFD5" s="12"/>
+      <c r="AFE5" s="12"/>
+      <c r="AFF5" s="12"/>
+      <c r="AFG5" s="12"/>
+      <c r="AFH5" s="12"/>
+      <c r="AFI5" s="12"/>
+      <c r="AFJ5" s="12"/>
+      <c r="AFK5" s="12"/>
+      <c r="AFL5" s="12"/>
+      <c r="AFM5" s="12"/>
+      <c r="AFN5" s="12"/>
+      <c r="AFO5" s="12"/>
+      <c r="AFP5" s="12"/>
+      <c r="AFQ5" s="12"/>
+      <c r="AFR5" s="12"/>
+      <c r="AFS5" s="12"/>
+      <c r="AFT5" s="12"/>
+      <c r="AFU5" s="12"/>
+      <c r="AFV5" s="12"/>
+      <c r="AFW5" s="12"/>
+      <c r="AFX5" s="12"/>
+      <c r="AFY5" s="12"/>
+      <c r="AFZ5" s="12"/>
+      <c r="AGA5" s="12"/>
+      <c r="AGB5" s="12"/>
+      <c r="AGC5" s="12"/>
+      <c r="AGD5" s="12"/>
+      <c r="AGE5" s="12"/>
+      <c r="AGF5" s="12"/>
+      <c r="AGG5" s="12"/>
+      <c r="AGH5" s="12"/>
+      <c r="AGI5" s="12"/>
+      <c r="AGJ5" s="12"/>
+      <c r="AGK5" s="12"/>
+      <c r="AGL5" s="12"/>
+      <c r="AGM5" s="12"/>
+      <c r="AGN5" s="12"/>
+      <c r="AGO5" s="12"/>
+      <c r="AGP5" s="12"/>
+      <c r="AGQ5" s="12"/>
+      <c r="AGR5" s="12"/>
+      <c r="AGS5" s="12"/>
+      <c r="AGT5" s="12"/>
+      <c r="AGU5" s="12"/>
+      <c r="AGV5" s="12"/>
+      <c r="AGW5" s="12"/>
+      <c r="AGX5" s="12"/>
+      <c r="AGY5" s="12"/>
+      <c r="AGZ5" s="12"/>
+      <c r="AHA5" s="12"/>
+      <c r="AHB5" s="12"/>
+      <c r="AHC5" s="12"/>
+      <c r="AHD5" s="12"/>
+      <c r="AHE5" s="12"/>
+      <c r="AHF5" s="12"/>
+      <c r="AHG5" s="12"/>
+      <c r="AHH5" s="12"/>
+      <c r="AHI5" s="12"/>
+      <c r="AHJ5" s="12"/>
+      <c r="AHK5" s="12"/>
+      <c r="AHL5" s="12"/>
+      <c r="AHM5" s="12"/>
+      <c r="AHN5" s="12"/>
+      <c r="AHO5" s="12"/>
+      <c r="AHP5" s="12"/>
+      <c r="AHQ5" s="12"/>
+      <c r="AHR5" s="12"/>
+      <c r="AHS5" s="12"/>
+      <c r="AHT5" s="12"/>
+      <c r="AHU5" s="12"/>
+      <c r="AHV5" s="12"/>
+      <c r="AHW5" s="12"/>
+      <c r="AHX5" s="12"/>
+      <c r="AHY5" s="12"/>
+      <c r="AHZ5" s="12"/>
+      <c r="AIA5" s="12"/>
+      <c r="AIB5" s="12"/>
+      <c r="AIC5" s="12"/>
+      <c r="AID5" s="12"/>
+      <c r="AIE5" s="12"/>
+      <c r="AIF5" s="12"/>
+      <c r="AIG5" s="12"/>
+      <c r="AIH5" s="12"/>
+      <c r="AII5" s="12"/>
+      <c r="AIJ5" s="12"/>
+      <c r="AIK5" s="12"/>
+      <c r="AIL5" s="12"/>
+      <c r="AIM5" s="12"/>
+      <c r="AIN5" s="12"/>
+      <c r="AIO5" s="12"/>
+      <c r="AIP5" s="12"/>
+      <c r="AIQ5" s="12"/>
+      <c r="AIR5" s="12"/>
+      <c r="AIS5" s="12"/>
+      <c r="AIT5" s="12"/>
+      <c r="AIU5" s="12"/>
+      <c r="AIV5" s="12"/>
+      <c r="AIW5" s="12"/>
+      <c r="AIX5" s="12"/>
+      <c r="AIY5" s="12"/>
+      <c r="AIZ5" s="12"/>
+      <c r="AJA5" s="12"/>
+      <c r="AJB5" s="12"/>
+      <c r="AJC5" s="12"/>
+      <c r="AJD5" s="12"/>
+      <c r="AJE5" s="12"/>
+      <c r="AJF5" s="12"/>
+      <c r="AJG5" s="12"/>
+      <c r="AJH5" s="12"/>
+      <c r="AJI5" s="12"/>
+      <c r="AJJ5" s="12"/>
+      <c r="AJK5" s="12"/>
+      <c r="AJL5" s="12"/>
+      <c r="AJM5" s="12"/>
+      <c r="AJN5" s="12"/>
+      <c r="AJO5" s="12"/>
+      <c r="AJP5" s="12"/>
+      <c r="AJQ5" s="12"/>
+      <c r="AJR5" s="12"/>
+      <c r="AJS5" s="12"/>
+      <c r="AJT5" s="12"/>
+      <c r="AJU5" s="12"/>
+      <c r="AJV5" s="12"/>
+      <c r="AJW5" s="12"/>
+      <c r="AJX5" s="12"/>
+      <c r="AJY5" s="12"/>
+      <c r="AJZ5" s="12"/>
+      <c r="AKA5" s="12"/>
+      <c r="AKB5" s="12"/>
+      <c r="AKC5" s="12"/>
+      <c r="AKD5" s="12"/>
+      <c r="AKE5" s="12"/>
+      <c r="AKF5" s="12"/>
+      <c r="AKG5" s="12"/>
+      <c r="AKH5" s="12"/>
+      <c r="AKI5" s="12"/>
+      <c r="AKJ5" s="12"/>
+      <c r="AKK5" s="12"/>
+      <c r="AKL5" s="12"/>
+      <c r="AKM5" s="12"/>
+      <c r="AKN5" s="12"/>
+      <c r="AKO5" s="12"/>
+      <c r="AKP5" s="12"/>
+      <c r="AKQ5" s="12"/>
+      <c r="AKR5" s="12"/>
+      <c r="AKS5" s="12"/>
+      <c r="AKT5" s="12"/>
+      <c r="AKU5" s="12"/>
+      <c r="AKV5" s="12"/>
+      <c r="AKW5" s="12"/>
+      <c r="AKX5" s="12"/>
+      <c r="AKY5" s="12"/>
+      <c r="AKZ5" s="12"/>
+      <c r="ALA5" s="12"/>
+      <c r="ALB5" s="12"/>
+      <c r="ALC5" s="12"/>
+      <c r="ALD5" s="12"/>
+      <c r="ALE5" s="12"/>
+      <c r="ALF5" s="12"/>
+      <c r="ALG5" s="12"/>
+      <c r="ALH5" s="12"/>
+      <c r="ALI5" s="12"/>
+      <c r="ALJ5" s="12"/>
+      <c r="ALK5" s="12"/>
+      <c r="ALL5" s="12"/>
+      <c r="ALM5" s="12"/>
+      <c r="ALN5" s="12"/>
+      <c r="ALO5" s="12"/>
+      <c r="ALP5" s="12"/>
+      <c r="ALQ5" s="12"/>
+      <c r="ALR5" s="12"/>
+      <c r="ALS5" s="12"/>
+      <c r="ALT5" s="12"/>
+      <c r="ALU5" s="12"/>
+      <c r="ALV5" s="12"/>
+      <c r="ALW5" s="12"/>
+      <c r="ALX5" s="12"/>
+      <c r="ALY5" s="12"/>
+      <c r="ALZ5" s="12"/>
+      <c r="AMA5" s="12"/>
+      <c r="AMB5" s="12"/>
+      <c r="AMC5" s="12"/>
+      <c r="AMD5" s="12"/>
+      <c r="AME5" s="12"/>
+      <c r="AMF5" s="12"/>
+      <c r="AMG5" s="12"/>
+      <c r="AMH5" s="12"/>
+      <c r="AMI5" s="12"/>
+    </row>
+    <row r="6" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
+      <c r="CP6" s="12"/>
+      <c r="CQ6" s="12"/>
+      <c r="CR6" s="12"/>
+      <c r="CS6" s="12"/>
+      <c r="CT6" s="12"/>
+      <c r="CU6" s="12"/>
+      <c r="CV6" s="12"/>
+      <c r="CW6" s="12"/>
+      <c r="CX6" s="12"/>
+      <c r="CY6" s="12"/>
+      <c r="CZ6" s="12"/>
+      <c r="DA6" s="12"/>
+      <c r="DB6" s="12"/>
+      <c r="DC6" s="12"/>
+      <c r="DD6" s="12"/>
+      <c r="DE6" s="12"/>
+      <c r="DF6" s="12"/>
+      <c r="DG6" s="12"/>
+      <c r="DH6" s="12"/>
+      <c r="DI6" s="12"/>
+      <c r="DJ6" s="12"/>
+      <c r="DK6" s="12"/>
+      <c r="DL6" s="12"/>
+      <c r="DM6" s="12"/>
+      <c r="DN6" s="12"/>
+      <c r="DO6" s="12"/>
+      <c r="DP6" s="12"/>
+      <c r="DQ6" s="12"/>
+      <c r="DR6" s="12"/>
+      <c r="DS6" s="12"/>
+      <c r="DT6" s="12"/>
+      <c r="DU6" s="12"/>
+      <c r="DV6" s="12"/>
+      <c r="DW6" s="12"/>
+      <c r="DX6" s="12"/>
+      <c r="DY6" s="12"/>
+      <c r="DZ6" s="12"/>
+      <c r="EA6" s="12"/>
+      <c r="EB6" s="12"/>
+      <c r="EC6" s="12"/>
+      <c r="ED6" s="12"/>
+      <c r="EE6" s="12"/>
+      <c r="EF6" s="12"/>
+      <c r="EG6" s="12"/>
+      <c r="EH6" s="12"/>
+      <c r="EI6" s="12"/>
+      <c r="EJ6" s="12"/>
+      <c r="EK6" s="12"/>
+      <c r="EL6" s="12"/>
+      <c r="EM6" s="12"/>
+      <c r="EN6" s="12"/>
+      <c r="EO6" s="12"/>
+      <c r="EP6" s="12"/>
+      <c r="EQ6" s="12"/>
+      <c r="ER6" s="12"/>
+      <c r="ES6" s="12"/>
+      <c r="ET6" s="12"/>
+      <c r="EU6" s="12"/>
+      <c r="EV6" s="12"/>
+      <c r="EW6" s="12"/>
+      <c r="EX6" s="12"/>
+      <c r="EY6" s="12"/>
+      <c r="EZ6" s="12"/>
+      <c r="FA6" s="12"/>
+      <c r="FB6" s="12"/>
+      <c r="FC6" s="12"/>
+      <c r="FD6" s="12"/>
+      <c r="FE6" s="12"/>
+      <c r="FF6" s="12"/>
+      <c r="FG6" s="12"/>
+      <c r="FH6" s="12"/>
+      <c r="FI6" s="12"/>
+      <c r="FJ6" s="12"/>
+      <c r="FK6" s="12"/>
+      <c r="FL6" s="12"/>
+      <c r="FM6" s="12"/>
+      <c r="FN6" s="12"/>
+      <c r="FO6" s="12"/>
+      <c r="FP6" s="12"/>
+      <c r="FQ6" s="12"/>
+      <c r="FR6" s="12"/>
+      <c r="FS6" s="12"/>
+      <c r="FT6" s="12"/>
+      <c r="FU6" s="12"/>
+      <c r="FV6" s="12"/>
+      <c r="FW6" s="12"/>
+      <c r="FX6" s="12"/>
+      <c r="FY6" s="12"/>
+      <c r="FZ6" s="12"/>
+      <c r="GA6" s="12"/>
+      <c r="GB6" s="12"/>
+      <c r="GC6" s="12"/>
+      <c r="GD6" s="12"/>
+      <c r="GE6" s="12"/>
+      <c r="GF6" s="12"/>
+      <c r="GG6" s="12"/>
+      <c r="GH6" s="12"/>
+      <c r="GI6" s="12"/>
+      <c r="GJ6" s="12"/>
+      <c r="GK6" s="12"/>
+      <c r="GL6" s="12"/>
+      <c r="GM6" s="12"/>
+      <c r="GN6" s="12"/>
+      <c r="GO6" s="12"/>
+      <c r="GP6" s="12"/>
+      <c r="GQ6" s="12"/>
+      <c r="GR6" s="12"/>
+      <c r="GS6" s="12"/>
+      <c r="GT6" s="12"/>
+      <c r="GU6" s="12"/>
+      <c r="GV6" s="12"/>
+      <c r="GW6" s="12"/>
+      <c r="GX6" s="12"/>
+      <c r="GY6" s="12"/>
+      <c r="GZ6" s="12"/>
+      <c r="HA6" s="12"/>
+      <c r="HB6" s="12"/>
+      <c r="HC6" s="12"/>
+      <c r="HD6" s="12"/>
+      <c r="HE6" s="12"/>
+      <c r="HF6" s="12"/>
+      <c r="HG6" s="12"/>
+      <c r="HH6" s="12"/>
+      <c r="HI6" s="12"/>
+      <c r="HJ6" s="12"/>
+      <c r="HK6" s="12"/>
+      <c r="HL6" s="12"/>
+      <c r="HM6" s="12"/>
+      <c r="HN6" s="12"/>
+      <c r="HO6" s="12"/>
+      <c r="HP6" s="12"/>
+      <c r="HQ6" s="12"/>
+      <c r="HR6" s="12"/>
+      <c r="HS6" s="12"/>
+      <c r="HT6" s="12"/>
+      <c r="HU6" s="12"/>
+      <c r="HV6" s="12"/>
+      <c r="HW6" s="12"/>
+      <c r="HX6" s="12"/>
+      <c r="HY6" s="12"/>
+      <c r="HZ6" s="12"/>
+      <c r="IA6" s="12"/>
+      <c r="IB6" s="12"/>
+      <c r="IC6" s="12"/>
+      <c r="ID6" s="12"/>
+      <c r="IE6" s="12"/>
+      <c r="IF6" s="12"/>
+      <c r="IG6" s="12"/>
+      <c r="IH6" s="12"/>
+      <c r="II6" s="12"/>
+      <c r="IJ6" s="12"/>
+      <c r="IK6" s="12"/>
+      <c r="IL6" s="12"/>
+      <c r="IM6" s="12"/>
+      <c r="IN6" s="12"/>
+      <c r="IO6" s="12"/>
+      <c r="IP6" s="12"/>
+      <c r="IQ6" s="12"/>
+      <c r="IR6" s="12"/>
+      <c r="IS6" s="12"/>
+      <c r="IT6" s="12"/>
+      <c r="IU6" s="12"/>
+      <c r="IV6" s="12"/>
+      <c r="IW6" s="12"/>
+      <c r="IX6" s="12"/>
+      <c r="IY6" s="12"/>
+      <c r="IZ6" s="12"/>
+      <c r="JA6" s="12"/>
+      <c r="JB6" s="12"/>
+      <c r="JC6" s="12"/>
+      <c r="JD6" s="12"/>
+      <c r="JE6" s="12"/>
+      <c r="JF6" s="12"/>
+      <c r="JG6" s="12"/>
+      <c r="JH6" s="12"/>
+      <c r="JI6" s="12"/>
+      <c r="JJ6" s="12"/>
+      <c r="JK6" s="12"/>
+      <c r="JL6" s="12"/>
+      <c r="JM6" s="12"/>
+      <c r="JN6" s="12"/>
+      <c r="JO6" s="12"/>
+      <c r="JP6" s="12"/>
+      <c r="JQ6" s="12"/>
+      <c r="JR6" s="12"/>
+      <c r="JS6" s="12"/>
+      <c r="JT6" s="12"/>
+      <c r="JU6" s="12"/>
+      <c r="JV6" s="12"/>
+      <c r="JW6" s="12"/>
+      <c r="JX6" s="12"/>
+      <c r="JY6" s="12"/>
+      <c r="JZ6" s="12"/>
+      <c r="KA6" s="12"/>
+      <c r="KB6" s="12"/>
+      <c r="KC6" s="12"/>
+      <c r="KD6" s="12"/>
+      <c r="KE6" s="12"/>
+      <c r="KF6" s="12"/>
+      <c r="KG6" s="12"/>
+      <c r="KH6" s="12"/>
+      <c r="KI6" s="12"/>
+      <c r="KJ6" s="12"/>
+      <c r="KK6" s="12"/>
+      <c r="KL6" s="12"/>
+      <c r="KM6" s="12"/>
+      <c r="KN6" s="12"/>
+      <c r="KO6" s="12"/>
+      <c r="KP6" s="12"/>
+      <c r="KQ6" s="12"/>
+      <c r="KR6" s="12"/>
+      <c r="KS6" s="12"/>
+      <c r="KT6" s="12"/>
+      <c r="KU6" s="12"/>
+      <c r="KV6" s="12"/>
+      <c r="KW6" s="12"/>
+      <c r="KX6" s="12"/>
+      <c r="KY6" s="12"/>
+      <c r="KZ6" s="12"/>
+      <c r="LA6" s="12"/>
+      <c r="LB6" s="12"/>
+      <c r="LC6" s="12"/>
+      <c r="LD6" s="12"/>
+      <c r="LE6" s="12"/>
+      <c r="LF6" s="12"/>
+      <c r="LG6" s="12"/>
+      <c r="LH6" s="12"/>
+      <c r="LI6" s="12"/>
+      <c r="LJ6" s="12"/>
+      <c r="LK6" s="12"/>
+      <c r="LL6" s="12"/>
+      <c r="LM6" s="12"/>
+      <c r="LN6" s="12"/>
+      <c r="LO6" s="12"/>
+      <c r="LP6" s="12"/>
+      <c r="LQ6" s="12"/>
+      <c r="LR6" s="12"/>
+      <c r="LS6" s="12"/>
+      <c r="LT6" s="12"/>
+      <c r="LU6" s="12"/>
+      <c r="LV6" s="12"/>
+      <c r="LW6" s="12"/>
+      <c r="LX6" s="12"/>
+      <c r="LY6" s="12"/>
+      <c r="LZ6" s="12"/>
+      <c r="MA6" s="12"/>
+      <c r="MB6" s="12"/>
+      <c r="MC6" s="12"/>
+      <c r="MD6" s="12"/>
+      <c r="ME6" s="12"/>
+      <c r="MF6" s="12"/>
+      <c r="MG6" s="12"/>
+      <c r="MH6" s="12"/>
+      <c r="MI6" s="12"/>
+      <c r="MJ6" s="12"/>
+      <c r="MK6" s="12"/>
+      <c r="ML6" s="12"/>
+      <c r="MM6" s="12"/>
+      <c r="MN6" s="12"/>
+      <c r="MO6" s="12"/>
+      <c r="MP6" s="12"/>
+      <c r="MQ6" s="12"/>
+      <c r="MR6" s="12"/>
+      <c r="MS6" s="12"/>
+      <c r="MT6" s="12"/>
+      <c r="MU6" s="12"/>
+      <c r="MV6" s="12"/>
+      <c r="MW6" s="12"/>
+      <c r="MX6" s="12"/>
+      <c r="MY6" s="12"/>
+      <c r="MZ6" s="12"/>
+      <c r="NA6" s="12"/>
+      <c r="NB6" s="12"/>
+      <c r="NC6" s="12"/>
+      <c r="ND6" s="12"/>
+      <c r="NE6" s="12"/>
+      <c r="NF6" s="12"/>
+      <c r="NG6" s="12"/>
+      <c r="NH6" s="12"/>
+      <c r="NI6" s="12"/>
+      <c r="NJ6" s="12"/>
+      <c r="NK6" s="12"/>
+      <c r="NL6" s="12"/>
+      <c r="NM6" s="12"/>
+      <c r="NN6" s="12"/>
+      <c r="NO6" s="12"/>
+      <c r="NP6" s="12"/>
+      <c r="NQ6" s="12"/>
+      <c r="NR6" s="12"/>
+      <c r="NS6" s="12"/>
+      <c r="NT6" s="12"/>
+      <c r="NU6" s="12"/>
+      <c r="NV6" s="12"/>
+      <c r="NW6" s="12"/>
+      <c r="NX6" s="12"/>
+      <c r="NY6" s="12"/>
+      <c r="NZ6" s="12"/>
+      <c r="OA6" s="12"/>
+      <c r="OB6" s="12"/>
+      <c r="OC6" s="12"/>
+      <c r="OD6" s="12"/>
+      <c r="OE6" s="12"/>
+      <c r="OF6" s="12"/>
+      <c r="OG6" s="12"/>
+      <c r="OH6" s="12"/>
+      <c r="OI6" s="12"/>
+      <c r="OJ6" s="12"/>
+      <c r="OK6" s="12"/>
+      <c r="OL6" s="12"/>
+      <c r="OM6" s="12"/>
+      <c r="ON6" s="12"/>
+      <c r="OO6" s="12"/>
+      <c r="OP6" s="12"/>
+      <c r="OQ6" s="12"/>
+      <c r="OR6" s="12"/>
+      <c r="OS6" s="12"/>
+      <c r="OT6" s="12"/>
+      <c r="OU6" s="12"/>
+      <c r="OV6" s="12"/>
+      <c r="OW6" s="12"/>
+      <c r="OX6" s="12"/>
+      <c r="OY6" s="12"/>
+      <c r="OZ6" s="12"/>
+      <c r="PA6" s="12"/>
+      <c r="PB6" s="12"/>
+      <c r="PC6" s="12"/>
+      <c r="PD6" s="12"/>
+      <c r="PE6" s="12"/>
+      <c r="PF6" s="12"/>
+      <c r="PG6" s="12"/>
+      <c r="PH6" s="12"/>
+      <c r="PI6" s="12"/>
+      <c r="PJ6" s="12"/>
+      <c r="PK6" s="12"/>
+      <c r="PL6" s="12"/>
+      <c r="PM6" s="12"/>
+      <c r="PN6" s="12"/>
+      <c r="PO6" s="12"/>
+      <c r="PP6" s="12"/>
+      <c r="PQ6" s="12"/>
+      <c r="PR6" s="12"/>
+      <c r="PS6" s="12"/>
+      <c r="PT6" s="12"/>
+      <c r="PU6" s="12"/>
+      <c r="PV6" s="12"/>
+      <c r="PW6" s="12"/>
+      <c r="PX6" s="12"/>
+      <c r="PY6" s="12"/>
+      <c r="PZ6" s="12"/>
+      <c r="QA6" s="12"/>
+      <c r="QB6" s="12"/>
+      <c r="QC6" s="12"/>
+      <c r="QD6" s="12"/>
+      <c r="QE6" s="12"/>
+      <c r="QF6" s="12"/>
+      <c r="QG6" s="12"/>
+      <c r="QH6" s="12"/>
+      <c r="QI6" s="12"/>
+      <c r="QJ6" s="12"/>
+      <c r="QK6" s="12"/>
+      <c r="QL6" s="12"/>
+      <c r="QM6" s="12"/>
+      <c r="QN6" s="12"/>
+      <c r="QO6" s="12"/>
+      <c r="QP6" s="12"/>
+      <c r="QQ6" s="12"/>
+      <c r="QR6" s="12"/>
+      <c r="QS6" s="12"/>
+      <c r="QT6" s="12"/>
+      <c r="QU6" s="12"/>
+      <c r="QV6" s="12"/>
+      <c r="QW6" s="12"/>
+      <c r="QX6" s="12"/>
+      <c r="QY6" s="12"/>
+      <c r="QZ6" s="12"/>
+      <c r="RA6" s="12"/>
+      <c r="RB6" s="12"/>
+      <c r="RC6" s="12"/>
+      <c r="RD6" s="12"/>
+      <c r="RE6" s="12"/>
+      <c r="RF6" s="12"/>
+      <c r="RG6" s="12"/>
+      <c r="RH6" s="12"/>
+      <c r="RI6" s="12"/>
+      <c r="RJ6" s="12"/>
+      <c r="RK6" s="12"/>
+      <c r="RL6" s="12"/>
+      <c r="RM6" s="12"/>
+      <c r="RN6" s="12"/>
+      <c r="RO6" s="12"/>
+      <c r="RP6" s="12"/>
+      <c r="RQ6" s="12"/>
+      <c r="RR6" s="12"/>
+      <c r="RS6" s="12"/>
+      <c r="RT6" s="12"/>
+      <c r="RU6" s="12"/>
+      <c r="RV6" s="12"/>
+      <c r="RW6" s="12"/>
+      <c r="RX6" s="12"/>
+      <c r="RY6" s="12"/>
+      <c r="RZ6" s="12"/>
+      <c r="SA6" s="12"/>
+      <c r="SB6" s="12"/>
+      <c r="SC6" s="12"/>
+      <c r="SD6" s="12"/>
+      <c r="SE6" s="12"/>
+      <c r="SF6" s="12"/>
+      <c r="SG6" s="12"/>
+      <c r="SH6" s="12"/>
+      <c r="SI6" s="12"/>
+      <c r="SJ6" s="12"/>
+      <c r="SK6" s="12"/>
+      <c r="SL6" s="12"/>
+      <c r="SM6" s="12"/>
+      <c r="SN6" s="12"/>
+      <c r="SO6" s="12"/>
+      <c r="SP6" s="12"/>
+      <c r="SQ6" s="12"/>
+      <c r="SR6" s="12"/>
+      <c r="SS6" s="12"/>
+      <c r="ST6" s="12"/>
+      <c r="SU6" s="12"/>
+      <c r="SV6" s="12"/>
+      <c r="SW6" s="12"/>
+      <c r="SX6" s="12"/>
+      <c r="SY6" s="12"/>
+      <c r="SZ6" s="12"/>
+      <c r="TA6" s="12"/>
+      <c r="TB6" s="12"/>
+      <c r="TC6" s="12"/>
+      <c r="TD6" s="12"/>
+      <c r="TE6" s="12"/>
+      <c r="TF6" s="12"/>
+      <c r="TG6" s="12"/>
+      <c r="TH6" s="12"/>
+      <c r="TI6" s="12"/>
+      <c r="TJ6" s="12"/>
+      <c r="TK6" s="12"/>
+      <c r="TL6" s="12"/>
+      <c r="TM6" s="12"/>
+      <c r="TN6" s="12"/>
+      <c r="TO6" s="12"/>
+      <c r="TP6" s="12"/>
+      <c r="TQ6" s="12"/>
+      <c r="TR6" s="12"/>
+      <c r="TS6" s="12"/>
+      <c r="TT6" s="12"/>
+      <c r="TU6" s="12"/>
+      <c r="TV6" s="12"/>
+      <c r="TW6" s="12"/>
+      <c r="TX6" s="12"/>
+      <c r="TY6" s="12"/>
+      <c r="TZ6" s="12"/>
+      <c r="UA6" s="12"/>
+      <c r="UB6" s="12"/>
+      <c r="UC6" s="12"/>
+      <c r="UD6" s="12"/>
+      <c r="UE6" s="12"/>
+      <c r="UF6" s="12"/>
+      <c r="UG6" s="12"/>
+      <c r="UH6" s="12"/>
+      <c r="UI6" s="12"/>
+      <c r="UJ6" s="12"/>
+      <c r="UK6" s="12"/>
+      <c r="UL6" s="12"/>
+      <c r="UM6" s="12"/>
+      <c r="UN6" s="12"/>
+      <c r="UO6" s="12"/>
+      <c r="UP6" s="12"/>
+      <c r="UQ6" s="12"/>
+      <c r="UR6" s="12"/>
+      <c r="US6" s="12"/>
+      <c r="UT6" s="12"/>
+      <c r="UU6" s="12"/>
+      <c r="UV6" s="12"/>
+      <c r="UW6" s="12"/>
+      <c r="UX6" s="12"/>
+      <c r="UY6" s="12"/>
+      <c r="UZ6" s="12"/>
+      <c r="VA6" s="12"/>
+      <c r="VB6" s="12"/>
+      <c r="VC6" s="12"/>
+      <c r="VD6" s="12"/>
+      <c r="VE6" s="12"/>
+      <c r="VF6" s="12"/>
+      <c r="VG6" s="12"/>
+      <c r="VH6" s="12"/>
+      <c r="VI6" s="12"/>
+      <c r="VJ6" s="12"/>
+      <c r="VK6" s="12"/>
+      <c r="VL6" s="12"/>
+      <c r="VM6" s="12"/>
+      <c r="VN6" s="12"/>
+      <c r="VO6" s="12"/>
+      <c r="VP6" s="12"/>
+      <c r="VQ6" s="12"/>
+      <c r="VR6" s="12"/>
+      <c r="VS6" s="12"/>
+      <c r="VT6" s="12"/>
+      <c r="VU6" s="12"/>
+      <c r="VV6" s="12"/>
+      <c r="VW6" s="12"/>
+      <c r="VX6" s="12"/>
+      <c r="VY6" s="12"/>
+      <c r="VZ6" s="12"/>
+      <c r="WA6" s="12"/>
+      <c r="WB6" s="12"/>
+      <c r="WC6" s="12"/>
+      <c r="WD6" s="12"/>
+      <c r="WE6" s="12"/>
+      <c r="WF6" s="12"/>
+      <c r="WG6" s="12"/>
+      <c r="WH6" s="12"/>
+      <c r="WI6" s="12"/>
+      <c r="WJ6" s="12"/>
+      <c r="WK6" s="12"/>
+      <c r="WL6" s="12"/>
+      <c r="WM6" s="12"/>
+      <c r="WN6" s="12"/>
+      <c r="WO6" s="12"/>
+      <c r="WP6" s="12"/>
+      <c r="WQ6" s="12"/>
+      <c r="WR6" s="12"/>
+      <c r="WS6" s="12"/>
+      <c r="WT6" s="12"/>
+      <c r="WU6" s="12"/>
+      <c r="WV6" s="12"/>
+      <c r="WW6" s="12"/>
+      <c r="WX6" s="12"/>
+      <c r="WY6" s="12"/>
+      <c r="WZ6" s="12"/>
+      <c r="XA6" s="12"/>
+      <c r="XB6" s="12"/>
+      <c r="XC6" s="12"/>
+      <c r="XD6" s="12"/>
+      <c r="XE6" s="12"/>
+      <c r="XF6" s="12"/>
+      <c r="XG6" s="12"/>
+      <c r="XH6" s="12"/>
+      <c r="XI6" s="12"/>
+      <c r="XJ6" s="12"/>
+      <c r="XK6" s="12"/>
+      <c r="XL6" s="12"/>
+      <c r="XM6" s="12"/>
+      <c r="XN6" s="12"/>
+      <c r="XO6" s="12"/>
+      <c r="XP6" s="12"/>
+      <c r="XQ6" s="12"/>
+      <c r="XR6" s="12"/>
+      <c r="XS6" s="12"/>
+      <c r="XT6" s="12"/>
+      <c r="XU6" s="12"/>
+      <c r="XV6" s="12"/>
+      <c r="XW6" s="12"/>
+      <c r="XX6" s="12"/>
+      <c r="XY6" s="12"/>
+      <c r="XZ6" s="12"/>
+      <c r="YA6" s="12"/>
+      <c r="YB6" s="12"/>
+      <c r="YC6" s="12"/>
+      <c r="YD6" s="12"/>
+      <c r="YE6" s="12"/>
+      <c r="YF6" s="12"/>
+      <c r="YG6" s="12"/>
+      <c r="YH6" s="12"/>
+      <c r="YI6" s="12"/>
+      <c r="YJ6" s="12"/>
+      <c r="YK6" s="12"/>
+      <c r="YL6" s="12"/>
+      <c r="YM6" s="12"/>
+      <c r="YN6" s="12"/>
+      <c r="YO6" s="12"/>
+      <c r="YP6" s="12"/>
+      <c r="YQ6" s="12"/>
+      <c r="YR6" s="12"/>
+      <c r="YS6" s="12"/>
+      <c r="YT6" s="12"/>
+      <c r="YU6" s="12"/>
+      <c r="YV6" s="12"/>
+      <c r="YW6" s="12"/>
+      <c r="YX6" s="12"/>
+      <c r="YY6" s="12"/>
+      <c r="YZ6" s="12"/>
+      <c r="ZA6" s="12"/>
+      <c r="ZB6" s="12"/>
+      <c r="ZC6" s="12"/>
+      <c r="ZD6" s="12"/>
+      <c r="ZE6" s="12"/>
+      <c r="ZF6" s="12"/>
+      <c r="ZG6" s="12"/>
+      <c r="ZH6" s="12"/>
+      <c r="ZI6" s="12"/>
+      <c r="ZJ6" s="12"/>
+      <c r="ZK6" s="12"/>
+      <c r="ZL6" s="12"/>
+      <c r="ZM6" s="12"/>
+      <c r="ZN6" s="12"/>
+      <c r="ZO6" s="12"/>
+      <c r="ZP6" s="12"/>
+      <c r="ZQ6" s="12"/>
+      <c r="ZR6" s="12"/>
+      <c r="ZS6" s="12"/>
+      <c r="ZT6" s="12"/>
+      <c r="ZU6" s="12"/>
+      <c r="ZV6" s="12"/>
+      <c r="ZW6" s="12"/>
+      <c r="ZX6" s="12"/>
+      <c r="ZY6" s="12"/>
+      <c r="ZZ6" s="12"/>
+      <c r="AAA6" s="12"/>
+      <c r="AAB6" s="12"/>
+      <c r="AAC6" s="12"/>
+      <c r="AAD6" s="12"/>
+      <c r="AAE6" s="12"/>
+      <c r="AAF6" s="12"/>
+      <c r="AAG6" s="12"/>
+      <c r="AAH6" s="12"/>
+      <c r="AAI6" s="12"/>
+      <c r="AAJ6" s="12"/>
+      <c r="AAK6" s="12"/>
+      <c r="AAL6" s="12"/>
+      <c r="AAM6" s="12"/>
+      <c r="AAN6" s="12"/>
+      <c r="AAO6" s="12"/>
+      <c r="AAP6" s="12"/>
+      <c r="AAQ6" s="12"/>
+      <c r="AAR6" s="12"/>
+      <c r="AAS6" s="12"/>
+      <c r="AAT6" s="12"/>
+      <c r="AAU6" s="12"/>
+      <c r="AAV6" s="12"/>
+      <c r="AAW6" s="12"/>
+      <c r="AAX6" s="12"/>
+      <c r="AAY6" s="12"/>
+      <c r="AAZ6" s="12"/>
+      <c r="ABA6" s="12"/>
+      <c r="ABB6" s="12"/>
+      <c r="ABC6" s="12"/>
+      <c r="ABD6" s="12"/>
+      <c r="ABE6" s="12"/>
+      <c r="ABF6" s="12"/>
+      <c r="ABG6" s="12"/>
+      <c r="ABH6" s="12"/>
+      <c r="ABI6" s="12"/>
+      <c r="ABJ6" s="12"/>
+      <c r="ABK6" s="12"/>
+      <c r="ABL6" s="12"/>
+      <c r="ABM6" s="12"/>
+      <c r="ABN6" s="12"/>
+      <c r="ABO6" s="12"/>
+      <c r="ABP6" s="12"/>
+      <c r="ABQ6" s="12"/>
+      <c r="ABR6" s="12"/>
+      <c r="ABS6" s="12"/>
+      <c r="ABT6" s="12"/>
+      <c r="ABU6" s="12"/>
+      <c r="ABV6" s="12"/>
+      <c r="ABW6" s="12"/>
+      <c r="ABX6" s="12"/>
+      <c r="ABY6" s="12"/>
+      <c r="ABZ6" s="12"/>
+      <c r="ACA6" s="12"/>
+      <c r="ACB6" s="12"/>
+      <c r="ACC6" s="12"/>
+      <c r="ACD6" s="12"/>
+      <c r="ACE6" s="12"/>
+      <c r="ACF6" s="12"/>
+      <c r="ACG6" s="12"/>
+      <c r="ACH6" s="12"/>
+      <c r="ACI6" s="12"/>
+      <c r="ACJ6" s="12"/>
+      <c r="ACK6" s="12"/>
+      <c r="ACL6" s="12"/>
+      <c r="ACM6" s="12"/>
+      <c r="ACN6" s="12"/>
+      <c r="ACO6" s="12"/>
+      <c r="ACP6" s="12"/>
+      <c r="ACQ6" s="12"/>
+      <c r="ACR6" s="12"/>
+      <c r="ACS6" s="12"/>
+      <c r="ACT6" s="12"/>
+      <c r="ACU6" s="12"/>
+      <c r="ACV6" s="12"/>
+      <c r="ACW6" s="12"/>
+      <c r="ACX6" s="12"/>
+      <c r="ACY6" s="12"/>
+      <c r="ACZ6" s="12"/>
+      <c r="ADA6" s="12"/>
+      <c r="ADB6" s="12"/>
+      <c r="ADC6" s="12"/>
+      <c r="ADD6" s="12"/>
+      <c r="ADE6" s="12"/>
+      <c r="ADF6" s="12"/>
+      <c r="ADG6" s="12"/>
+      <c r="ADH6" s="12"/>
+      <c r="ADI6" s="12"/>
+      <c r="ADJ6" s="12"/>
+      <c r="ADK6" s="12"/>
+      <c r="ADL6" s="12"/>
+      <c r="ADM6" s="12"/>
+      <c r="ADN6" s="12"/>
+      <c r="ADO6" s="12"/>
+      <c r="ADP6" s="12"/>
+      <c r="ADQ6" s="12"/>
+      <c r="ADR6" s="12"/>
+      <c r="ADS6" s="12"/>
+      <c r="ADT6" s="12"/>
+      <c r="ADU6" s="12"/>
+      <c r="ADV6" s="12"/>
+      <c r="ADW6" s="12"/>
+      <c r="ADX6" s="12"/>
+      <c r="ADY6" s="12"/>
+      <c r="ADZ6" s="12"/>
+      <c r="AEA6" s="12"/>
+      <c r="AEB6" s="12"/>
+      <c r="AEC6" s="12"/>
+      <c r="AED6" s="12"/>
+      <c r="AEE6" s="12"/>
+      <c r="AEF6" s="12"/>
+      <c r="AEG6" s="12"/>
+      <c r="AEH6" s="12"/>
+      <c r="AEI6" s="12"/>
+      <c r="AEJ6" s="12"/>
+      <c r="AEK6" s="12"/>
+      <c r="AEL6" s="12"/>
+      <c r="AEM6" s="12"/>
+      <c r="AEN6" s="12"/>
+      <c r="AEO6" s="12"/>
+      <c r="AEP6" s="12"/>
+      <c r="AEQ6" s="12"/>
+      <c r="AER6" s="12"/>
+      <c r="AES6" s="12"/>
+      <c r="AET6" s="12"/>
+      <c r="AEU6" s="12"/>
+      <c r="AEV6" s="12"/>
+      <c r="AEW6" s="12"/>
+      <c r="AEX6" s="12"/>
+      <c r="AEY6" s="12"/>
+      <c r="AEZ6" s="12"/>
+      <c r="AFA6" s="12"/>
+      <c r="AFB6" s="12"/>
+      <c r="AFC6" s="12"/>
+      <c r="AFD6" s="12"/>
+      <c r="AFE6" s="12"/>
+      <c r="AFF6" s="12"/>
+      <c r="AFG6" s="12"/>
+      <c r="AFH6" s="12"/>
+      <c r="AFI6" s="12"/>
+      <c r="AFJ6" s="12"/>
+      <c r="AFK6" s="12"/>
+      <c r="AFL6" s="12"/>
+      <c r="AFM6" s="12"/>
+      <c r="AFN6" s="12"/>
+      <c r="AFO6" s="12"/>
+      <c r="AFP6" s="12"/>
+      <c r="AFQ6" s="12"/>
+      <c r="AFR6" s="12"/>
+      <c r="AFS6" s="12"/>
+      <c r="AFT6" s="12"/>
+      <c r="AFU6" s="12"/>
+      <c r="AFV6" s="12"/>
+      <c r="AFW6" s="12"/>
+      <c r="AFX6" s="12"/>
+      <c r="AFY6" s="12"/>
+      <c r="AFZ6" s="12"/>
+      <c r="AGA6" s="12"/>
+      <c r="AGB6" s="12"/>
+      <c r="AGC6" s="12"/>
+      <c r="AGD6" s="12"/>
+      <c r="AGE6" s="12"/>
+      <c r="AGF6" s="12"/>
+      <c r="AGG6" s="12"/>
+      <c r="AGH6" s="12"/>
+      <c r="AGI6" s="12"/>
+      <c r="AGJ6" s="12"/>
+      <c r="AGK6" s="12"/>
+      <c r="AGL6" s="12"/>
+      <c r="AGM6" s="12"/>
+      <c r="AGN6" s="12"/>
+      <c r="AGO6" s="12"/>
+      <c r="AGP6" s="12"/>
+      <c r="AGQ6" s="12"/>
+      <c r="AGR6" s="12"/>
+      <c r="AGS6" s="12"/>
+      <c r="AGT6" s="12"/>
+      <c r="AGU6" s="12"/>
+      <c r="AGV6" s="12"/>
+      <c r="AGW6" s="12"/>
+      <c r="AGX6" s="12"/>
+      <c r="AGY6" s="12"/>
+      <c r="AGZ6" s="12"/>
+      <c r="AHA6" s="12"/>
+      <c r="AHB6" s="12"/>
+      <c r="AHC6" s="12"/>
+      <c r="AHD6" s="12"/>
+      <c r="AHE6" s="12"/>
+      <c r="AHF6" s="12"/>
+      <c r="AHG6" s="12"/>
+      <c r="AHH6" s="12"/>
+      <c r="AHI6" s="12"/>
+      <c r="AHJ6" s="12"/>
+      <c r="AHK6" s="12"/>
+      <c r="AHL6" s="12"/>
+      <c r="AHM6" s="12"/>
+      <c r="AHN6" s="12"/>
+      <c r="AHO6" s="12"/>
+      <c r="AHP6" s="12"/>
+      <c r="AHQ6" s="12"/>
+      <c r="AHR6" s="12"/>
+      <c r="AHS6" s="12"/>
+      <c r="AHT6" s="12"/>
+      <c r="AHU6" s="12"/>
+      <c r="AHV6" s="12"/>
+      <c r="AHW6" s="12"/>
+      <c r="AHX6" s="12"/>
+      <c r="AHY6" s="12"/>
+      <c r="AHZ6" s="12"/>
+      <c r="AIA6" s="12"/>
+      <c r="AIB6" s="12"/>
+      <c r="AIC6" s="12"/>
+      <c r="AID6" s="12"/>
+      <c r="AIE6" s="12"/>
+      <c r="AIF6" s="12"/>
+      <c r="AIG6" s="12"/>
+      <c r="AIH6" s="12"/>
+      <c r="AII6" s="12"/>
+      <c r="AIJ6" s="12"/>
+      <c r="AIK6" s="12"/>
+      <c r="AIL6" s="12"/>
+      <c r="AIM6" s="12"/>
+      <c r="AIN6" s="12"/>
+      <c r="AIO6" s="12"/>
+      <c r="AIP6" s="12"/>
+      <c r="AIQ6" s="12"/>
+      <c r="AIR6" s="12"/>
+      <c r="AIS6" s="12"/>
+      <c r="AIT6" s="12"/>
+      <c r="AIU6" s="12"/>
+      <c r="AIV6" s="12"/>
+      <c r="AIW6" s="12"/>
+      <c r="AIX6" s="12"/>
+      <c r="AIY6" s="12"/>
+      <c r="AIZ6" s="12"/>
+      <c r="AJA6" s="12"/>
+      <c r="AJB6" s="12"/>
+      <c r="AJC6" s="12"/>
+      <c r="AJD6" s="12"/>
+      <c r="AJE6" s="12"/>
+      <c r="AJF6" s="12"/>
+      <c r="AJG6" s="12"/>
+      <c r="AJH6" s="12"/>
+      <c r="AJI6" s="12"/>
+      <c r="AJJ6" s="12"/>
+      <c r="AJK6" s="12"/>
+      <c r="AJL6" s="12"/>
+      <c r="AJM6" s="12"/>
+      <c r="AJN6" s="12"/>
+      <c r="AJO6" s="12"/>
+      <c r="AJP6" s="12"/>
+      <c r="AJQ6" s="12"/>
+      <c r="AJR6" s="12"/>
+      <c r="AJS6" s="12"/>
+      <c r="AJT6" s="12"/>
+      <c r="AJU6" s="12"/>
+      <c r="AJV6" s="12"/>
+      <c r="AJW6" s="12"/>
+      <c r="AJX6" s="12"/>
+      <c r="AJY6" s="12"/>
+      <c r="AJZ6" s="12"/>
+      <c r="AKA6" s="12"/>
+      <c r="AKB6" s="12"/>
+      <c r="AKC6" s="12"/>
+      <c r="AKD6" s="12"/>
+      <c r="AKE6" s="12"/>
+      <c r="AKF6" s="12"/>
+      <c r="AKG6" s="12"/>
+      <c r="AKH6" s="12"/>
+      <c r="AKI6" s="12"/>
+      <c r="AKJ6" s="12"/>
+      <c r="AKK6" s="12"/>
+      <c r="AKL6" s="12"/>
+      <c r="AKM6" s="12"/>
+      <c r="AKN6" s="12"/>
+      <c r="AKO6" s="12"/>
+      <c r="AKP6" s="12"/>
+      <c r="AKQ6" s="12"/>
+      <c r="AKR6" s="12"/>
+      <c r="AKS6" s="12"/>
+      <c r="AKT6" s="12"/>
+      <c r="AKU6" s="12"/>
+      <c r="AKV6" s="12"/>
+      <c r="AKW6" s="12"/>
+      <c r="AKX6" s="12"/>
+      <c r="AKY6" s="12"/>
+      <c r="AKZ6" s="12"/>
+      <c r="ALA6" s="12"/>
+      <c r="ALB6" s="12"/>
+      <c r="ALC6" s="12"/>
+      <c r="ALD6" s="12"/>
+      <c r="ALE6" s="12"/>
+      <c r="ALF6" s="12"/>
+      <c r="ALG6" s="12"/>
+      <c r="ALH6" s="12"/>
+      <c r="ALI6" s="12"/>
+      <c r="ALJ6" s="12"/>
+      <c r="ALK6" s="12"/>
+      <c r="ALL6" s="12"/>
+      <c r="ALM6" s="12"/>
+      <c r="ALN6" s="12"/>
+      <c r="ALO6" s="12"/>
+      <c r="ALP6" s="12"/>
+      <c r="ALQ6" s="12"/>
+      <c r="ALR6" s="12"/>
+      <c r="ALS6" s="12"/>
+      <c r="ALT6" s="12"/>
+      <c r="ALU6" s="12"/>
+      <c r="ALV6" s="12"/>
+      <c r="ALW6" s="12"/>
+      <c r="ALX6" s="12"/>
+      <c r="ALY6" s="12"/>
+      <c r="ALZ6" s="12"/>
+      <c r="AMA6" s="12"/>
+      <c r="AMB6" s="12"/>
+      <c r="AMC6" s="12"/>
+      <c r="AMD6" s="12"/>
+      <c r="AME6" s="12"/>
+      <c r="AMF6" s="12"/>
+      <c r="AMG6" s="12"/>
+      <c r="AMH6" s="12"/>
+      <c r="AMI6" s="12"/>
+    </row>
+    <row r="7" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3832,7 +6879,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3846,103 +6893,103 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+    <row r="9" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -3978,64 +7025,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -4097,22 +7144,22 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4316,9 +7363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4363,15 +7408,9 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -4380,9 +7419,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -4391,9 +7428,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="144">
   <si>
     <t>共通設定</t>
   </si>
@@ -91,6 +91,18 @@
     <t>compare_server</t>
   </si>
   <si>
+    <t>HitachiVSP</t>
+  </si>
+  <si>
+    <t>vsp1</t>
+  </si>
+  <si>
+    <t>10.10.0.10</t>
+  </si>
+  <si>
+    <t>10.10.0.11</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -160,75 +172,72 @@
     <t>net_subnet</t>
   </si>
   <si>
+    <t>検査対象</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CacheInfo</t>
+  </si>
+  <si>
+    <t>ストレージキャッシュ</t>
+  </si>
+  <si>
     <t>HitachiVSP</t>
   </si>
   <si>
-    <t>検査対象</t>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
-  </si>
-  <si>
-    <t>テストID</t>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>error_msg</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>CacheInfo</t>
-  </si>
-  <si>
-    <t>ストレージキャッシュ</t>
-  </si>
-  <si>
-    <t>HitachiVSP</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>MicroVersion</t>
+  </si>
+  <si>
+    <t>ソフトウェアバージョン</t>
+  </si>
+  <si>
+    <t>DkcInfo</t>
+  </si>
+  <si>
+    <t>DKC情報</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>MicroVersion</t>
-  </si>
-  <si>
-    <t>ソフトウェアバージョン</t>
-  </si>
-  <si>
-    <t>DkcInfo</t>
-  </si>
-  <si>
-    <t>DKC情報</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>networks</t>
   </si>
   <si>
@@ -274,16 +283,23 @@
     <t>snmp_trap:k</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>${ip}</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>10.20.5.1</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>0. はじめに</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>* Hitachi VSP ストレージの構成情報を採取します。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>* .\template\Hitachi_VSP が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
@@ -293,7 +309,153 @@
     <rPh sb="19" eb="21">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* Hitachi VSP ストレージの構成情報を採取します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* .\template\Hitachi_VSP が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* 本テンプレートは直接ストレージにアクセスはせずに、事前に採取した構成レポートファイルから構成情報を抽出します。</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
@@ -303,35 +465,11 @@
     <rPh sb="39" eb="41">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>* 本テンプレートは直接ストレージにアクセスはせずに、事前に採取した構成レポートファイルから構成情報を抽出します。</t>
-    <rPh sb="2" eb="3">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>.\lib\script\prepare_svp_report.ps1 {ストレージホスト名}</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>構成レポートの作成手順については同ディレクトリの「HitachiVSP構成レポート作成手順.xlsx」を参照してください。</t>
@@ -359,7 +497,7 @@
     <rPh sb="52" eb="54">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>以下スクリプトを実行して構成レポート保存用ディレクトリを作成します。</t>
@@ -378,47 +516,103 @@
     <rPh sb="28" eb="30">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数にVSPストレージホスト名を入力してください。</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>.\lib\script\prepare_svp_report.ps1 {ストレージホスト名}</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>引数にVSPストレージホスト名を入力してください。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>「HitachiVSP構成レポート作成手順.xlsx」のシート「SVP操作手順」を参照して、構成レポートをダウンロードしてください。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ダウンロードファイル保存先は、1で実行した保存用ディレクトリを指定してください。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
-    <t>検査するシナリオID Solaris を指定します。</t>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>対象サーバ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
     <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Hitachi_VSP\config_vsp.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Hitachi_VSP\config_vsp.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>// HitachiVSP 接続情報</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.report_dir = './src/hitachi_vsp_report'</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.user     = 'administrator'</t>
+  </si>
+  <si>
+    <t>account.HitachiVSP.Test.password = 'P@ssw0rd'</t>
   </si>
   <si>
     <t>検査対象ストレージ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
@@ -440,73 +634,14 @@
     <rPh sb="34" eb="36">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検査対象ストレージのIPを入力します。</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(未使用)</t>
-    <rPh sb="1" eb="4">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ストレージ名を指定します。</t>
@@ -531,14 +666,7 @@
     <rPh sb="38" eb="40">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>(オプション) 接続時のパスワード入力で、対象ストレージ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
@@ -587,17 +715,7 @@
     <rPh sb="85" eb="87">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>OS設定項目</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>(オプション) OS設定項目の値比較で、対象ストレージ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
@@ -643,125 +761,45 @@
     <rPh sb="60" eb="62">
       <t>ヒカク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>vsp1</t>
-  </si>
-  <si>
-    <t>10.10.0.10</t>
-  </si>
-  <si>
-    <t>10.10.0.11</t>
-  </si>
-  <si>
-    <t>3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\Hitachi_VSP\config_vsp.groovy</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>以下の各検査対象の接続情報を編集します。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>// HitachiVSP 接続情報</t>
-  </si>
-  <si>
-    <t>account.HitachiVSP.Test.report_dir = './src/hitachi_vsp_report'</t>
-  </si>
-  <si>
-    <t>account.HitachiVSP.Test.user     = 'administrator'</t>
-  </si>
-  <si>
-    <t>account.HitachiVSP.Test.password = 'P@ssw0rd'</t>
-  </si>
-  <si>
-    <t>4. Getconfig インベントリ収集実行</t>
-  </si>
-  <si>
-    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Hitachi_VSP\config_vsp.groovy</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>5. 実行結果の参照とコミット</t>
-  </si>
-  <si>
-    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>dir .\build</t>
-  </si>
-  <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t>getconfig -u local</t>
-  </si>
-  <si>
-    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>型番</t>
     <rPh sb="0" eb="2">
       <t>カタバン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:ストレージ</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>S/N</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>_redmine:ストレージ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -775,6 +813,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -823,12 +867,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -881,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -969,6 +1007,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1089,198 +1134,184 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="11" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="11" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="11" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="14" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="14" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="13" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="14" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="11" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="13">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="説明文 2" xfId="4"/>
     <cellStyle name="説明文 3" xfId="12"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 10" xfId="11"/>
-    <cellStyle name="標準 10 2" xfId="14"/>
-    <cellStyle name="標準 11" xfId="13"/>
     <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="標準 3" xfId="3"/>
     <cellStyle name="標準 4" xfId="6"/>
@@ -1604,16 +1635,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="21" customWidth="1"/>
-    <col min="3" max="10" width="16.125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="9" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="3.375" style="2" customWidth="1"/>
+    <col min="3" max="10" width="16.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -1635,7 +1668,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1672,7 +1705,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
       <c r="B4" s="36" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1691,7 +1724,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="36"/>
       <c r="B5" s="36" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1726,7 +1759,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1763,7 +1796,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1799,7 +1832,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -1836,7 +1869,7 @@
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
@@ -1872,7 +1905,7 @@
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="36" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
@@ -1908,7 +1941,7 @@
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="22" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1944,7 +1977,7 @@
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="36" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -1963,7 +1996,7 @@
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="36" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
@@ -1982,7 +2015,7 @@
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -2016,7 +2049,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2053,7 +2086,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -2072,7 +2105,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
@@ -2112,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -2130,10 +2163,10 @@
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -2151,10 +2184,10 @@
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -2172,10 +2205,10 @@
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -2193,10 +2226,10 @@
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -2214,10 +2247,10 @@
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -2235,10 +2268,10 @@
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -2256,10 +2289,10 @@
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -2277,10 +2310,10 @@
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -2314,7 +2347,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
@@ -2350,16 +2383,16 @@
     <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
@@ -2440,22 +2473,22 @@
         <v>1</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G43" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="39" t="s">
         <v>18</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>41</v>
       </c>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
@@ -2729,7 +2762,7 @@
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -2764,7 +2797,7 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="36"/>
       <c r="B60" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
@@ -2801,7 +2834,7 @@
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="27" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -2837,7 +2870,7 @@
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="30" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -2856,7 +2889,7 @@
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="30" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
@@ -2875,7 +2908,7 @@
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="33" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
@@ -2909,7 +2942,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -2946,7 +2979,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="36"/>
       <c r="B70" s="36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
@@ -2983,7 +3016,7 @@
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -3017,7 +3050,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -3054,7 +3087,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="36"/>
       <c r="B76" s="36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
@@ -3091,7 +3124,7 @@
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -3126,7 +3159,7 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="36"/>
       <c r="B80" s="36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
@@ -3145,7 +3178,7 @@
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="36"/>
       <c r="B81" s="36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
@@ -3182,7 +3215,7 @@
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -3217,7 +3250,7 @@
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="36"/>
       <c r="B85" s="36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
@@ -3254,7 +3287,7 @@
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -3286,11 +3319,24 @@
       <c r="N88" s="37"/>
       <c r="O88" s="37"/>
     </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B90" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C40:J40"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
@@ -3304,9 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3318,16 +3362,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -3649,7 +3693,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
@@ -3657,6 +3701,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$91:$C$92</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1536180249" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3688,7 +3742,7 @@
     <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3702,7 +3756,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3716,3156 +3770,123 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="41" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="12"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="12"/>
-      <c r="BV4" s="12"/>
-      <c r="BW4" s="12"/>
-      <c r="BX4" s="12"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="12"/>
-      <c r="CA4" s="12"/>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="12"/>
-      <c r="CD4" s="12"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="12"/>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="12"/>
-      <c r="CJ4" s="12"/>
-      <c r="CK4" s="12"/>
-      <c r="CL4" s="12"/>
-      <c r="CM4" s="12"/>
-      <c r="CN4" s="12"/>
-      <c r="CO4" s="12"/>
-      <c r="CP4" s="12"/>
-      <c r="CQ4" s="12"/>
-      <c r="CR4" s="12"/>
-      <c r="CS4" s="12"/>
-      <c r="CT4" s="12"/>
-      <c r="CU4" s="12"/>
-      <c r="CV4" s="12"/>
-      <c r="CW4" s="12"/>
-      <c r="CX4" s="12"/>
-      <c r="CY4" s="12"/>
-      <c r="CZ4" s="12"/>
-      <c r="DA4" s="12"/>
-      <c r="DB4" s="12"/>
-      <c r="DC4" s="12"/>
-      <c r="DD4" s="12"/>
-      <c r="DE4" s="12"/>
-      <c r="DF4" s="12"/>
-      <c r="DG4" s="12"/>
-      <c r="DH4" s="12"/>
-      <c r="DI4" s="12"/>
-      <c r="DJ4" s="12"/>
-      <c r="DK4" s="12"/>
-      <c r="DL4" s="12"/>
-      <c r="DM4" s="12"/>
-      <c r="DN4" s="12"/>
-      <c r="DO4" s="12"/>
-      <c r="DP4" s="12"/>
-      <c r="DQ4" s="12"/>
-      <c r="DR4" s="12"/>
-      <c r="DS4" s="12"/>
-      <c r="DT4" s="12"/>
-      <c r="DU4" s="12"/>
-      <c r="DV4" s="12"/>
-      <c r="DW4" s="12"/>
-      <c r="DX4" s="12"/>
-      <c r="DY4" s="12"/>
-      <c r="DZ4" s="12"/>
-      <c r="EA4" s="12"/>
-      <c r="EB4" s="12"/>
-      <c r="EC4" s="12"/>
-      <c r="ED4" s="12"/>
-      <c r="EE4" s="12"/>
-      <c r="EF4" s="12"/>
-      <c r="EG4" s="12"/>
-      <c r="EH4" s="12"/>
-      <c r="EI4" s="12"/>
-      <c r="EJ4" s="12"/>
-      <c r="EK4" s="12"/>
-      <c r="EL4" s="12"/>
-      <c r="EM4" s="12"/>
-      <c r="EN4" s="12"/>
-      <c r="EO4" s="12"/>
-      <c r="EP4" s="12"/>
-      <c r="EQ4" s="12"/>
-      <c r="ER4" s="12"/>
-      <c r="ES4" s="12"/>
-      <c r="ET4" s="12"/>
-      <c r="EU4" s="12"/>
-      <c r="EV4" s="12"/>
-      <c r="EW4" s="12"/>
-      <c r="EX4" s="12"/>
-      <c r="EY4" s="12"/>
-      <c r="EZ4" s="12"/>
-      <c r="FA4" s="12"/>
-      <c r="FB4" s="12"/>
-      <c r="FC4" s="12"/>
-      <c r="FD4" s="12"/>
-      <c r="FE4" s="12"/>
-      <c r="FF4" s="12"/>
-      <c r="FG4" s="12"/>
-      <c r="FH4" s="12"/>
-      <c r="FI4" s="12"/>
-      <c r="FJ4" s="12"/>
-      <c r="FK4" s="12"/>
-      <c r="FL4" s="12"/>
-      <c r="FM4" s="12"/>
-      <c r="FN4" s="12"/>
-      <c r="FO4" s="12"/>
-      <c r="FP4" s="12"/>
-      <c r="FQ4" s="12"/>
-      <c r="FR4" s="12"/>
-      <c r="FS4" s="12"/>
-      <c r="FT4" s="12"/>
-      <c r="FU4" s="12"/>
-      <c r="FV4" s="12"/>
-      <c r="FW4" s="12"/>
-      <c r="FX4" s="12"/>
-      <c r="FY4" s="12"/>
-      <c r="FZ4" s="12"/>
-      <c r="GA4" s="12"/>
-      <c r="GB4" s="12"/>
-      <c r="GC4" s="12"/>
-      <c r="GD4" s="12"/>
-      <c r="GE4" s="12"/>
-      <c r="GF4" s="12"/>
-      <c r="GG4" s="12"/>
-      <c r="GH4" s="12"/>
-      <c r="GI4" s="12"/>
-      <c r="GJ4" s="12"/>
-      <c r="GK4" s="12"/>
-      <c r="GL4" s="12"/>
-      <c r="GM4" s="12"/>
-      <c r="GN4" s="12"/>
-      <c r="GO4" s="12"/>
-      <c r="GP4" s="12"/>
-      <c r="GQ4" s="12"/>
-      <c r="GR4" s="12"/>
-      <c r="GS4" s="12"/>
-      <c r="GT4" s="12"/>
-      <c r="GU4" s="12"/>
-      <c r="GV4" s="12"/>
-      <c r="GW4" s="12"/>
-      <c r="GX4" s="12"/>
-      <c r="GY4" s="12"/>
-      <c r="GZ4" s="12"/>
-      <c r="HA4" s="12"/>
-      <c r="HB4" s="12"/>
-      <c r="HC4" s="12"/>
-      <c r="HD4" s="12"/>
-      <c r="HE4" s="12"/>
-      <c r="HF4" s="12"/>
-      <c r="HG4" s="12"/>
-      <c r="HH4" s="12"/>
-      <c r="HI4" s="12"/>
-      <c r="HJ4" s="12"/>
-      <c r="HK4" s="12"/>
-      <c r="HL4" s="12"/>
-      <c r="HM4" s="12"/>
-      <c r="HN4" s="12"/>
-      <c r="HO4" s="12"/>
-      <c r="HP4" s="12"/>
-      <c r="HQ4" s="12"/>
-      <c r="HR4" s="12"/>
-      <c r="HS4" s="12"/>
-      <c r="HT4" s="12"/>
-      <c r="HU4" s="12"/>
-      <c r="HV4" s="12"/>
-      <c r="HW4" s="12"/>
-      <c r="HX4" s="12"/>
-      <c r="HY4" s="12"/>
-      <c r="HZ4" s="12"/>
-      <c r="IA4" s="12"/>
-      <c r="IB4" s="12"/>
-      <c r="IC4" s="12"/>
-      <c r="ID4" s="12"/>
-      <c r="IE4" s="12"/>
-      <c r="IF4" s="12"/>
-      <c r="IG4" s="12"/>
-      <c r="IH4" s="12"/>
-      <c r="II4" s="12"/>
-      <c r="IJ4" s="12"/>
-      <c r="IK4" s="12"/>
-      <c r="IL4" s="12"/>
-      <c r="IM4" s="12"/>
-      <c r="IN4" s="12"/>
-      <c r="IO4" s="12"/>
-      <c r="IP4" s="12"/>
-      <c r="IQ4" s="12"/>
-      <c r="IR4" s="12"/>
-      <c r="IS4" s="12"/>
-      <c r="IT4" s="12"/>
-      <c r="IU4" s="12"/>
-      <c r="IV4" s="12"/>
-      <c r="IW4" s="12"/>
-      <c r="IX4" s="12"/>
-      <c r="IY4" s="12"/>
-      <c r="IZ4" s="12"/>
-      <c r="JA4" s="12"/>
-      <c r="JB4" s="12"/>
-      <c r="JC4" s="12"/>
-      <c r="JD4" s="12"/>
-      <c r="JE4" s="12"/>
-      <c r="JF4" s="12"/>
-      <c r="JG4" s="12"/>
-      <c r="JH4" s="12"/>
-      <c r="JI4" s="12"/>
-      <c r="JJ4" s="12"/>
-      <c r="JK4" s="12"/>
-      <c r="JL4" s="12"/>
-      <c r="JM4" s="12"/>
-      <c r="JN4" s="12"/>
-      <c r="JO4" s="12"/>
-      <c r="JP4" s="12"/>
-      <c r="JQ4" s="12"/>
-      <c r="JR4" s="12"/>
-      <c r="JS4" s="12"/>
-      <c r="JT4" s="12"/>
-      <c r="JU4" s="12"/>
-      <c r="JV4" s="12"/>
-      <c r="JW4" s="12"/>
-      <c r="JX4" s="12"/>
-      <c r="JY4" s="12"/>
-      <c r="JZ4" s="12"/>
-      <c r="KA4" s="12"/>
-      <c r="KB4" s="12"/>
-      <c r="KC4" s="12"/>
-      <c r="KD4" s="12"/>
-      <c r="KE4" s="12"/>
-      <c r="KF4" s="12"/>
-      <c r="KG4" s="12"/>
-      <c r="KH4" s="12"/>
-      <c r="KI4" s="12"/>
-      <c r="KJ4" s="12"/>
-      <c r="KK4" s="12"/>
-      <c r="KL4" s="12"/>
-      <c r="KM4" s="12"/>
-      <c r="KN4" s="12"/>
-      <c r="KO4" s="12"/>
-      <c r="KP4" s="12"/>
-      <c r="KQ4" s="12"/>
-      <c r="KR4" s="12"/>
-      <c r="KS4" s="12"/>
-      <c r="KT4" s="12"/>
-      <c r="KU4" s="12"/>
-      <c r="KV4" s="12"/>
-      <c r="KW4" s="12"/>
-      <c r="KX4" s="12"/>
-      <c r="KY4" s="12"/>
-      <c r="KZ4" s="12"/>
-      <c r="LA4" s="12"/>
-      <c r="LB4" s="12"/>
-      <c r="LC4" s="12"/>
-      <c r="LD4" s="12"/>
-      <c r="LE4" s="12"/>
-      <c r="LF4" s="12"/>
-      <c r="LG4" s="12"/>
-      <c r="LH4" s="12"/>
-      <c r="LI4" s="12"/>
-      <c r="LJ4" s="12"/>
-      <c r="LK4" s="12"/>
-      <c r="LL4" s="12"/>
-      <c r="LM4" s="12"/>
-      <c r="LN4" s="12"/>
-      <c r="LO4" s="12"/>
-      <c r="LP4" s="12"/>
-      <c r="LQ4" s="12"/>
-      <c r="LR4" s="12"/>
-      <c r="LS4" s="12"/>
-      <c r="LT4" s="12"/>
-      <c r="LU4" s="12"/>
-      <c r="LV4" s="12"/>
-      <c r="LW4" s="12"/>
-      <c r="LX4" s="12"/>
-      <c r="LY4" s="12"/>
-      <c r="LZ4" s="12"/>
-      <c r="MA4" s="12"/>
-      <c r="MB4" s="12"/>
-      <c r="MC4" s="12"/>
-      <c r="MD4" s="12"/>
-      <c r="ME4" s="12"/>
-      <c r="MF4" s="12"/>
-      <c r="MG4" s="12"/>
-      <c r="MH4" s="12"/>
-      <c r="MI4" s="12"/>
-      <c r="MJ4" s="12"/>
-      <c r="MK4" s="12"/>
-      <c r="ML4" s="12"/>
-      <c r="MM4" s="12"/>
-      <c r="MN4" s="12"/>
-      <c r="MO4" s="12"/>
-      <c r="MP4" s="12"/>
-      <c r="MQ4" s="12"/>
-      <c r="MR4" s="12"/>
-      <c r="MS4" s="12"/>
-      <c r="MT4" s="12"/>
-      <c r="MU4" s="12"/>
-      <c r="MV4" s="12"/>
-      <c r="MW4" s="12"/>
-      <c r="MX4" s="12"/>
-      <c r="MY4" s="12"/>
-      <c r="MZ4" s="12"/>
-      <c r="NA4" s="12"/>
-      <c r="NB4" s="12"/>
-      <c r="NC4" s="12"/>
-      <c r="ND4" s="12"/>
-      <c r="NE4" s="12"/>
-      <c r="NF4" s="12"/>
-      <c r="NG4" s="12"/>
-      <c r="NH4" s="12"/>
-      <c r="NI4" s="12"/>
-      <c r="NJ4" s="12"/>
-      <c r="NK4" s="12"/>
-      <c r="NL4" s="12"/>
-      <c r="NM4" s="12"/>
-      <c r="NN4" s="12"/>
-      <c r="NO4" s="12"/>
-      <c r="NP4" s="12"/>
-      <c r="NQ4" s="12"/>
-      <c r="NR4" s="12"/>
-      <c r="NS4" s="12"/>
-      <c r="NT4" s="12"/>
-      <c r="NU4" s="12"/>
-      <c r="NV4" s="12"/>
-      <c r="NW4" s="12"/>
-      <c r="NX4" s="12"/>
-      <c r="NY4" s="12"/>
-      <c r="NZ4" s="12"/>
-      <c r="OA4" s="12"/>
-      <c r="OB4" s="12"/>
-      <c r="OC4" s="12"/>
-      <c r="OD4" s="12"/>
-      <c r="OE4" s="12"/>
-      <c r="OF4" s="12"/>
-      <c r="OG4" s="12"/>
-      <c r="OH4" s="12"/>
-      <c r="OI4" s="12"/>
-      <c r="OJ4" s="12"/>
-      <c r="OK4" s="12"/>
-      <c r="OL4" s="12"/>
-      <c r="OM4" s="12"/>
-      <c r="ON4" s="12"/>
-      <c r="OO4" s="12"/>
-      <c r="OP4" s="12"/>
-      <c r="OQ4" s="12"/>
-      <c r="OR4" s="12"/>
-      <c r="OS4" s="12"/>
-      <c r="OT4" s="12"/>
-      <c r="OU4" s="12"/>
-      <c r="OV4" s="12"/>
-      <c r="OW4" s="12"/>
-      <c r="OX4" s="12"/>
-      <c r="OY4" s="12"/>
-      <c r="OZ4" s="12"/>
-      <c r="PA4" s="12"/>
-      <c r="PB4" s="12"/>
-      <c r="PC4" s="12"/>
-      <c r="PD4" s="12"/>
-      <c r="PE4" s="12"/>
-      <c r="PF4" s="12"/>
-      <c r="PG4" s="12"/>
-      <c r="PH4" s="12"/>
-      <c r="PI4" s="12"/>
-      <c r="PJ4" s="12"/>
-      <c r="PK4" s="12"/>
-      <c r="PL4" s="12"/>
-      <c r="PM4" s="12"/>
-      <c r="PN4" s="12"/>
-      <c r="PO4" s="12"/>
-      <c r="PP4" s="12"/>
-      <c r="PQ4" s="12"/>
-      <c r="PR4" s="12"/>
-      <c r="PS4" s="12"/>
-      <c r="PT4" s="12"/>
-      <c r="PU4" s="12"/>
-      <c r="PV4" s="12"/>
-      <c r="PW4" s="12"/>
-      <c r="PX4" s="12"/>
-      <c r="PY4" s="12"/>
-      <c r="PZ4" s="12"/>
-      <c r="QA4" s="12"/>
-      <c r="QB4" s="12"/>
-      <c r="QC4" s="12"/>
-      <c r="QD4" s="12"/>
-      <c r="QE4" s="12"/>
-      <c r="QF4" s="12"/>
-      <c r="QG4" s="12"/>
-      <c r="QH4" s="12"/>
-      <c r="QI4" s="12"/>
-      <c r="QJ4" s="12"/>
-      <c r="QK4" s="12"/>
-      <c r="QL4" s="12"/>
-      <c r="QM4" s="12"/>
-      <c r="QN4" s="12"/>
-      <c r="QO4" s="12"/>
-      <c r="QP4" s="12"/>
-      <c r="QQ4" s="12"/>
-      <c r="QR4" s="12"/>
-      <c r="QS4" s="12"/>
-      <c r="QT4" s="12"/>
-      <c r="QU4" s="12"/>
-      <c r="QV4" s="12"/>
-      <c r="QW4" s="12"/>
-      <c r="QX4" s="12"/>
-      <c r="QY4" s="12"/>
-      <c r="QZ4" s="12"/>
-      <c r="RA4" s="12"/>
-      <c r="RB4" s="12"/>
-      <c r="RC4" s="12"/>
-      <c r="RD4" s="12"/>
-      <c r="RE4" s="12"/>
-      <c r="RF4" s="12"/>
-      <c r="RG4" s="12"/>
-      <c r="RH4" s="12"/>
-      <c r="RI4" s="12"/>
-      <c r="RJ4" s="12"/>
-      <c r="RK4" s="12"/>
-      <c r="RL4" s="12"/>
-      <c r="RM4" s="12"/>
-      <c r="RN4" s="12"/>
-      <c r="RO4" s="12"/>
-      <c r="RP4" s="12"/>
-      <c r="RQ4" s="12"/>
-      <c r="RR4" s="12"/>
-      <c r="RS4" s="12"/>
-      <c r="RT4" s="12"/>
-      <c r="RU4" s="12"/>
-      <c r="RV4" s="12"/>
-      <c r="RW4" s="12"/>
-      <c r="RX4" s="12"/>
-      <c r="RY4" s="12"/>
-      <c r="RZ4" s="12"/>
-      <c r="SA4" s="12"/>
-      <c r="SB4" s="12"/>
-      <c r="SC4" s="12"/>
-      <c r="SD4" s="12"/>
-      <c r="SE4" s="12"/>
-      <c r="SF4" s="12"/>
-      <c r="SG4" s="12"/>
-      <c r="SH4" s="12"/>
-      <c r="SI4" s="12"/>
-      <c r="SJ4" s="12"/>
-      <c r="SK4" s="12"/>
-      <c r="SL4" s="12"/>
-      <c r="SM4" s="12"/>
-      <c r="SN4" s="12"/>
-      <c r="SO4" s="12"/>
-      <c r="SP4" s="12"/>
-      <c r="SQ4" s="12"/>
-      <c r="SR4" s="12"/>
-      <c r="SS4" s="12"/>
-      <c r="ST4" s="12"/>
-      <c r="SU4" s="12"/>
-      <c r="SV4" s="12"/>
-      <c r="SW4" s="12"/>
-      <c r="SX4" s="12"/>
-      <c r="SY4" s="12"/>
-      <c r="SZ4" s="12"/>
-      <c r="TA4" s="12"/>
-      <c r="TB4" s="12"/>
-      <c r="TC4" s="12"/>
-      <c r="TD4" s="12"/>
-      <c r="TE4" s="12"/>
-      <c r="TF4" s="12"/>
-      <c r="TG4" s="12"/>
-      <c r="TH4" s="12"/>
-      <c r="TI4" s="12"/>
-      <c r="TJ4" s="12"/>
-      <c r="TK4" s="12"/>
-      <c r="TL4" s="12"/>
-      <c r="TM4" s="12"/>
-      <c r="TN4" s="12"/>
-      <c r="TO4" s="12"/>
-      <c r="TP4" s="12"/>
-      <c r="TQ4" s="12"/>
-      <c r="TR4" s="12"/>
-      <c r="TS4" s="12"/>
-      <c r="TT4" s="12"/>
-      <c r="TU4" s="12"/>
-      <c r="TV4" s="12"/>
-      <c r="TW4" s="12"/>
-      <c r="TX4" s="12"/>
-      <c r="TY4" s="12"/>
-      <c r="TZ4" s="12"/>
-      <c r="UA4" s="12"/>
-      <c r="UB4" s="12"/>
-      <c r="UC4" s="12"/>
-      <c r="UD4" s="12"/>
-      <c r="UE4" s="12"/>
-      <c r="UF4" s="12"/>
-      <c r="UG4" s="12"/>
-      <c r="UH4" s="12"/>
-      <c r="UI4" s="12"/>
-      <c r="UJ4" s="12"/>
-      <c r="UK4" s="12"/>
-      <c r="UL4" s="12"/>
-      <c r="UM4" s="12"/>
-      <c r="UN4" s="12"/>
-      <c r="UO4" s="12"/>
-      <c r="UP4" s="12"/>
-      <c r="UQ4" s="12"/>
-      <c r="UR4" s="12"/>
-      <c r="US4" s="12"/>
-      <c r="UT4" s="12"/>
-      <c r="UU4" s="12"/>
-      <c r="UV4" s="12"/>
-      <c r="UW4" s="12"/>
-      <c r="UX4" s="12"/>
-      <c r="UY4" s="12"/>
-      <c r="UZ4" s="12"/>
-      <c r="VA4" s="12"/>
-      <c r="VB4" s="12"/>
-      <c r="VC4" s="12"/>
-      <c r="VD4" s="12"/>
-      <c r="VE4" s="12"/>
-      <c r="VF4" s="12"/>
-      <c r="VG4" s="12"/>
-      <c r="VH4" s="12"/>
-      <c r="VI4" s="12"/>
-      <c r="VJ4" s="12"/>
-      <c r="VK4" s="12"/>
-      <c r="VL4" s="12"/>
-      <c r="VM4" s="12"/>
-      <c r="VN4" s="12"/>
-      <c r="VO4" s="12"/>
-      <c r="VP4" s="12"/>
-      <c r="VQ4" s="12"/>
-      <c r="VR4" s="12"/>
-      <c r="VS4" s="12"/>
-      <c r="VT4" s="12"/>
-      <c r="VU4" s="12"/>
-      <c r="VV4" s="12"/>
-      <c r="VW4" s="12"/>
-      <c r="VX4" s="12"/>
-      <c r="VY4" s="12"/>
-      <c r="VZ4" s="12"/>
-      <c r="WA4" s="12"/>
-      <c r="WB4" s="12"/>
-      <c r="WC4" s="12"/>
-      <c r="WD4" s="12"/>
-      <c r="WE4" s="12"/>
-      <c r="WF4" s="12"/>
-      <c r="WG4" s="12"/>
-      <c r="WH4" s="12"/>
-      <c r="WI4" s="12"/>
-      <c r="WJ4" s="12"/>
-      <c r="WK4" s="12"/>
-      <c r="WL4" s="12"/>
-      <c r="WM4" s="12"/>
-      <c r="WN4" s="12"/>
-      <c r="WO4" s="12"/>
-      <c r="WP4" s="12"/>
-      <c r="WQ4" s="12"/>
-      <c r="WR4" s="12"/>
-      <c r="WS4" s="12"/>
-      <c r="WT4" s="12"/>
-      <c r="WU4" s="12"/>
-      <c r="WV4" s="12"/>
-      <c r="WW4" s="12"/>
-      <c r="WX4" s="12"/>
-      <c r="WY4" s="12"/>
-      <c r="WZ4" s="12"/>
-      <c r="XA4" s="12"/>
-      <c r="XB4" s="12"/>
-      <c r="XC4" s="12"/>
-      <c r="XD4" s="12"/>
-      <c r="XE4" s="12"/>
-      <c r="XF4" s="12"/>
-      <c r="XG4" s="12"/>
-      <c r="XH4" s="12"/>
-      <c r="XI4" s="12"/>
-      <c r="XJ4" s="12"/>
-      <c r="XK4" s="12"/>
-      <c r="XL4" s="12"/>
-      <c r="XM4" s="12"/>
-      <c r="XN4" s="12"/>
-      <c r="XO4" s="12"/>
-      <c r="XP4" s="12"/>
-      <c r="XQ4" s="12"/>
-      <c r="XR4" s="12"/>
-      <c r="XS4" s="12"/>
-      <c r="XT4" s="12"/>
-      <c r="XU4" s="12"/>
-      <c r="XV4" s="12"/>
-      <c r="XW4" s="12"/>
-      <c r="XX4" s="12"/>
-      <c r="XY4" s="12"/>
-      <c r="XZ4" s="12"/>
-      <c r="YA4" s="12"/>
-      <c r="YB4" s="12"/>
-      <c r="YC4" s="12"/>
-      <c r="YD4" s="12"/>
-      <c r="YE4" s="12"/>
-      <c r="YF4" s="12"/>
-      <c r="YG4" s="12"/>
-      <c r="YH4" s="12"/>
-      <c r="YI4" s="12"/>
-      <c r="YJ4" s="12"/>
-      <c r="YK4" s="12"/>
-      <c r="YL4" s="12"/>
-      <c r="YM4" s="12"/>
-      <c r="YN4" s="12"/>
-      <c r="YO4" s="12"/>
-      <c r="YP4" s="12"/>
-      <c r="YQ4" s="12"/>
-      <c r="YR4" s="12"/>
-      <c r="YS4" s="12"/>
-      <c r="YT4" s="12"/>
-      <c r="YU4" s="12"/>
-      <c r="YV4" s="12"/>
-      <c r="YW4" s="12"/>
-      <c r="YX4" s="12"/>
-      <c r="YY4" s="12"/>
-      <c r="YZ4" s="12"/>
-      <c r="ZA4" s="12"/>
-      <c r="ZB4" s="12"/>
-      <c r="ZC4" s="12"/>
-      <c r="ZD4" s="12"/>
-      <c r="ZE4" s="12"/>
-      <c r="ZF4" s="12"/>
-      <c r="ZG4" s="12"/>
-      <c r="ZH4" s="12"/>
-      <c r="ZI4" s="12"/>
-      <c r="ZJ4" s="12"/>
-      <c r="ZK4" s="12"/>
-      <c r="ZL4" s="12"/>
-      <c r="ZM4" s="12"/>
-      <c r="ZN4" s="12"/>
-      <c r="ZO4" s="12"/>
-      <c r="ZP4" s="12"/>
-      <c r="ZQ4" s="12"/>
-      <c r="ZR4" s="12"/>
-      <c r="ZS4" s="12"/>
-      <c r="ZT4" s="12"/>
-      <c r="ZU4" s="12"/>
-      <c r="ZV4" s="12"/>
-      <c r="ZW4" s="12"/>
-      <c r="ZX4" s="12"/>
-      <c r="ZY4" s="12"/>
-      <c r="ZZ4" s="12"/>
-      <c r="AAA4" s="12"/>
-      <c r="AAB4" s="12"/>
-      <c r="AAC4" s="12"/>
-      <c r="AAD4" s="12"/>
-      <c r="AAE4" s="12"/>
-      <c r="AAF4" s="12"/>
-      <c r="AAG4" s="12"/>
-      <c r="AAH4" s="12"/>
-      <c r="AAI4" s="12"/>
-      <c r="AAJ4" s="12"/>
-      <c r="AAK4" s="12"/>
-      <c r="AAL4" s="12"/>
-      <c r="AAM4" s="12"/>
-      <c r="AAN4" s="12"/>
-      <c r="AAO4" s="12"/>
-      <c r="AAP4" s="12"/>
-      <c r="AAQ4" s="12"/>
-      <c r="AAR4" s="12"/>
-      <c r="AAS4" s="12"/>
-      <c r="AAT4" s="12"/>
-      <c r="AAU4" s="12"/>
-      <c r="AAV4" s="12"/>
-      <c r="AAW4" s="12"/>
-      <c r="AAX4" s="12"/>
-      <c r="AAY4" s="12"/>
-      <c r="AAZ4" s="12"/>
-      <c r="ABA4" s="12"/>
-      <c r="ABB4" s="12"/>
-      <c r="ABC4" s="12"/>
-      <c r="ABD4" s="12"/>
-      <c r="ABE4" s="12"/>
-      <c r="ABF4" s="12"/>
-      <c r="ABG4" s="12"/>
-      <c r="ABH4" s="12"/>
-      <c r="ABI4" s="12"/>
-      <c r="ABJ4" s="12"/>
-      <c r="ABK4" s="12"/>
-      <c r="ABL4" s="12"/>
-      <c r="ABM4" s="12"/>
-      <c r="ABN4" s="12"/>
-      <c r="ABO4" s="12"/>
-      <c r="ABP4" s="12"/>
-      <c r="ABQ4" s="12"/>
-      <c r="ABR4" s="12"/>
-      <c r="ABS4" s="12"/>
-      <c r="ABT4" s="12"/>
-      <c r="ABU4" s="12"/>
-      <c r="ABV4" s="12"/>
-      <c r="ABW4" s="12"/>
-      <c r="ABX4" s="12"/>
-      <c r="ABY4" s="12"/>
-      <c r="ABZ4" s="12"/>
-      <c r="ACA4" s="12"/>
-      <c r="ACB4" s="12"/>
-      <c r="ACC4" s="12"/>
-      <c r="ACD4" s="12"/>
-      <c r="ACE4" s="12"/>
-      <c r="ACF4" s="12"/>
-      <c r="ACG4" s="12"/>
-      <c r="ACH4" s="12"/>
-      <c r="ACI4" s="12"/>
-      <c r="ACJ4" s="12"/>
-      <c r="ACK4" s="12"/>
-      <c r="ACL4" s="12"/>
-      <c r="ACM4" s="12"/>
-      <c r="ACN4" s="12"/>
-      <c r="ACO4" s="12"/>
-      <c r="ACP4" s="12"/>
-      <c r="ACQ4" s="12"/>
-      <c r="ACR4" s="12"/>
-      <c r="ACS4" s="12"/>
-      <c r="ACT4" s="12"/>
-      <c r="ACU4" s="12"/>
-      <c r="ACV4" s="12"/>
-      <c r="ACW4" s="12"/>
-      <c r="ACX4" s="12"/>
-      <c r="ACY4" s="12"/>
-      <c r="ACZ4" s="12"/>
-      <c r="ADA4" s="12"/>
-      <c r="ADB4" s="12"/>
-      <c r="ADC4" s="12"/>
-      <c r="ADD4" s="12"/>
-      <c r="ADE4" s="12"/>
-      <c r="ADF4" s="12"/>
-      <c r="ADG4" s="12"/>
-      <c r="ADH4" s="12"/>
-      <c r="ADI4" s="12"/>
-      <c r="ADJ4" s="12"/>
-      <c r="ADK4" s="12"/>
-      <c r="ADL4" s="12"/>
-      <c r="ADM4" s="12"/>
-      <c r="ADN4" s="12"/>
-      <c r="ADO4" s="12"/>
-      <c r="ADP4" s="12"/>
-      <c r="ADQ4" s="12"/>
-      <c r="ADR4" s="12"/>
-      <c r="ADS4" s="12"/>
-      <c r="ADT4" s="12"/>
-      <c r="ADU4" s="12"/>
-      <c r="ADV4" s="12"/>
-      <c r="ADW4" s="12"/>
-      <c r="ADX4" s="12"/>
-      <c r="ADY4" s="12"/>
-      <c r="ADZ4" s="12"/>
-      <c r="AEA4" s="12"/>
-      <c r="AEB4" s="12"/>
-      <c r="AEC4" s="12"/>
-      <c r="AED4" s="12"/>
-      <c r="AEE4" s="12"/>
-      <c r="AEF4" s="12"/>
-      <c r="AEG4" s="12"/>
-      <c r="AEH4" s="12"/>
-      <c r="AEI4" s="12"/>
-      <c r="AEJ4" s="12"/>
-      <c r="AEK4" s="12"/>
-      <c r="AEL4" s="12"/>
-      <c r="AEM4" s="12"/>
-      <c r="AEN4" s="12"/>
-      <c r="AEO4" s="12"/>
-      <c r="AEP4" s="12"/>
-      <c r="AEQ4" s="12"/>
-      <c r="AER4" s="12"/>
-      <c r="AES4" s="12"/>
-      <c r="AET4" s="12"/>
-      <c r="AEU4" s="12"/>
-      <c r="AEV4" s="12"/>
-      <c r="AEW4" s="12"/>
-      <c r="AEX4" s="12"/>
-      <c r="AEY4" s="12"/>
-      <c r="AEZ4" s="12"/>
-      <c r="AFA4" s="12"/>
-      <c r="AFB4" s="12"/>
-      <c r="AFC4" s="12"/>
-      <c r="AFD4" s="12"/>
-      <c r="AFE4" s="12"/>
-      <c r="AFF4" s="12"/>
-      <c r="AFG4" s="12"/>
-      <c r="AFH4" s="12"/>
-      <c r="AFI4" s="12"/>
-      <c r="AFJ4" s="12"/>
-      <c r="AFK4" s="12"/>
-      <c r="AFL4" s="12"/>
-      <c r="AFM4" s="12"/>
-      <c r="AFN4" s="12"/>
-      <c r="AFO4" s="12"/>
-      <c r="AFP4" s="12"/>
-      <c r="AFQ4" s="12"/>
-      <c r="AFR4" s="12"/>
-      <c r="AFS4" s="12"/>
-      <c r="AFT4" s="12"/>
-      <c r="AFU4" s="12"/>
-      <c r="AFV4" s="12"/>
-      <c r="AFW4" s="12"/>
-      <c r="AFX4" s="12"/>
-      <c r="AFY4" s="12"/>
-      <c r="AFZ4" s="12"/>
-      <c r="AGA4" s="12"/>
-      <c r="AGB4" s="12"/>
-      <c r="AGC4" s="12"/>
-      <c r="AGD4" s="12"/>
-      <c r="AGE4" s="12"/>
-      <c r="AGF4" s="12"/>
-      <c r="AGG4" s="12"/>
-      <c r="AGH4" s="12"/>
-      <c r="AGI4" s="12"/>
-      <c r="AGJ4" s="12"/>
-      <c r="AGK4" s="12"/>
-      <c r="AGL4" s="12"/>
-      <c r="AGM4" s="12"/>
-      <c r="AGN4" s="12"/>
-      <c r="AGO4" s="12"/>
-      <c r="AGP4" s="12"/>
-      <c r="AGQ4" s="12"/>
-      <c r="AGR4" s="12"/>
-      <c r="AGS4" s="12"/>
-      <c r="AGT4" s="12"/>
-      <c r="AGU4" s="12"/>
-      <c r="AGV4" s="12"/>
-      <c r="AGW4" s="12"/>
-      <c r="AGX4" s="12"/>
-      <c r="AGY4" s="12"/>
-      <c r="AGZ4" s="12"/>
-      <c r="AHA4" s="12"/>
-      <c r="AHB4" s="12"/>
-      <c r="AHC4" s="12"/>
-      <c r="AHD4" s="12"/>
-      <c r="AHE4" s="12"/>
-      <c r="AHF4" s="12"/>
-      <c r="AHG4" s="12"/>
-      <c r="AHH4" s="12"/>
-      <c r="AHI4" s="12"/>
-      <c r="AHJ4" s="12"/>
-      <c r="AHK4" s="12"/>
-      <c r="AHL4" s="12"/>
-      <c r="AHM4" s="12"/>
-      <c r="AHN4" s="12"/>
-      <c r="AHO4" s="12"/>
-      <c r="AHP4" s="12"/>
-      <c r="AHQ4" s="12"/>
-      <c r="AHR4" s="12"/>
-      <c r="AHS4" s="12"/>
-      <c r="AHT4" s="12"/>
-      <c r="AHU4" s="12"/>
-      <c r="AHV4" s="12"/>
-      <c r="AHW4" s="12"/>
-      <c r="AHX4" s="12"/>
-      <c r="AHY4" s="12"/>
-      <c r="AHZ4" s="12"/>
-      <c r="AIA4" s="12"/>
-      <c r="AIB4" s="12"/>
-      <c r="AIC4" s="12"/>
-      <c r="AID4" s="12"/>
-      <c r="AIE4" s="12"/>
-      <c r="AIF4" s="12"/>
-      <c r="AIG4" s="12"/>
-      <c r="AIH4" s="12"/>
-      <c r="AII4" s="12"/>
-      <c r="AIJ4" s="12"/>
-      <c r="AIK4" s="12"/>
-      <c r="AIL4" s="12"/>
-      <c r="AIM4" s="12"/>
-      <c r="AIN4" s="12"/>
-      <c r="AIO4" s="12"/>
-      <c r="AIP4" s="12"/>
-      <c r="AIQ4" s="12"/>
-      <c r="AIR4" s="12"/>
-      <c r="AIS4" s="12"/>
-      <c r="AIT4" s="12"/>
-      <c r="AIU4" s="12"/>
-      <c r="AIV4" s="12"/>
-      <c r="AIW4" s="12"/>
-      <c r="AIX4" s="12"/>
-      <c r="AIY4" s="12"/>
-      <c r="AIZ4" s="12"/>
-      <c r="AJA4" s="12"/>
-      <c r="AJB4" s="12"/>
-      <c r="AJC4" s="12"/>
-      <c r="AJD4" s="12"/>
-      <c r="AJE4" s="12"/>
-      <c r="AJF4" s="12"/>
-      <c r="AJG4" s="12"/>
-      <c r="AJH4" s="12"/>
-      <c r="AJI4" s="12"/>
-      <c r="AJJ4" s="12"/>
-      <c r="AJK4" s="12"/>
-      <c r="AJL4" s="12"/>
-      <c r="AJM4" s="12"/>
-      <c r="AJN4" s="12"/>
-      <c r="AJO4" s="12"/>
-      <c r="AJP4" s="12"/>
-      <c r="AJQ4" s="12"/>
-      <c r="AJR4" s="12"/>
-      <c r="AJS4" s="12"/>
-      <c r="AJT4" s="12"/>
-      <c r="AJU4" s="12"/>
-      <c r="AJV4" s="12"/>
-      <c r="AJW4" s="12"/>
-      <c r="AJX4" s="12"/>
-      <c r="AJY4" s="12"/>
-      <c r="AJZ4" s="12"/>
-      <c r="AKA4" s="12"/>
-      <c r="AKB4" s="12"/>
-      <c r="AKC4" s="12"/>
-      <c r="AKD4" s="12"/>
-      <c r="AKE4" s="12"/>
-      <c r="AKF4" s="12"/>
-      <c r="AKG4" s="12"/>
-      <c r="AKH4" s="12"/>
-      <c r="AKI4" s="12"/>
-      <c r="AKJ4" s="12"/>
-      <c r="AKK4" s="12"/>
-      <c r="AKL4" s="12"/>
-      <c r="AKM4" s="12"/>
-      <c r="AKN4" s="12"/>
-      <c r="AKO4" s="12"/>
-      <c r="AKP4" s="12"/>
-      <c r="AKQ4" s="12"/>
-      <c r="AKR4" s="12"/>
-      <c r="AKS4" s="12"/>
-      <c r="AKT4" s="12"/>
-      <c r="AKU4" s="12"/>
-      <c r="AKV4" s="12"/>
-      <c r="AKW4" s="12"/>
-      <c r="AKX4" s="12"/>
-      <c r="AKY4" s="12"/>
-      <c r="AKZ4" s="12"/>
-      <c r="ALA4" s="12"/>
-      <c r="ALB4" s="12"/>
-      <c r="ALC4" s="12"/>
-      <c r="ALD4" s="12"/>
-      <c r="ALE4" s="12"/>
-      <c r="ALF4" s="12"/>
-      <c r="ALG4" s="12"/>
-      <c r="ALH4" s="12"/>
-      <c r="ALI4" s="12"/>
-      <c r="ALJ4" s="12"/>
-      <c r="ALK4" s="12"/>
-      <c r="ALL4" s="12"/>
-      <c r="ALM4" s="12"/>
-      <c r="ALN4" s="12"/>
-      <c r="ALO4" s="12"/>
-      <c r="ALP4" s="12"/>
-      <c r="ALQ4" s="12"/>
-      <c r="ALR4" s="12"/>
-      <c r="ALS4" s="12"/>
-      <c r="ALT4" s="12"/>
-      <c r="ALU4" s="12"/>
-      <c r="ALV4" s="12"/>
-      <c r="ALW4" s="12"/>
-      <c r="ALX4" s="12"/>
-      <c r="ALY4" s="12"/>
-      <c r="ALZ4" s="12"/>
-      <c r="AMA4" s="12"/>
-      <c r="AMB4" s="12"/>
-      <c r="AMC4" s="12"/>
-      <c r="AMD4" s="12"/>
-      <c r="AME4" s="12"/>
-      <c r="AMF4" s="12"/>
-      <c r="AMG4" s="12"/>
-      <c r="AMH4" s="12"/>
-      <c r="AMI4" s="12"/>
-    </row>
-    <row r="5" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12"/>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
-      <c r="BV5" s="12"/>
-      <c r="BW5" s="12"/>
-      <c r="BX5" s="12"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12"/>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-      <c r="CE5" s="12"/>
-      <c r="CF5" s="12"/>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="12"/>
-      <c r="CJ5" s="12"/>
-      <c r="CK5" s="12"/>
-      <c r="CL5" s="12"/>
-      <c r="CM5" s="12"/>
-      <c r="CN5" s="12"/>
-      <c r="CO5" s="12"/>
-      <c r="CP5" s="12"/>
-      <c r="CQ5" s="12"/>
-      <c r="CR5" s="12"/>
-      <c r="CS5" s="12"/>
-      <c r="CT5" s="12"/>
-      <c r="CU5" s="12"/>
-      <c r="CV5" s="12"/>
-      <c r="CW5" s="12"/>
-      <c r="CX5" s="12"/>
-      <c r="CY5" s="12"/>
-      <c r="CZ5" s="12"/>
-      <c r="DA5" s="12"/>
-      <c r="DB5" s="12"/>
-      <c r="DC5" s="12"/>
-      <c r="DD5" s="12"/>
-      <c r="DE5" s="12"/>
-      <c r="DF5" s="12"/>
-      <c r="DG5" s="12"/>
-      <c r="DH5" s="12"/>
-      <c r="DI5" s="12"/>
-      <c r="DJ5" s="12"/>
-      <c r="DK5" s="12"/>
-      <c r="DL5" s="12"/>
-      <c r="DM5" s="12"/>
-      <c r="DN5" s="12"/>
-      <c r="DO5" s="12"/>
-      <c r="DP5" s="12"/>
-      <c r="DQ5" s="12"/>
-      <c r="DR5" s="12"/>
-      <c r="DS5" s="12"/>
-      <c r="DT5" s="12"/>
-      <c r="DU5" s="12"/>
-      <c r="DV5" s="12"/>
-      <c r="DW5" s="12"/>
-      <c r="DX5" s="12"/>
-      <c r="DY5" s="12"/>
-      <c r="DZ5" s="12"/>
-      <c r="EA5" s="12"/>
-      <c r="EB5" s="12"/>
-      <c r="EC5" s="12"/>
-      <c r="ED5" s="12"/>
-      <c r="EE5" s="12"/>
-      <c r="EF5" s="12"/>
-      <c r="EG5" s="12"/>
-      <c r="EH5" s="12"/>
-      <c r="EI5" s="12"/>
-      <c r="EJ5" s="12"/>
-      <c r="EK5" s="12"/>
-      <c r="EL5" s="12"/>
-      <c r="EM5" s="12"/>
-      <c r="EN5" s="12"/>
-      <c r="EO5" s="12"/>
-      <c r="EP5" s="12"/>
-      <c r="EQ5" s="12"/>
-      <c r="ER5" s="12"/>
-      <c r="ES5" s="12"/>
-      <c r="ET5" s="12"/>
-      <c r="EU5" s="12"/>
-      <c r="EV5" s="12"/>
-      <c r="EW5" s="12"/>
-      <c r="EX5" s="12"/>
-      <c r="EY5" s="12"/>
-      <c r="EZ5" s="12"/>
-      <c r="FA5" s="12"/>
-      <c r="FB5" s="12"/>
-      <c r="FC5" s="12"/>
-      <c r="FD5" s="12"/>
-      <c r="FE5" s="12"/>
-      <c r="FF5" s="12"/>
-      <c r="FG5" s="12"/>
-      <c r="FH5" s="12"/>
-      <c r="FI5" s="12"/>
-      <c r="FJ5" s="12"/>
-      <c r="FK5" s="12"/>
-      <c r="FL5" s="12"/>
-      <c r="FM5" s="12"/>
-      <c r="FN5" s="12"/>
-      <c r="FO5" s="12"/>
-      <c r="FP5" s="12"/>
-      <c r="FQ5" s="12"/>
-      <c r="FR5" s="12"/>
-      <c r="FS5" s="12"/>
-      <c r="FT5" s="12"/>
-      <c r="FU5" s="12"/>
-      <c r="FV5" s="12"/>
-      <c r="FW5" s="12"/>
-      <c r="FX5" s="12"/>
-      <c r="FY5" s="12"/>
-      <c r="FZ5" s="12"/>
-      <c r="GA5" s="12"/>
-      <c r="GB5" s="12"/>
-      <c r="GC5" s="12"/>
-      <c r="GD5" s="12"/>
-      <c r="GE5" s="12"/>
-      <c r="GF5" s="12"/>
-      <c r="GG5" s="12"/>
-      <c r="GH5" s="12"/>
-      <c r="GI5" s="12"/>
-      <c r="GJ5" s="12"/>
-      <c r="GK5" s="12"/>
-      <c r="GL5" s="12"/>
-      <c r="GM5" s="12"/>
-      <c r="GN5" s="12"/>
-      <c r="GO5" s="12"/>
-      <c r="GP5" s="12"/>
-      <c r="GQ5" s="12"/>
-      <c r="GR5" s="12"/>
-      <c r="GS5" s="12"/>
-      <c r="GT5" s="12"/>
-      <c r="GU5" s="12"/>
-      <c r="GV5" s="12"/>
-      <c r="GW5" s="12"/>
-      <c r="GX5" s="12"/>
-      <c r="GY5" s="12"/>
-      <c r="GZ5" s="12"/>
-      <c r="HA5" s="12"/>
-      <c r="HB5" s="12"/>
-      <c r="HC5" s="12"/>
-      <c r="HD5" s="12"/>
-      <c r="HE5" s="12"/>
-      <c r="HF5" s="12"/>
-      <c r="HG5" s="12"/>
-      <c r="HH5" s="12"/>
-      <c r="HI5" s="12"/>
-      <c r="HJ5" s="12"/>
-      <c r="HK5" s="12"/>
-      <c r="HL5" s="12"/>
-      <c r="HM5" s="12"/>
-      <c r="HN5" s="12"/>
-      <c r="HO5" s="12"/>
-      <c r="HP5" s="12"/>
-      <c r="HQ5" s="12"/>
-      <c r="HR5" s="12"/>
-      <c r="HS5" s="12"/>
-      <c r="HT5" s="12"/>
-      <c r="HU5" s="12"/>
-      <c r="HV5" s="12"/>
-      <c r="HW5" s="12"/>
-      <c r="HX5" s="12"/>
-      <c r="HY5" s="12"/>
-      <c r="HZ5" s="12"/>
-      <c r="IA5" s="12"/>
-      <c r="IB5" s="12"/>
-      <c r="IC5" s="12"/>
-      <c r="ID5" s="12"/>
-      <c r="IE5" s="12"/>
-      <c r="IF5" s="12"/>
-      <c r="IG5" s="12"/>
-      <c r="IH5" s="12"/>
-      <c r="II5" s="12"/>
-      <c r="IJ5" s="12"/>
-      <c r="IK5" s="12"/>
-      <c r="IL5" s="12"/>
-      <c r="IM5" s="12"/>
-      <c r="IN5" s="12"/>
-      <c r="IO5" s="12"/>
-      <c r="IP5" s="12"/>
-      <c r="IQ5" s="12"/>
-      <c r="IR5" s="12"/>
-      <c r="IS5" s="12"/>
-      <c r="IT5" s="12"/>
-      <c r="IU5" s="12"/>
-      <c r="IV5" s="12"/>
-      <c r="IW5" s="12"/>
-      <c r="IX5" s="12"/>
-      <c r="IY5" s="12"/>
-      <c r="IZ5" s="12"/>
-      <c r="JA5" s="12"/>
-      <c r="JB5" s="12"/>
-      <c r="JC5" s="12"/>
-      <c r="JD5" s="12"/>
-      <c r="JE5" s="12"/>
-      <c r="JF5" s="12"/>
-      <c r="JG5" s="12"/>
-      <c r="JH5" s="12"/>
-      <c r="JI5" s="12"/>
-      <c r="JJ5" s="12"/>
-      <c r="JK5" s="12"/>
-      <c r="JL5" s="12"/>
-      <c r="JM5" s="12"/>
-      <c r="JN5" s="12"/>
-      <c r="JO5" s="12"/>
-      <c r="JP5" s="12"/>
-      <c r="JQ5" s="12"/>
-      <c r="JR5" s="12"/>
-      <c r="JS5" s="12"/>
-      <c r="JT5" s="12"/>
-      <c r="JU5" s="12"/>
-      <c r="JV5" s="12"/>
-      <c r="JW5" s="12"/>
-      <c r="JX5" s="12"/>
-      <c r="JY5" s="12"/>
-      <c r="JZ5" s="12"/>
-      <c r="KA5" s="12"/>
-      <c r="KB5" s="12"/>
-      <c r="KC5" s="12"/>
-      <c r="KD5" s="12"/>
-      <c r="KE5" s="12"/>
-      <c r="KF5" s="12"/>
-      <c r="KG5" s="12"/>
-      <c r="KH5" s="12"/>
-      <c r="KI5" s="12"/>
-      <c r="KJ5" s="12"/>
-      <c r="KK5" s="12"/>
-      <c r="KL5" s="12"/>
-      <c r="KM5" s="12"/>
-      <c r="KN5" s="12"/>
-      <c r="KO5" s="12"/>
-      <c r="KP5" s="12"/>
-      <c r="KQ5" s="12"/>
-      <c r="KR5" s="12"/>
-      <c r="KS5" s="12"/>
-      <c r="KT5" s="12"/>
-      <c r="KU5" s="12"/>
-      <c r="KV5" s="12"/>
-      <c r="KW5" s="12"/>
-      <c r="KX5" s="12"/>
-      <c r="KY5" s="12"/>
-      <c r="KZ5" s="12"/>
-      <c r="LA5" s="12"/>
-      <c r="LB5" s="12"/>
-      <c r="LC5" s="12"/>
-      <c r="LD5" s="12"/>
-      <c r="LE5" s="12"/>
-      <c r="LF5" s="12"/>
-      <c r="LG5" s="12"/>
-      <c r="LH5" s="12"/>
-      <c r="LI5" s="12"/>
-      <c r="LJ5" s="12"/>
-      <c r="LK5" s="12"/>
-      <c r="LL5" s="12"/>
-      <c r="LM5" s="12"/>
-      <c r="LN5" s="12"/>
-      <c r="LO5" s="12"/>
-      <c r="LP5" s="12"/>
-      <c r="LQ5" s="12"/>
-      <c r="LR5" s="12"/>
-      <c r="LS5" s="12"/>
-      <c r="LT5" s="12"/>
-      <c r="LU5" s="12"/>
-      <c r="LV5" s="12"/>
-      <c r="LW5" s="12"/>
-      <c r="LX5" s="12"/>
-      <c r="LY5" s="12"/>
-      <c r="LZ5" s="12"/>
-      <c r="MA5" s="12"/>
-      <c r="MB5" s="12"/>
-      <c r="MC5" s="12"/>
-      <c r="MD5" s="12"/>
-      <c r="ME5" s="12"/>
-      <c r="MF5" s="12"/>
-      <c r="MG5" s="12"/>
-      <c r="MH5" s="12"/>
-      <c r="MI5" s="12"/>
-      <c r="MJ5" s="12"/>
-      <c r="MK5" s="12"/>
-      <c r="ML5" s="12"/>
-      <c r="MM5" s="12"/>
-      <c r="MN5" s="12"/>
-      <c r="MO5" s="12"/>
-      <c r="MP5" s="12"/>
-      <c r="MQ5" s="12"/>
-      <c r="MR5" s="12"/>
-      <c r="MS5" s="12"/>
-      <c r="MT5" s="12"/>
-      <c r="MU5" s="12"/>
-      <c r="MV5" s="12"/>
-      <c r="MW5" s="12"/>
-      <c r="MX5" s="12"/>
-      <c r="MY5" s="12"/>
-      <c r="MZ5" s="12"/>
-      <c r="NA5" s="12"/>
-      <c r="NB5" s="12"/>
-      <c r="NC5" s="12"/>
-      <c r="ND5" s="12"/>
-      <c r="NE5" s="12"/>
-      <c r="NF5" s="12"/>
-      <c r="NG5" s="12"/>
-      <c r="NH5" s="12"/>
-      <c r="NI5" s="12"/>
-      <c r="NJ5" s="12"/>
-      <c r="NK5" s="12"/>
-      <c r="NL5" s="12"/>
-      <c r="NM5" s="12"/>
-      <c r="NN5" s="12"/>
-      <c r="NO5" s="12"/>
-      <c r="NP5" s="12"/>
-      <c r="NQ5" s="12"/>
-      <c r="NR5" s="12"/>
-      <c r="NS5" s="12"/>
-      <c r="NT5" s="12"/>
-      <c r="NU5" s="12"/>
-      <c r="NV5" s="12"/>
-      <c r="NW5" s="12"/>
-      <c r="NX5" s="12"/>
-      <c r="NY5" s="12"/>
-      <c r="NZ5" s="12"/>
-      <c r="OA5" s="12"/>
-      <c r="OB5" s="12"/>
-      <c r="OC5" s="12"/>
-      <c r="OD5" s="12"/>
-      <c r="OE5" s="12"/>
-      <c r="OF5" s="12"/>
-      <c r="OG5" s="12"/>
-      <c r="OH5" s="12"/>
-      <c r="OI5" s="12"/>
-      <c r="OJ5" s="12"/>
-      <c r="OK5" s="12"/>
-      <c r="OL5" s="12"/>
-      <c r="OM5" s="12"/>
-      <c r="ON5" s="12"/>
-      <c r="OO5" s="12"/>
-      <c r="OP5" s="12"/>
-      <c r="OQ5" s="12"/>
-      <c r="OR5" s="12"/>
-      <c r="OS5" s="12"/>
-      <c r="OT5" s="12"/>
-      <c r="OU5" s="12"/>
-      <c r="OV5" s="12"/>
-      <c r="OW5" s="12"/>
-      <c r="OX5" s="12"/>
-      <c r="OY5" s="12"/>
-      <c r="OZ5" s="12"/>
-      <c r="PA5" s="12"/>
-      <c r="PB5" s="12"/>
-      <c r="PC5" s="12"/>
-      <c r="PD5" s="12"/>
-      <c r="PE5" s="12"/>
-      <c r="PF5" s="12"/>
-      <c r="PG5" s="12"/>
-      <c r="PH5" s="12"/>
-      <c r="PI5" s="12"/>
-      <c r="PJ5" s="12"/>
-      <c r="PK5" s="12"/>
-      <c r="PL5" s="12"/>
-      <c r="PM5" s="12"/>
-      <c r="PN5" s="12"/>
-      <c r="PO5" s="12"/>
-      <c r="PP5" s="12"/>
-      <c r="PQ5" s="12"/>
-      <c r="PR5" s="12"/>
-      <c r="PS5" s="12"/>
-      <c r="PT5" s="12"/>
-      <c r="PU5" s="12"/>
-      <c r="PV5" s="12"/>
-      <c r="PW5" s="12"/>
-      <c r="PX5" s="12"/>
-      <c r="PY5" s="12"/>
-      <c r="PZ5" s="12"/>
-      <c r="QA5" s="12"/>
-      <c r="QB5" s="12"/>
-      <c r="QC5" s="12"/>
-      <c r="QD5" s="12"/>
-      <c r="QE5" s="12"/>
-      <c r="QF5" s="12"/>
-      <c r="QG5" s="12"/>
-      <c r="QH5" s="12"/>
-      <c r="QI5" s="12"/>
-      <c r="QJ5" s="12"/>
-      <c r="QK5" s="12"/>
-      <c r="QL5" s="12"/>
-      <c r="QM5" s="12"/>
-      <c r="QN5" s="12"/>
-      <c r="QO5" s="12"/>
-      <c r="QP5" s="12"/>
-      <c r="QQ5" s="12"/>
-      <c r="QR5" s="12"/>
-      <c r="QS5" s="12"/>
-      <c r="QT5" s="12"/>
-      <c r="QU5" s="12"/>
-      <c r="QV5" s="12"/>
-      <c r="QW5" s="12"/>
-      <c r="QX5" s="12"/>
-      <c r="QY5" s="12"/>
-      <c r="QZ5" s="12"/>
-      <c r="RA5" s="12"/>
-      <c r="RB5" s="12"/>
-      <c r="RC5" s="12"/>
-      <c r="RD5" s="12"/>
-      <c r="RE5" s="12"/>
-      <c r="RF5" s="12"/>
-      <c r="RG5" s="12"/>
-      <c r="RH5" s="12"/>
-      <c r="RI5" s="12"/>
-      <c r="RJ5" s="12"/>
-      <c r="RK5" s="12"/>
-      <c r="RL5" s="12"/>
-      <c r="RM5" s="12"/>
-      <c r="RN5" s="12"/>
-      <c r="RO5" s="12"/>
-      <c r="RP5" s="12"/>
-      <c r="RQ5" s="12"/>
-      <c r="RR5" s="12"/>
-      <c r="RS5" s="12"/>
-      <c r="RT5" s="12"/>
-      <c r="RU5" s="12"/>
-      <c r="RV5" s="12"/>
-      <c r="RW5" s="12"/>
-      <c r="RX5" s="12"/>
-      <c r="RY5" s="12"/>
-      <c r="RZ5" s="12"/>
-      <c r="SA5" s="12"/>
-      <c r="SB5" s="12"/>
-      <c r="SC5" s="12"/>
-      <c r="SD5" s="12"/>
-      <c r="SE5" s="12"/>
-      <c r="SF5" s="12"/>
-      <c r="SG5" s="12"/>
-      <c r="SH5" s="12"/>
-      <c r="SI5" s="12"/>
-      <c r="SJ5" s="12"/>
-      <c r="SK5" s="12"/>
-      <c r="SL5" s="12"/>
-      <c r="SM5" s="12"/>
-      <c r="SN5" s="12"/>
-      <c r="SO5" s="12"/>
-      <c r="SP5" s="12"/>
-      <c r="SQ5" s="12"/>
-      <c r="SR5" s="12"/>
-      <c r="SS5" s="12"/>
-      <c r="ST5" s="12"/>
-      <c r="SU5" s="12"/>
-      <c r="SV5" s="12"/>
-      <c r="SW5" s="12"/>
-      <c r="SX5" s="12"/>
-      <c r="SY5" s="12"/>
-      <c r="SZ5" s="12"/>
-      <c r="TA5" s="12"/>
-      <c r="TB5" s="12"/>
-      <c r="TC5" s="12"/>
-      <c r="TD5" s="12"/>
-      <c r="TE5" s="12"/>
-      <c r="TF5" s="12"/>
-      <c r="TG5" s="12"/>
-      <c r="TH5" s="12"/>
-      <c r="TI5" s="12"/>
-      <c r="TJ5" s="12"/>
-      <c r="TK5" s="12"/>
-      <c r="TL5" s="12"/>
-      <c r="TM5" s="12"/>
-      <c r="TN5" s="12"/>
-      <c r="TO5" s="12"/>
-      <c r="TP5" s="12"/>
-      <c r="TQ5" s="12"/>
-      <c r="TR5" s="12"/>
-      <c r="TS5" s="12"/>
-      <c r="TT5" s="12"/>
-      <c r="TU5" s="12"/>
-      <c r="TV5" s="12"/>
-      <c r="TW5" s="12"/>
-      <c r="TX5" s="12"/>
-      <c r="TY5" s="12"/>
-      <c r="TZ5" s="12"/>
-      <c r="UA5" s="12"/>
-      <c r="UB5" s="12"/>
-      <c r="UC5" s="12"/>
-      <c r="UD5" s="12"/>
-      <c r="UE5" s="12"/>
-      <c r="UF5" s="12"/>
-      <c r="UG5" s="12"/>
-      <c r="UH5" s="12"/>
-      <c r="UI5" s="12"/>
-      <c r="UJ5" s="12"/>
-      <c r="UK5" s="12"/>
-      <c r="UL5" s="12"/>
-      <c r="UM5" s="12"/>
-      <c r="UN5" s="12"/>
-      <c r="UO5" s="12"/>
-      <c r="UP5" s="12"/>
-      <c r="UQ5" s="12"/>
-      <c r="UR5" s="12"/>
-      <c r="US5" s="12"/>
-      <c r="UT5" s="12"/>
-      <c r="UU5" s="12"/>
-      <c r="UV5" s="12"/>
-      <c r="UW5" s="12"/>
-      <c r="UX5" s="12"/>
-      <c r="UY5" s="12"/>
-      <c r="UZ5" s="12"/>
-      <c r="VA5" s="12"/>
-      <c r="VB5" s="12"/>
-      <c r="VC5" s="12"/>
-      <c r="VD5" s="12"/>
-      <c r="VE5" s="12"/>
-      <c r="VF5" s="12"/>
-      <c r="VG5" s="12"/>
-      <c r="VH5" s="12"/>
-      <c r="VI5" s="12"/>
-      <c r="VJ5" s="12"/>
-      <c r="VK5" s="12"/>
-      <c r="VL5" s="12"/>
-      <c r="VM5" s="12"/>
-      <c r="VN5" s="12"/>
-      <c r="VO5" s="12"/>
-      <c r="VP5" s="12"/>
-      <c r="VQ5" s="12"/>
-      <c r="VR5" s="12"/>
-      <c r="VS5" s="12"/>
-      <c r="VT5" s="12"/>
-      <c r="VU5" s="12"/>
-      <c r="VV5" s="12"/>
-      <c r="VW5" s="12"/>
-      <c r="VX5" s="12"/>
-      <c r="VY5" s="12"/>
-      <c r="VZ5" s="12"/>
-      <c r="WA5" s="12"/>
-      <c r="WB5" s="12"/>
-      <c r="WC5" s="12"/>
-      <c r="WD5" s="12"/>
-      <c r="WE5" s="12"/>
-      <c r="WF5" s="12"/>
-      <c r="WG5" s="12"/>
-      <c r="WH5" s="12"/>
-      <c r="WI5" s="12"/>
-      <c r="WJ5" s="12"/>
-      <c r="WK5" s="12"/>
-      <c r="WL5" s="12"/>
-      <c r="WM5" s="12"/>
-      <c r="WN5" s="12"/>
-      <c r="WO5" s="12"/>
-      <c r="WP5" s="12"/>
-      <c r="WQ5" s="12"/>
-      <c r="WR5" s="12"/>
-      <c r="WS5" s="12"/>
-      <c r="WT5" s="12"/>
-      <c r="WU5" s="12"/>
-      <c r="WV5" s="12"/>
-      <c r="WW5" s="12"/>
-      <c r="WX5" s="12"/>
-      <c r="WY5" s="12"/>
-      <c r="WZ5" s="12"/>
-      <c r="XA5" s="12"/>
-      <c r="XB5" s="12"/>
-      <c r="XC5" s="12"/>
-      <c r="XD5" s="12"/>
-      <c r="XE5" s="12"/>
-      <c r="XF5" s="12"/>
-      <c r="XG5" s="12"/>
-      <c r="XH5" s="12"/>
-      <c r="XI5" s="12"/>
-      <c r="XJ5" s="12"/>
-      <c r="XK5" s="12"/>
-      <c r="XL5" s="12"/>
-      <c r="XM5" s="12"/>
-      <c r="XN5" s="12"/>
-      <c r="XO5" s="12"/>
-      <c r="XP5" s="12"/>
-      <c r="XQ5" s="12"/>
-      <c r="XR5" s="12"/>
-      <c r="XS5" s="12"/>
-      <c r="XT5" s="12"/>
-      <c r="XU5" s="12"/>
-      <c r="XV5" s="12"/>
-      <c r="XW5" s="12"/>
-      <c r="XX5" s="12"/>
-      <c r="XY5" s="12"/>
-      <c r="XZ5" s="12"/>
-      <c r="YA5" s="12"/>
-      <c r="YB5" s="12"/>
-      <c r="YC5" s="12"/>
-      <c r="YD5" s="12"/>
-      <c r="YE5" s="12"/>
-      <c r="YF5" s="12"/>
-      <c r="YG5" s="12"/>
-      <c r="YH5" s="12"/>
-      <c r="YI5" s="12"/>
-      <c r="YJ5" s="12"/>
-      <c r="YK5" s="12"/>
-      <c r="YL5" s="12"/>
-      <c r="YM5" s="12"/>
-      <c r="YN5" s="12"/>
-      <c r="YO5" s="12"/>
-      <c r="YP5" s="12"/>
-      <c r="YQ5" s="12"/>
-      <c r="YR5" s="12"/>
-      <c r="YS5" s="12"/>
-      <c r="YT5" s="12"/>
-      <c r="YU5" s="12"/>
-      <c r="YV5" s="12"/>
-      <c r="YW5" s="12"/>
-      <c r="YX5" s="12"/>
-      <c r="YY5" s="12"/>
-      <c r="YZ5" s="12"/>
-      <c r="ZA5" s="12"/>
-      <c r="ZB5" s="12"/>
-      <c r="ZC5" s="12"/>
-      <c r="ZD5" s="12"/>
-      <c r="ZE5" s="12"/>
-      <c r="ZF5" s="12"/>
-      <c r="ZG5" s="12"/>
-      <c r="ZH5" s="12"/>
-      <c r="ZI5" s="12"/>
-      <c r="ZJ5" s="12"/>
-      <c r="ZK5" s="12"/>
-      <c r="ZL5" s="12"/>
-      <c r="ZM5" s="12"/>
-      <c r="ZN5" s="12"/>
-      <c r="ZO5" s="12"/>
-      <c r="ZP5" s="12"/>
-      <c r="ZQ5" s="12"/>
-      <c r="ZR5" s="12"/>
-      <c r="ZS5" s="12"/>
-      <c r="ZT5" s="12"/>
-      <c r="ZU5" s="12"/>
-      <c r="ZV5" s="12"/>
-      <c r="ZW5" s="12"/>
-      <c r="ZX5" s="12"/>
-      <c r="ZY5" s="12"/>
-      <c r="ZZ5" s="12"/>
-      <c r="AAA5" s="12"/>
-      <c r="AAB5" s="12"/>
-      <c r="AAC5" s="12"/>
-      <c r="AAD5" s="12"/>
-      <c r="AAE5" s="12"/>
-      <c r="AAF5" s="12"/>
-      <c r="AAG5" s="12"/>
-      <c r="AAH5" s="12"/>
-      <c r="AAI5" s="12"/>
-      <c r="AAJ5" s="12"/>
-      <c r="AAK5" s="12"/>
-      <c r="AAL5" s="12"/>
-      <c r="AAM5" s="12"/>
-      <c r="AAN5" s="12"/>
-      <c r="AAO5" s="12"/>
-      <c r="AAP5" s="12"/>
-      <c r="AAQ5" s="12"/>
-      <c r="AAR5" s="12"/>
-      <c r="AAS5" s="12"/>
-      <c r="AAT5" s="12"/>
-      <c r="AAU5" s="12"/>
-      <c r="AAV5" s="12"/>
-      <c r="AAW5" s="12"/>
-      <c r="AAX5" s="12"/>
-      <c r="AAY5" s="12"/>
-      <c r="AAZ5" s="12"/>
-      <c r="ABA5" s="12"/>
-      <c r="ABB5" s="12"/>
-      <c r="ABC5" s="12"/>
-      <c r="ABD5" s="12"/>
-      <c r="ABE5" s="12"/>
-      <c r="ABF5" s="12"/>
-      <c r="ABG5" s="12"/>
-      <c r="ABH5" s="12"/>
-      <c r="ABI5" s="12"/>
-      <c r="ABJ5" s="12"/>
-      <c r="ABK5" s="12"/>
-      <c r="ABL5" s="12"/>
-      <c r="ABM5" s="12"/>
-      <c r="ABN5" s="12"/>
-      <c r="ABO5" s="12"/>
-      <c r="ABP5" s="12"/>
-      <c r="ABQ5" s="12"/>
-      <c r="ABR5" s="12"/>
-      <c r="ABS5" s="12"/>
-      <c r="ABT5" s="12"/>
-      <c r="ABU5" s="12"/>
-      <c r="ABV5" s="12"/>
-      <c r="ABW5" s="12"/>
-      <c r="ABX5" s="12"/>
-      <c r="ABY5" s="12"/>
-      <c r="ABZ5" s="12"/>
-      <c r="ACA5" s="12"/>
-      <c r="ACB5" s="12"/>
-      <c r="ACC5" s="12"/>
-      <c r="ACD5" s="12"/>
-      <c r="ACE5" s="12"/>
-      <c r="ACF5" s="12"/>
-      <c r="ACG5" s="12"/>
-      <c r="ACH5" s="12"/>
-      <c r="ACI5" s="12"/>
-      <c r="ACJ5" s="12"/>
-      <c r="ACK5" s="12"/>
-      <c r="ACL5" s="12"/>
-      <c r="ACM5" s="12"/>
-      <c r="ACN5" s="12"/>
-      <c r="ACO5" s="12"/>
-      <c r="ACP5" s="12"/>
-      <c r="ACQ5" s="12"/>
-      <c r="ACR5" s="12"/>
-      <c r="ACS5" s="12"/>
-      <c r="ACT5" s="12"/>
-      <c r="ACU5" s="12"/>
-      <c r="ACV5" s="12"/>
-      <c r="ACW5" s="12"/>
-      <c r="ACX5" s="12"/>
-      <c r="ACY5" s="12"/>
-      <c r="ACZ5" s="12"/>
-      <c r="ADA5" s="12"/>
-      <c r="ADB5" s="12"/>
-      <c r="ADC5" s="12"/>
-      <c r="ADD5" s="12"/>
-      <c r="ADE5" s="12"/>
-      <c r="ADF5" s="12"/>
-      <c r="ADG5" s="12"/>
-      <c r="ADH5" s="12"/>
-      <c r="ADI5" s="12"/>
-      <c r="ADJ5" s="12"/>
-      <c r="ADK5" s="12"/>
-      <c r="ADL5" s="12"/>
-      <c r="ADM5" s="12"/>
-      <c r="ADN5" s="12"/>
-      <c r="ADO5" s="12"/>
-      <c r="ADP5" s="12"/>
-      <c r="ADQ5" s="12"/>
-      <c r="ADR5" s="12"/>
-      <c r="ADS5" s="12"/>
-      <c r="ADT5" s="12"/>
-      <c r="ADU5" s="12"/>
-      <c r="ADV5" s="12"/>
-      <c r="ADW5" s="12"/>
-      <c r="ADX5" s="12"/>
-      <c r="ADY5" s="12"/>
-      <c r="ADZ5" s="12"/>
-      <c r="AEA5" s="12"/>
-      <c r="AEB5" s="12"/>
-      <c r="AEC5" s="12"/>
-      <c r="AED5" s="12"/>
-      <c r="AEE5" s="12"/>
-      <c r="AEF5" s="12"/>
-      <c r="AEG5" s="12"/>
-      <c r="AEH5" s="12"/>
-      <c r="AEI5" s="12"/>
-      <c r="AEJ5" s="12"/>
-      <c r="AEK5" s="12"/>
-      <c r="AEL5" s="12"/>
-      <c r="AEM5" s="12"/>
-      <c r="AEN5" s="12"/>
-      <c r="AEO5" s="12"/>
-      <c r="AEP5" s="12"/>
-      <c r="AEQ5" s="12"/>
-      <c r="AER5" s="12"/>
-      <c r="AES5" s="12"/>
-      <c r="AET5" s="12"/>
-      <c r="AEU5" s="12"/>
-      <c r="AEV5" s="12"/>
-      <c r="AEW5" s="12"/>
-      <c r="AEX5" s="12"/>
-      <c r="AEY5" s="12"/>
-      <c r="AEZ5" s="12"/>
-      <c r="AFA5" s="12"/>
-      <c r="AFB5" s="12"/>
-      <c r="AFC5" s="12"/>
-      <c r="AFD5" s="12"/>
-      <c r="AFE5" s="12"/>
-      <c r="AFF5" s="12"/>
-      <c r="AFG5" s="12"/>
-      <c r="AFH5" s="12"/>
-      <c r="AFI5" s="12"/>
-      <c r="AFJ5" s="12"/>
-      <c r="AFK5" s="12"/>
-      <c r="AFL5" s="12"/>
-      <c r="AFM5" s="12"/>
-      <c r="AFN5" s="12"/>
-      <c r="AFO5" s="12"/>
-      <c r="AFP5" s="12"/>
-      <c r="AFQ5" s="12"/>
-      <c r="AFR5" s="12"/>
-      <c r="AFS5" s="12"/>
-      <c r="AFT5" s="12"/>
-      <c r="AFU5" s="12"/>
-      <c r="AFV5" s="12"/>
-      <c r="AFW5" s="12"/>
-      <c r="AFX5" s="12"/>
-      <c r="AFY5" s="12"/>
-      <c r="AFZ5" s="12"/>
-      <c r="AGA5" s="12"/>
-      <c r="AGB5" s="12"/>
-      <c r="AGC5" s="12"/>
-      <c r="AGD5" s="12"/>
-      <c r="AGE5" s="12"/>
-      <c r="AGF5" s="12"/>
-      <c r="AGG5" s="12"/>
-      <c r="AGH5" s="12"/>
-      <c r="AGI5" s="12"/>
-      <c r="AGJ5" s="12"/>
-      <c r="AGK5" s="12"/>
-      <c r="AGL5" s="12"/>
-      <c r="AGM5" s="12"/>
-      <c r="AGN5" s="12"/>
-      <c r="AGO5" s="12"/>
-      <c r="AGP5" s="12"/>
-      <c r="AGQ5" s="12"/>
-      <c r="AGR5" s="12"/>
-      <c r="AGS5" s="12"/>
-      <c r="AGT5" s="12"/>
-      <c r="AGU5" s="12"/>
-      <c r="AGV5" s="12"/>
-      <c r="AGW5" s="12"/>
-      <c r="AGX5" s="12"/>
-      <c r="AGY5" s="12"/>
-      <c r="AGZ5" s="12"/>
-      <c r="AHA5" s="12"/>
-      <c r="AHB5" s="12"/>
-      <c r="AHC5" s="12"/>
-      <c r="AHD5" s="12"/>
-      <c r="AHE5" s="12"/>
-      <c r="AHF5" s="12"/>
-      <c r="AHG5" s="12"/>
-      <c r="AHH5" s="12"/>
-      <c r="AHI5" s="12"/>
-      <c r="AHJ5" s="12"/>
-      <c r="AHK5" s="12"/>
-      <c r="AHL5" s="12"/>
-      <c r="AHM5" s="12"/>
-      <c r="AHN5" s="12"/>
-      <c r="AHO5" s="12"/>
-      <c r="AHP5" s="12"/>
-      <c r="AHQ5" s="12"/>
-      <c r="AHR5" s="12"/>
-      <c r="AHS5" s="12"/>
-      <c r="AHT5" s="12"/>
-      <c r="AHU5" s="12"/>
-      <c r="AHV5" s="12"/>
-      <c r="AHW5" s="12"/>
-      <c r="AHX5" s="12"/>
-      <c r="AHY5" s="12"/>
-      <c r="AHZ5" s="12"/>
-      <c r="AIA5" s="12"/>
-      <c r="AIB5" s="12"/>
-      <c r="AIC5" s="12"/>
-      <c r="AID5" s="12"/>
-      <c r="AIE5" s="12"/>
-      <c r="AIF5" s="12"/>
-      <c r="AIG5" s="12"/>
-      <c r="AIH5" s="12"/>
-      <c r="AII5" s="12"/>
-      <c r="AIJ5" s="12"/>
-      <c r="AIK5" s="12"/>
-      <c r="AIL5" s="12"/>
-      <c r="AIM5" s="12"/>
-      <c r="AIN5" s="12"/>
-      <c r="AIO5" s="12"/>
-      <c r="AIP5" s="12"/>
-      <c r="AIQ5" s="12"/>
-      <c r="AIR5" s="12"/>
-      <c r="AIS5" s="12"/>
-      <c r="AIT5" s="12"/>
-      <c r="AIU5" s="12"/>
-      <c r="AIV5" s="12"/>
-      <c r="AIW5" s="12"/>
-      <c r="AIX5" s="12"/>
-      <c r="AIY5" s="12"/>
-      <c r="AIZ5" s="12"/>
-      <c r="AJA5" s="12"/>
-      <c r="AJB5" s="12"/>
-      <c r="AJC5" s="12"/>
-      <c r="AJD5" s="12"/>
-      <c r="AJE5" s="12"/>
-      <c r="AJF5" s="12"/>
-      <c r="AJG5" s="12"/>
-      <c r="AJH5" s="12"/>
-      <c r="AJI5" s="12"/>
-      <c r="AJJ5" s="12"/>
-      <c r="AJK5" s="12"/>
-      <c r="AJL5" s="12"/>
-      <c r="AJM5" s="12"/>
-      <c r="AJN5" s="12"/>
-      <c r="AJO5" s="12"/>
-      <c r="AJP5" s="12"/>
-      <c r="AJQ5" s="12"/>
-      <c r="AJR5" s="12"/>
-      <c r="AJS5" s="12"/>
-      <c r="AJT5" s="12"/>
-      <c r="AJU5" s="12"/>
-      <c r="AJV5" s="12"/>
-      <c r="AJW5" s="12"/>
-      <c r="AJX5" s="12"/>
-      <c r="AJY5" s="12"/>
-      <c r="AJZ5" s="12"/>
-      <c r="AKA5" s="12"/>
-      <c r="AKB5" s="12"/>
-      <c r="AKC5" s="12"/>
-      <c r="AKD5" s="12"/>
-      <c r="AKE5" s="12"/>
-      <c r="AKF5" s="12"/>
-      <c r="AKG5" s="12"/>
-      <c r="AKH5" s="12"/>
-      <c r="AKI5" s="12"/>
-      <c r="AKJ5" s="12"/>
-      <c r="AKK5" s="12"/>
-      <c r="AKL5" s="12"/>
-      <c r="AKM5" s="12"/>
-      <c r="AKN5" s="12"/>
-      <c r="AKO5" s="12"/>
-      <c r="AKP5" s="12"/>
-      <c r="AKQ5" s="12"/>
-      <c r="AKR5" s="12"/>
-      <c r="AKS5" s="12"/>
-      <c r="AKT5" s="12"/>
-      <c r="AKU5" s="12"/>
-      <c r="AKV5" s="12"/>
-      <c r="AKW5" s="12"/>
-      <c r="AKX5" s="12"/>
-      <c r="AKY5" s="12"/>
-      <c r="AKZ5" s="12"/>
-      <c r="ALA5" s="12"/>
-      <c r="ALB5" s="12"/>
-      <c r="ALC5" s="12"/>
-      <c r="ALD5" s="12"/>
-      <c r="ALE5" s="12"/>
-      <c r="ALF5" s="12"/>
-      <c r="ALG5" s="12"/>
-      <c r="ALH5" s="12"/>
-      <c r="ALI5" s="12"/>
-      <c r="ALJ5" s="12"/>
-      <c r="ALK5" s="12"/>
-      <c r="ALL5" s="12"/>
-      <c r="ALM5" s="12"/>
-      <c r="ALN5" s="12"/>
-      <c r="ALO5" s="12"/>
-      <c r="ALP5" s="12"/>
-      <c r="ALQ5" s="12"/>
-      <c r="ALR5" s="12"/>
-      <c r="ALS5" s="12"/>
-      <c r="ALT5" s="12"/>
-      <c r="ALU5" s="12"/>
-      <c r="ALV5" s="12"/>
-      <c r="ALW5" s="12"/>
-      <c r="ALX5" s="12"/>
-      <c r="ALY5" s="12"/>
-      <c r="ALZ5" s="12"/>
-      <c r="AMA5" s="12"/>
-      <c r="AMB5" s="12"/>
-      <c r="AMC5" s="12"/>
-      <c r="AMD5" s="12"/>
-      <c r="AME5" s="12"/>
-      <c r="AMF5" s="12"/>
-      <c r="AMG5" s="12"/>
-      <c r="AMH5" s="12"/>
-      <c r="AMI5" s="12"/>
-    </row>
-    <row r="6" spans="1:1023" s="21" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="42" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41" t="s">
+      <c r="F6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="12"/>
-      <c r="CE6" s="12"/>
-      <c r="CF6" s="12"/>
-      <c r="CG6" s="12"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="12"/>
-      <c r="CJ6" s="12"/>
-      <c r="CK6" s="12"/>
-      <c r="CL6" s="12"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
-      <c r="CP6" s="12"/>
-      <c r="CQ6" s="12"/>
-      <c r="CR6" s="12"/>
-      <c r="CS6" s="12"/>
-      <c r="CT6" s="12"/>
-      <c r="CU6" s="12"/>
-      <c r="CV6" s="12"/>
-      <c r="CW6" s="12"/>
-      <c r="CX6" s="12"/>
-      <c r="CY6" s="12"/>
-      <c r="CZ6" s="12"/>
-      <c r="DA6" s="12"/>
-      <c r="DB6" s="12"/>
-      <c r="DC6" s="12"/>
-      <c r="DD6" s="12"/>
-      <c r="DE6" s="12"/>
-      <c r="DF6" s="12"/>
-      <c r="DG6" s="12"/>
-      <c r="DH6" s="12"/>
-      <c r="DI6" s="12"/>
-      <c r="DJ6" s="12"/>
-      <c r="DK6" s="12"/>
-      <c r="DL6" s="12"/>
-      <c r="DM6" s="12"/>
-      <c r="DN6" s="12"/>
-      <c r="DO6" s="12"/>
-      <c r="DP6" s="12"/>
-      <c r="DQ6" s="12"/>
-      <c r="DR6" s="12"/>
-      <c r="DS6" s="12"/>
-      <c r="DT6" s="12"/>
-      <c r="DU6" s="12"/>
-      <c r="DV6" s="12"/>
-      <c r="DW6" s="12"/>
-      <c r="DX6" s="12"/>
-      <c r="DY6" s="12"/>
-      <c r="DZ6" s="12"/>
-      <c r="EA6" s="12"/>
-      <c r="EB6" s="12"/>
-      <c r="EC6" s="12"/>
-      <c r="ED6" s="12"/>
-      <c r="EE6" s="12"/>
-      <c r="EF6" s="12"/>
-      <c r="EG6" s="12"/>
-      <c r="EH6" s="12"/>
-      <c r="EI6" s="12"/>
-      <c r="EJ6" s="12"/>
-      <c r="EK6" s="12"/>
-      <c r="EL6" s="12"/>
-      <c r="EM6" s="12"/>
-      <c r="EN6" s="12"/>
-      <c r="EO6" s="12"/>
-      <c r="EP6" s="12"/>
-      <c r="EQ6" s="12"/>
-      <c r="ER6" s="12"/>
-      <c r="ES6" s="12"/>
-      <c r="ET6" s="12"/>
-      <c r="EU6" s="12"/>
-      <c r="EV6" s="12"/>
-      <c r="EW6" s="12"/>
-      <c r="EX6" s="12"/>
-      <c r="EY6" s="12"/>
-      <c r="EZ6" s="12"/>
-      <c r="FA6" s="12"/>
-      <c r="FB6" s="12"/>
-      <c r="FC6" s="12"/>
-      <c r="FD6" s="12"/>
-      <c r="FE6" s="12"/>
-      <c r="FF6" s="12"/>
-      <c r="FG6" s="12"/>
-      <c r="FH6" s="12"/>
-      <c r="FI6" s="12"/>
-      <c r="FJ6" s="12"/>
-      <c r="FK6" s="12"/>
-      <c r="FL6" s="12"/>
-      <c r="FM6" s="12"/>
-      <c r="FN6" s="12"/>
-      <c r="FO6" s="12"/>
-      <c r="FP6" s="12"/>
-      <c r="FQ6" s="12"/>
-      <c r="FR6" s="12"/>
-      <c r="FS6" s="12"/>
-      <c r="FT6" s="12"/>
-      <c r="FU6" s="12"/>
-      <c r="FV6" s="12"/>
-      <c r="FW6" s="12"/>
-      <c r="FX6" s="12"/>
-      <c r="FY6" s="12"/>
-      <c r="FZ6" s="12"/>
-      <c r="GA6" s="12"/>
-      <c r="GB6" s="12"/>
-      <c r="GC6" s="12"/>
-      <c r="GD6" s="12"/>
-      <c r="GE6" s="12"/>
-      <c r="GF6" s="12"/>
-      <c r="GG6" s="12"/>
-      <c r="GH6" s="12"/>
-      <c r="GI6" s="12"/>
-      <c r="GJ6" s="12"/>
-      <c r="GK6" s="12"/>
-      <c r="GL6" s="12"/>
-      <c r="GM6" s="12"/>
-      <c r="GN6" s="12"/>
-      <c r="GO6" s="12"/>
-      <c r="GP6" s="12"/>
-      <c r="GQ6" s="12"/>
-      <c r="GR6" s="12"/>
-      <c r="GS6" s="12"/>
-      <c r="GT6" s="12"/>
-      <c r="GU6" s="12"/>
-      <c r="GV6" s="12"/>
-      <c r="GW6" s="12"/>
-      <c r="GX6" s="12"/>
-      <c r="GY6" s="12"/>
-      <c r="GZ6" s="12"/>
-      <c r="HA6" s="12"/>
-      <c r="HB6" s="12"/>
-      <c r="HC6" s="12"/>
-      <c r="HD6" s="12"/>
-      <c r="HE6" s="12"/>
-      <c r="HF6" s="12"/>
-      <c r="HG6" s="12"/>
-      <c r="HH6" s="12"/>
-      <c r="HI6" s="12"/>
-      <c r="HJ6" s="12"/>
-      <c r="HK6" s="12"/>
-      <c r="HL6" s="12"/>
-      <c r="HM6" s="12"/>
-      <c r="HN6" s="12"/>
-      <c r="HO6" s="12"/>
-      <c r="HP6" s="12"/>
-      <c r="HQ6" s="12"/>
-      <c r="HR6" s="12"/>
-      <c r="HS6" s="12"/>
-      <c r="HT6" s="12"/>
-      <c r="HU6" s="12"/>
-      <c r="HV6" s="12"/>
-      <c r="HW6" s="12"/>
-      <c r="HX6" s="12"/>
-      <c r="HY6" s="12"/>
-      <c r="HZ6" s="12"/>
-      <c r="IA6" s="12"/>
-      <c r="IB6" s="12"/>
-      <c r="IC6" s="12"/>
-      <c r="ID6" s="12"/>
-      <c r="IE6" s="12"/>
-      <c r="IF6" s="12"/>
-      <c r="IG6" s="12"/>
-      <c r="IH6" s="12"/>
-      <c r="II6" s="12"/>
-      <c r="IJ6" s="12"/>
-      <c r="IK6" s="12"/>
-      <c r="IL6" s="12"/>
-      <c r="IM6" s="12"/>
-      <c r="IN6" s="12"/>
-      <c r="IO6" s="12"/>
-      <c r="IP6" s="12"/>
-      <c r="IQ6" s="12"/>
-      <c r="IR6" s="12"/>
-      <c r="IS6" s="12"/>
-      <c r="IT6" s="12"/>
-      <c r="IU6" s="12"/>
-      <c r="IV6" s="12"/>
-      <c r="IW6" s="12"/>
-      <c r="IX6" s="12"/>
-      <c r="IY6" s="12"/>
-      <c r="IZ6" s="12"/>
-      <c r="JA6" s="12"/>
-      <c r="JB6" s="12"/>
-      <c r="JC6" s="12"/>
-      <c r="JD6" s="12"/>
-      <c r="JE6" s="12"/>
-      <c r="JF6" s="12"/>
-      <c r="JG6" s="12"/>
-      <c r="JH6" s="12"/>
-      <c r="JI6" s="12"/>
-      <c r="JJ6" s="12"/>
-      <c r="JK6" s="12"/>
-      <c r="JL6" s="12"/>
-      <c r="JM6" s="12"/>
-      <c r="JN6" s="12"/>
-      <c r="JO6" s="12"/>
-      <c r="JP6" s="12"/>
-      <c r="JQ6" s="12"/>
-      <c r="JR6" s="12"/>
-      <c r="JS6" s="12"/>
-      <c r="JT6" s="12"/>
-      <c r="JU6" s="12"/>
-      <c r="JV6" s="12"/>
-      <c r="JW6" s="12"/>
-      <c r="JX6" s="12"/>
-      <c r="JY6" s="12"/>
-      <c r="JZ6" s="12"/>
-      <c r="KA6" s="12"/>
-      <c r="KB6" s="12"/>
-      <c r="KC6" s="12"/>
-      <c r="KD6" s="12"/>
-      <c r="KE6" s="12"/>
-      <c r="KF6" s="12"/>
-      <c r="KG6" s="12"/>
-      <c r="KH6" s="12"/>
-      <c r="KI6" s="12"/>
-      <c r="KJ6" s="12"/>
-      <c r="KK6" s="12"/>
-      <c r="KL6" s="12"/>
-      <c r="KM6" s="12"/>
-      <c r="KN6" s="12"/>
-      <c r="KO6" s="12"/>
-      <c r="KP6" s="12"/>
-      <c r="KQ6" s="12"/>
-      <c r="KR6" s="12"/>
-      <c r="KS6" s="12"/>
-      <c r="KT6" s="12"/>
-      <c r="KU6" s="12"/>
-      <c r="KV6" s="12"/>
-      <c r="KW6" s="12"/>
-      <c r="KX6" s="12"/>
-      <c r="KY6" s="12"/>
-      <c r="KZ6" s="12"/>
-      <c r="LA6" s="12"/>
-      <c r="LB6" s="12"/>
-      <c r="LC6" s="12"/>
-      <c r="LD6" s="12"/>
-      <c r="LE6" s="12"/>
-      <c r="LF6" s="12"/>
-      <c r="LG6" s="12"/>
-      <c r="LH6" s="12"/>
-      <c r="LI6" s="12"/>
-      <c r="LJ6" s="12"/>
-      <c r="LK6" s="12"/>
-      <c r="LL6" s="12"/>
-      <c r="LM6" s="12"/>
-      <c r="LN6" s="12"/>
-      <c r="LO6" s="12"/>
-      <c r="LP6" s="12"/>
-      <c r="LQ6" s="12"/>
-      <c r="LR6" s="12"/>
-      <c r="LS6" s="12"/>
-      <c r="LT6" s="12"/>
-      <c r="LU6" s="12"/>
-      <c r="LV6" s="12"/>
-      <c r="LW6" s="12"/>
-      <c r="LX6" s="12"/>
-      <c r="LY6" s="12"/>
-      <c r="LZ6" s="12"/>
-      <c r="MA6" s="12"/>
-      <c r="MB6" s="12"/>
-      <c r="MC6" s="12"/>
-      <c r="MD6" s="12"/>
-      <c r="ME6" s="12"/>
-      <c r="MF6" s="12"/>
-      <c r="MG6" s="12"/>
-      <c r="MH6" s="12"/>
-      <c r="MI6" s="12"/>
-      <c r="MJ6" s="12"/>
-      <c r="MK6" s="12"/>
-      <c r="ML6" s="12"/>
-      <c r="MM6" s="12"/>
-      <c r="MN6" s="12"/>
-      <c r="MO6" s="12"/>
-      <c r="MP6" s="12"/>
-      <c r="MQ6" s="12"/>
-      <c r="MR6" s="12"/>
-      <c r="MS6" s="12"/>
-      <c r="MT6" s="12"/>
-      <c r="MU6" s="12"/>
-      <c r="MV6" s="12"/>
-      <c r="MW6" s="12"/>
-      <c r="MX6" s="12"/>
-      <c r="MY6" s="12"/>
-      <c r="MZ6" s="12"/>
-      <c r="NA6" s="12"/>
-      <c r="NB6" s="12"/>
-      <c r="NC6" s="12"/>
-      <c r="ND6" s="12"/>
-      <c r="NE6" s="12"/>
-      <c r="NF6" s="12"/>
-      <c r="NG6" s="12"/>
-      <c r="NH6" s="12"/>
-      <c r="NI6" s="12"/>
-      <c r="NJ6" s="12"/>
-      <c r="NK6" s="12"/>
-      <c r="NL6" s="12"/>
-      <c r="NM6" s="12"/>
-      <c r="NN6" s="12"/>
-      <c r="NO6" s="12"/>
-      <c r="NP6" s="12"/>
-      <c r="NQ6" s="12"/>
-      <c r="NR6" s="12"/>
-      <c r="NS6" s="12"/>
-      <c r="NT6" s="12"/>
-      <c r="NU6" s="12"/>
-      <c r="NV6" s="12"/>
-      <c r="NW6" s="12"/>
-      <c r="NX6" s="12"/>
-      <c r="NY6" s="12"/>
-      <c r="NZ6" s="12"/>
-      <c r="OA6" s="12"/>
-      <c r="OB6" s="12"/>
-      <c r="OC6" s="12"/>
-      <c r="OD6" s="12"/>
-      <c r="OE6" s="12"/>
-      <c r="OF6" s="12"/>
-      <c r="OG6" s="12"/>
-      <c r="OH6" s="12"/>
-      <c r="OI6" s="12"/>
-      <c r="OJ6" s="12"/>
-      <c r="OK6" s="12"/>
-      <c r="OL6" s="12"/>
-      <c r="OM6" s="12"/>
-      <c r="ON6" s="12"/>
-      <c r="OO6" s="12"/>
-      <c r="OP6" s="12"/>
-      <c r="OQ6" s="12"/>
-      <c r="OR6" s="12"/>
-      <c r="OS6" s="12"/>
-      <c r="OT6" s="12"/>
-      <c r="OU6" s="12"/>
-      <c r="OV6" s="12"/>
-      <c r="OW6" s="12"/>
-      <c r="OX6" s="12"/>
-      <c r="OY6" s="12"/>
-      <c r="OZ6" s="12"/>
-      <c r="PA6" s="12"/>
-      <c r="PB6" s="12"/>
-      <c r="PC6" s="12"/>
-      <c r="PD6" s="12"/>
-      <c r="PE6" s="12"/>
-      <c r="PF6" s="12"/>
-      <c r="PG6" s="12"/>
-      <c r="PH6" s="12"/>
-      <c r="PI6" s="12"/>
-      <c r="PJ6" s="12"/>
-      <c r="PK6" s="12"/>
-      <c r="PL6" s="12"/>
-      <c r="PM6" s="12"/>
-      <c r="PN6" s="12"/>
-      <c r="PO6" s="12"/>
-      <c r="PP6" s="12"/>
-      <c r="PQ6" s="12"/>
-      <c r="PR6" s="12"/>
-      <c r="PS6" s="12"/>
-      <c r="PT6" s="12"/>
-      <c r="PU6" s="12"/>
-      <c r="PV6" s="12"/>
-      <c r="PW6" s="12"/>
-      <c r="PX6" s="12"/>
-      <c r="PY6" s="12"/>
-      <c r="PZ6" s="12"/>
-      <c r="QA6" s="12"/>
-      <c r="QB6" s="12"/>
-      <c r="QC6" s="12"/>
-      <c r="QD6" s="12"/>
-      <c r="QE6" s="12"/>
-      <c r="QF6" s="12"/>
-      <c r="QG6" s="12"/>
-      <c r="QH6" s="12"/>
-      <c r="QI6" s="12"/>
-      <c r="QJ6" s="12"/>
-      <c r="QK6" s="12"/>
-      <c r="QL6" s="12"/>
-      <c r="QM6" s="12"/>
-      <c r="QN6" s="12"/>
-      <c r="QO6" s="12"/>
-      <c r="QP6" s="12"/>
-      <c r="QQ6" s="12"/>
-      <c r="QR6" s="12"/>
-      <c r="QS6" s="12"/>
-      <c r="QT6" s="12"/>
-      <c r="QU6" s="12"/>
-      <c r="QV6" s="12"/>
-      <c r="QW6" s="12"/>
-      <c r="QX6" s="12"/>
-      <c r="QY6" s="12"/>
-      <c r="QZ6" s="12"/>
-      <c r="RA6" s="12"/>
-      <c r="RB6" s="12"/>
-      <c r="RC6" s="12"/>
-      <c r="RD6" s="12"/>
-      <c r="RE6" s="12"/>
-      <c r="RF6" s="12"/>
-      <c r="RG6" s="12"/>
-      <c r="RH6" s="12"/>
-      <c r="RI6" s="12"/>
-      <c r="RJ6" s="12"/>
-      <c r="RK6" s="12"/>
-      <c r="RL6" s="12"/>
-      <c r="RM6" s="12"/>
-      <c r="RN6" s="12"/>
-      <c r="RO6" s="12"/>
-      <c r="RP6" s="12"/>
-      <c r="RQ6" s="12"/>
-      <c r="RR6" s="12"/>
-      <c r="RS6" s="12"/>
-      <c r="RT6" s="12"/>
-      <c r="RU6" s="12"/>
-      <c r="RV6" s="12"/>
-      <c r="RW6" s="12"/>
-      <c r="RX6" s="12"/>
-      <c r="RY6" s="12"/>
-      <c r="RZ6" s="12"/>
-      <c r="SA6" s="12"/>
-      <c r="SB6" s="12"/>
-      <c r="SC6" s="12"/>
-      <c r="SD6" s="12"/>
-      <c r="SE6" s="12"/>
-      <c r="SF6" s="12"/>
-      <c r="SG6" s="12"/>
-      <c r="SH6" s="12"/>
-      <c r="SI6" s="12"/>
-      <c r="SJ6" s="12"/>
-      <c r="SK6" s="12"/>
-      <c r="SL6" s="12"/>
-      <c r="SM6" s="12"/>
-      <c r="SN6" s="12"/>
-      <c r="SO6" s="12"/>
-      <c r="SP6" s="12"/>
-      <c r="SQ6" s="12"/>
-      <c r="SR6" s="12"/>
-      <c r="SS6" s="12"/>
-      <c r="ST6" s="12"/>
-      <c r="SU6" s="12"/>
-      <c r="SV6" s="12"/>
-      <c r="SW6" s="12"/>
-      <c r="SX6" s="12"/>
-      <c r="SY6" s="12"/>
-      <c r="SZ6" s="12"/>
-      <c r="TA6" s="12"/>
-      <c r="TB6" s="12"/>
-      <c r="TC6" s="12"/>
-      <c r="TD6" s="12"/>
-      <c r="TE6" s="12"/>
-      <c r="TF6" s="12"/>
-      <c r="TG6" s="12"/>
-      <c r="TH6" s="12"/>
-      <c r="TI6" s="12"/>
-      <c r="TJ6" s="12"/>
-      <c r="TK6" s="12"/>
-      <c r="TL6" s="12"/>
-      <c r="TM6" s="12"/>
-      <c r="TN6" s="12"/>
-      <c r="TO6" s="12"/>
-      <c r="TP6" s="12"/>
-      <c r="TQ6" s="12"/>
-      <c r="TR6" s="12"/>
-      <c r="TS6" s="12"/>
-      <c r="TT6" s="12"/>
-      <c r="TU6" s="12"/>
-      <c r="TV6" s="12"/>
-      <c r="TW6" s="12"/>
-      <c r="TX6" s="12"/>
-      <c r="TY6" s="12"/>
-      <c r="TZ6" s="12"/>
-      <c r="UA6" s="12"/>
-      <c r="UB6" s="12"/>
-      <c r="UC6" s="12"/>
-      <c r="UD6" s="12"/>
-      <c r="UE6" s="12"/>
-      <c r="UF6" s="12"/>
-      <c r="UG6" s="12"/>
-      <c r="UH6" s="12"/>
-      <c r="UI6" s="12"/>
-      <c r="UJ6" s="12"/>
-      <c r="UK6" s="12"/>
-      <c r="UL6" s="12"/>
-      <c r="UM6" s="12"/>
-      <c r="UN6" s="12"/>
-      <c r="UO6" s="12"/>
-      <c r="UP6" s="12"/>
-      <c r="UQ6" s="12"/>
-      <c r="UR6" s="12"/>
-      <c r="US6" s="12"/>
-      <c r="UT6" s="12"/>
-      <c r="UU6" s="12"/>
-      <c r="UV6" s="12"/>
-      <c r="UW6" s="12"/>
-      <c r="UX6" s="12"/>
-      <c r="UY6" s="12"/>
-      <c r="UZ6" s="12"/>
-      <c r="VA6" s="12"/>
-      <c r="VB6" s="12"/>
-      <c r="VC6" s="12"/>
-      <c r="VD6" s="12"/>
-      <c r="VE6" s="12"/>
-      <c r="VF6" s="12"/>
-      <c r="VG6" s="12"/>
-      <c r="VH6" s="12"/>
-      <c r="VI6" s="12"/>
-      <c r="VJ6" s="12"/>
-      <c r="VK6" s="12"/>
-      <c r="VL6" s="12"/>
-      <c r="VM6" s="12"/>
-      <c r="VN6" s="12"/>
-      <c r="VO6" s="12"/>
-      <c r="VP6" s="12"/>
-      <c r="VQ6" s="12"/>
-      <c r="VR6" s="12"/>
-      <c r="VS6" s="12"/>
-      <c r="VT6" s="12"/>
-      <c r="VU6" s="12"/>
-      <c r="VV6" s="12"/>
-      <c r="VW6" s="12"/>
-      <c r="VX6" s="12"/>
-      <c r="VY6" s="12"/>
-      <c r="VZ6" s="12"/>
-      <c r="WA6" s="12"/>
-      <c r="WB6" s="12"/>
-      <c r="WC6" s="12"/>
-      <c r="WD6" s="12"/>
-      <c r="WE6" s="12"/>
-      <c r="WF6" s="12"/>
-      <c r="WG6" s="12"/>
-      <c r="WH6" s="12"/>
-      <c r="WI6" s="12"/>
-      <c r="WJ6" s="12"/>
-      <c r="WK6" s="12"/>
-      <c r="WL6" s="12"/>
-      <c r="WM6" s="12"/>
-      <c r="WN6" s="12"/>
-      <c r="WO6" s="12"/>
-      <c r="WP6" s="12"/>
-      <c r="WQ6" s="12"/>
-      <c r="WR6" s="12"/>
-      <c r="WS6" s="12"/>
-      <c r="WT6" s="12"/>
-      <c r="WU6" s="12"/>
-      <c r="WV6" s="12"/>
-      <c r="WW6" s="12"/>
-      <c r="WX6" s="12"/>
-      <c r="WY6" s="12"/>
-      <c r="WZ6" s="12"/>
-      <c r="XA6" s="12"/>
-      <c r="XB6" s="12"/>
-      <c r="XC6" s="12"/>
-      <c r="XD6" s="12"/>
-      <c r="XE6" s="12"/>
-      <c r="XF6" s="12"/>
-      <c r="XG6" s="12"/>
-      <c r="XH6" s="12"/>
-      <c r="XI6" s="12"/>
-      <c r="XJ6" s="12"/>
-      <c r="XK6" s="12"/>
-      <c r="XL6" s="12"/>
-      <c r="XM6" s="12"/>
-      <c r="XN6" s="12"/>
-      <c r="XO6" s="12"/>
-      <c r="XP6" s="12"/>
-      <c r="XQ6" s="12"/>
-      <c r="XR6" s="12"/>
-      <c r="XS6" s="12"/>
-      <c r="XT6" s="12"/>
-      <c r="XU6" s="12"/>
-      <c r="XV6" s="12"/>
-      <c r="XW6" s="12"/>
-      <c r="XX6" s="12"/>
-      <c r="XY6" s="12"/>
-      <c r="XZ6" s="12"/>
-      <c r="YA6" s="12"/>
-      <c r="YB6" s="12"/>
-      <c r="YC6" s="12"/>
-      <c r="YD6" s="12"/>
-      <c r="YE6" s="12"/>
-      <c r="YF6" s="12"/>
-      <c r="YG6" s="12"/>
-      <c r="YH6" s="12"/>
-      <c r="YI6" s="12"/>
-      <c r="YJ6" s="12"/>
-      <c r="YK6" s="12"/>
-      <c r="YL6" s="12"/>
-      <c r="YM6" s="12"/>
-      <c r="YN6" s="12"/>
-      <c r="YO6" s="12"/>
-      <c r="YP6" s="12"/>
-      <c r="YQ6" s="12"/>
-      <c r="YR6" s="12"/>
-      <c r="YS6" s="12"/>
-      <c r="YT6" s="12"/>
-      <c r="YU6" s="12"/>
-      <c r="YV6" s="12"/>
-      <c r="YW6" s="12"/>
-      <c r="YX6" s="12"/>
-      <c r="YY6" s="12"/>
-      <c r="YZ6" s="12"/>
-      <c r="ZA6" s="12"/>
-      <c r="ZB6" s="12"/>
-      <c r="ZC6" s="12"/>
-      <c r="ZD6" s="12"/>
-      <c r="ZE6" s="12"/>
-      <c r="ZF6" s="12"/>
-      <c r="ZG6" s="12"/>
-      <c r="ZH6" s="12"/>
-      <c r="ZI6" s="12"/>
-      <c r="ZJ6" s="12"/>
-      <c r="ZK6" s="12"/>
-      <c r="ZL6" s="12"/>
-      <c r="ZM6" s="12"/>
-      <c r="ZN6" s="12"/>
-      <c r="ZO6" s="12"/>
-      <c r="ZP6" s="12"/>
-      <c r="ZQ6" s="12"/>
-      <c r="ZR6" s="12"/>
-      <c r="ZS6" s="12"/>
-      <c r="ZT6" s="12"/>
-      <c r="ZU6" s="12"/>
-      <c r="ZV6" s="12"/>
-      <c r="ZW6" s="12"/>
-      <c r="ZX6" s="12"/>
-      <c r="ZY6" s="12"/>
-      <c r="ZZ6" s="12"/>
-      <c r="AAA6" s="12"/>
-      <c r="AAB6" s="12"/>
-      <c r="AAC6" s="12"/>
-      <c r="AAD6" s="12"/>
-      <c r="AAE6" s="12"/>
-      <c r="AAF6" s="12"/>
-      <c r="AAG6" s="12"/>
-      <c r="AAH6" s="12"/>
-      <c r="AAI6" s="12"/>
-      <c r="AAJ6" s="12"/>
-      <c r="AAK6" s="12"/>
-      <c r="AAL6" s="12"/>
-      <c r="AAM6" s="12"/>
-      <c r="AAN6" s="12"/>
-      <c r="AAO6" s="12"/>
-      <c r="AAP6" s="12"/>
-      <c r="AAQ6" s="12"/>
-      <c r="AAR6" s="12"/>
-      <c r="AAS6" s="12"/>
-      <c r="AAT6" s="12"/>
-      <c r="AAU6" s="12"/>
-      <c r="AAV6" s="12"/>
-      <c r="AAW6" s="12"/>
-      <c r="AAX6" s="12"/>
-      <c r="AAY6" s="12"/>
-      <c r="AAZ6" s="12"/>
-      <c r="ABA6" s="12"/>
-      <c r="ABB6" s="12"/>
-      <c r="ABC6" s="12"/>
-      <c r="ABD6" s="12"/>
-      <c r="ABE6" s="12"/>
-      <c r="ABF6" s="12"/>
-      <c r="ABG6" s="12"/>
-      <c r="ABH6" s="12"/>
-      <c r="ABI6" s="12"/>
-      <c r="ABJ6" s="12"/>
-      <c r="ABK6" s="12"/>
-      <c r="ABL6" s="12"/>
-      <c r="ABM6" s="12"/>
-      <c r="ABN6" s="12"/>
-      <c r="ABO6" s="12"/>
-      <c r="ABP6" s="12"/>
-      <c r="ABQ6" s="12"/>
-      <c r="ABR6" s="12"/>
-      <c r="ABS6" s="12"/>
-      <c r="ABT6" s="12"/>
-      <c r="ABU6" s="12"/>
-      <c r="ABV6" s="12"/>
-      <c r="ABW6" s="12"/>
-      <c r="ABX6" s="12"/>
-      <c r="ABY6" s="12"/>
-      <c r="ABZ6" s="12"/>
-      <c r="ACA6" s="12"/>
-      <c r="ACB6" s="12"/>
-      <c r="ACC6" s="12"/>
-      <c r="ACD6" s="12"/>
-      <c r="ACE6" s="12"/>
-      <c r="ACF6" s="12"/>
-      <c r="ACG6" s="12"/>
-      <c r="ACH6" s="12"/>
-      <c r="ACI6" s="12"/>
-      <c r="ACJ6" s="12"/>
-      <c r="ACK6" s="12"/>
-      <c r="ACL6" s="12"/>
-      <c r="ACM6" s="12"/>
-      <c r="ACN6" s="12"/>
-      <c r="ACO6" s="12"/>
-      <c r="ACP6" s="12"/>
-      <c r="ACQ6" s="12"/>
-      <c r="ACR6" s="12"/>
-      <c r="ACS6" s="12"/>
-      <c r="ACT6" s="12"/>
-      <c r="ACU6" s="12"/>
-      <c r="ACV6" s="12"/>
-      <c r="ACW6" s="12"/>
-      <c r="ACX6" s="12"/>
-      <c r="ACY6" s="12"/>
-      <c r="ACZ6" s="12"/>
-      <c r="ADA6" s="12"/>
-      <c r="ADB6" s="12"/>
-      <c r="ADC6" s="12"/>
-      <c r="ADD6" s="12"/>
-      <c r="ADE6" s="12"/>
-      <c r="ADF6" s="12"/>
-      <c r="ADG6" s="12"/>
-      <c r="ADH6" s="12"/>
-      <c r="ADI6" s="12"/>
-      <c r="ADJ6" s="12"/>
-      <c r="ADK6" s="12"/>
-      <c r="ADL6" s="12"/>
-      <c r="ADM6" s="12"/>
-      <c r="ADN6" s="12"/>
-      <c r="ADO6" s="12"/>
-      <c r="ADP6" s="12"/>
-      <c r="ADQ6" s="12"/>
-      <c r="ADR6" s="12"/>
-      <c r="ADS6" s="12"/>
-      <c r="ADT6" s="12"/>
-      <c r="ADU6" s="12"/>
-      <c r="ADV6" s="12"/>
-      <c r="ADW6" s="12"/>
-      <c r="ADX6" s="12"/>
-      <c r="ADY6" s="12"/>
-      <c r="ADZ6" s="12"/>
-      <c r="AEA6" s="12"/>
-      <c r="AEB6" s="12"/>
-      <c r="AEC6" s="12"/>
-      <c r="AED6" s="12"/>
-      <c r="AEE6" s="12"/>
-      <c r="AEF6" s="12"/>
-      <c r="AEG6" s="12"/>
-      <c r="AEH6" s="12"/>
-      <c r="AEI6" s="12"/>
-      <c r="AEJ6" s="12"/>
-      <c r="AEK6" s="12"/>
-      <c r="AEL6" s="12"/>
-      <c r="AEM6" s="12"/>
-      <c r="AEN6" s="12"/>
-      <c r="AEO6" s="12"/>
-      <c r="AEP6" s="12"/>
-      <c r="AEQ6" s="12"/>
-      <c r="AER6" s="12"/>
-      <c r="AES6" s="12"/>
-      <c r="AET6" s="12"/>
-      <c r="AEU6" s="12"/>
-      <c r="AEV6" s="12"/>
-      <c r="AEW6" s="12"/>
-      <c r="AEX6" s="12"/>
-      <c r="AEY6" s="12"/>
-      <c r="AEZ6" s="12"/>
-      <c r="AFA6" s="12"/>
-      <c r="AFB6" s="12"/>
-      <c r="AFC6" s="12"/>
-      <c r="AFD6" s="12"/>
-      <c r="AFE6" s="12"/>
-      <c r="AFF6" s="12"/>
-      <c r="AFG6" s="12"/>
-      <c r="AFH6" s="12"/>
-      <c r="AFI6" s="12"/>
-      <c r="AFJ6" s="12"/>
-      <c r="AFK6" s="12"/>
-      <c r="AFL6" s="12"/>
-      <c r="AFM6" s="12"/>
-      <c r="AFN6" s="12"/>
-      <c r="AFO6" s="12"/>
-      <c r="AFP6" s="12"/>
-      <c r="AFQ6" s="12"/>
-      <c r="AFR6" s="12"/>
-      <c r="AFS6" s="12"/>
-      <c r="AFT6" s="12"/>
-      <c r="AFU6" s="12"/>
-      <c r="AFV6" s="12"/>
-      <c r="AFW6" s="12"/>
-      <c r="AFX6" s="12"/>
-      <c r="AFY6" s="12"/>
-      <c r="AFZ6" s="12"/>
-      <c r="AGA6" s="12"/>
-      <c r="AGB6" s="12"/>
-      <c r="AGC6" s="12"/>
-      <c r="AGD6" s="12"/>
-      <c r="AGE6" s="12"/>
-      <c r="AGF6" s="12"/>
-      <c r="AGG6" s="12"/>
-      <c r="AGH6" s="12"/>
-      <c r="AGI6" s="12"/>
-      <c r="AGJ6" s="12"/>
-      <c r="AGK6" s="12"/>
-      <c r="AGL6" s="12"/>
-      <c r="AGM6" s="12"/>
-      <c r="AGN6" s="12"/>
-      <c r="AGO6" s="12"/>
-      <c r="AGP6" s="12"/>
-      <c r="AGQ6" s="12"/>
-      <c r="AGR6" s="12"/>
-      <c r="AGS6" s="12"/>
-      <c r="AGT6" s="12"/>
-      <c r="AGU6" s="12"/>
-      <c r="AGV6" s="12"/>
-      <c r="AGW6" s="12"/>
-      <c r="AGX6" s="12"/>
-      <c r="AGY6" s="12"/>
-      <c r="AGZ6" s="12"/>
-      <c r="AHA6" s="12"/>
-      <c r="AHB6" s="12"/>
-      <c r="AHC6" s="12"/>
-      <c r="AHD6" s="12"/>
-      <c r="AHE6" s="12"/>
-      <c r="AHF6" s="12"/>
-      <c r="AHG6" s="12"/>
-      <c r="AHH6" s="12"/>
-      <c r="AHI6" s="12"/>
-      <c r="AHJ6" s="12"/>
-      <c r="AHK6" s="12"/>
-      <c r="AHL6" s="12"/>
-      <c r="AHM6" s="12"/>
-      <c r="AHN6" s="12"/>
-      <c r="AHO6" s="12"/>
-      <c r="AHP6" s="12"/>
-      <c r="AHQ6" s="12"/>
-      <c r="AHR6" s="12"/>
-      <c r="AHS6" s="12"/>
-      <c r="AHT6" s="12"/>
-      <c r="AHU6" s="12"/>
-      <c r="AHV6" s="12"/>
-      <c r="AHW6" s="12"/>
-      <c r="AHX6" s="12"/>
-      <c r="AHY6" s="12"/>
-      <c r="AHZ6" s="12"/>
-      <c r="AIA6" s="12"/>
-      <c r="AIB6" s="12"/>
-      <c r="AIC6" s="12"/>
-      <c r="AID6" s="12"/>
-      <c r="AIE6" s="12"/>
-      <c r="AIF6" s="12"/>
-      <c r="AIG6" s="12"/>
-      <c r="AIH6" s="12"/>
-      <c r="AII6" s="12"/>
-      <c r="AIJ6" s="12"/>
-      <c r="AIK6" s="12"/>
-      <c r="AIL6" s="12"/>
-      <c r="AIM6" s="12"/>
-      <c r="AIN6" s="12"/>
-      <c r="AIO6" s="12"/>
-      <c r="AIP6" s="12"/>
-      <c r="AIQ6" s="12"/>
-      <c r="AIR6" s="12"/>
-      <c r="AIS6" s="12"/>
-      <c r="AIT6" s="12"/>
-      <c r="AIU6" s="12"/>
-      <c r="AIV6" s="12"/>
-      <c r="AIW6" s="12"/>
-      <c r="AIX6" s="12"/>
-      <c r="AIY6" s="12"/>
-      <c r="AIZ6" s="12"/>
-      <c r="AJA6" s="12"/>
-      <c r="AJB6" s="12"/>
-      <c r="AJC6" s="12"/>
-      <c r="AJD6" s="12"/>
-      <c r="AJE6" s="12"/>
-      <c r="AJF6" s="12"/>
-      <c r="AJG6" s="12"/>
-      <c r="AJH6" s="12"/>
-      <c r="AJI6" s="12"/>
-      <c r="AJJ6" s="12"/>
-      <c r="AJK6" s="12"/>
-      <c r="AJL6" s="12"/>
-      <c r="AJM6" s="12"/>
-      <c r="AJN6" s="12"/>
-      <c r="AJO6" s="12"/>
-      <c r="AJP6" s="12"/>
-      <c r="AJQ6" s="12"/>
-      <c r="AJR6" s="12"/>
-      <c r="AJS6" s="12"/>
-      <c r="AJT6" s="12"/>
-      <c r="AJU6" s="12"/>
-      <c r="AJV6" s="12"/>
-      <c r="AJW6" s="12"/>
-      <c r="AJX6" s="12"/>
-      <c r="AJY6" s="12"/>
-      <c r="AJZ6" s="12"/>
-      <c r="AKA6" s="12"/>
-      <c r="AKB6" s="12"/>
-      <c r="AKC6" s="12"/>
-      <c r="AKD6" s="12"/>
-      <c r="AKE6" s="12"/>
-      <c r="AKF6" s="12"/>
-      <c r="AKG6" s="12"/>
-      <c r="AKH6" s="12"/>
-      <c r="AKI6" s="12"/>
-      <c r="AKJ6" s="12"/>
-      <c r="AKK6" s="12"/>
-      <c r="AKL6" s="12"/>
-      <c r="AKM6" s="12"/>
-      <c r="AKN6" s="12"/>
-      <c r="AKO6" s="12"/>
-      <c r="AKP6" s="12"/>
-      <c r="AKQ6" s="12"/>
-      <c r="AKR6" s="12"/>
-      <c r="AKS6" s="12"/>
-      <c r="AKT6" s="12"/>
-      <c r="AKU6" s="12"/>
-      <c r="AKV6" s="12"/>
-      <c r="AKW6" s="12"/>
-      <c r="AKX6" s="12"/>
-      <c r="AKY6" s="12"/>
-      <c r="AKZ6" s="12"/>
-      <c r="ALA6" s="12"/>
-      <c r="ALB6" s="12"/>
-      <c r="ALC6" s="12"/>
-      <c r="ALD6" s="12"/>
-      <c r="ALE6" s="12"/>
-      <c r="ALF6" s="12"/>
-      <c r="ALG6" s="12"/>
-      <c r="ALH6" s="12"/>
-      <c r="ALI6" s="12"/>
-      <c r="ALJ6" s="12"/>
-      <c r="ALK6" s="12"/>
-      <c r="ALL6" s="12"/>
-      <c r="ALM6" s="12"/>
-      <c r="ALN6" s="12"/>
-      <c r="ALO6" s="12"/>
-      <c r="ALP6" s="12"/>
-      <c r="ALQ6" s="12"/>
-      <c r="ALR6" s="12"/>
-      <c r="ALS6" s="12"/>
-      <c r="ALT6" s="12"/>
-      <c r="ALU6" s="12"/>
-      <c r="ALV6" s="12"/>
-      <c r="ALW6" s="12"/>
-      <c r="ALX6" s="12"/>
-      <c r="ALY6" s="12"/>
-      <c r="ALZ6" s="12"/>
-      <c r="AMA6" s="12"/>
-      <c r="AMB6" s="12"/>
-      <c r="AMC6" s="12"/>
-      <c r="AMD6" s="12"/>
-      <c r="AME6" s="12"/>
-      <c r="AMF6" s="12"/>
-      <c r="AMG6" s="12"/>
-      <c r="AMH6" s="12"/>
-      <c r="AMI6" s="12"/>
-    </row>
-    <row r="7" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6879,7 +3900,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6893,106 +3914,106 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:1023" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:1023" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+    <row r="9" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
@@ -7025,67 +4046,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>49</v>
       </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <extLst>
@@ -7144,40 +4165,40 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>52</v>
+      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>C5</f>
@@ -7186,162 +4207,162 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
@@ -7363,7 +4384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7378,16 +4401,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7395,22 +4418,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -7419,7 +4448,9 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -7428,7 +4459,9 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
@@ -8304,7 +5337,7 @@
       <c r="D102" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -328,21 +328,9 @@
     <t>_redmine:ストレージ</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
     <t>PdevInfo</t>
   </si>
   <si>
-    <t>networks</t>
-  </si>
-  <si>
-    <t>net_subnet</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>networks</t>
-  </si>
-  <si>
     <t>ネットワーク情報</t>
   </si>
   <si>
@@ -467,6 +452,68 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>キャッシュ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.Type</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.Serial</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.networks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.net_subnet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>論理ボリューム</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.networks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>サブネット</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.net_subnet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ドライブ</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -789,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +931,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
@@ -1224,7 +1280,7 @@
   </sheetPr>
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="105" workbookViewId="0"/>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1984,16 +2040,16 @@
     <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
@@ -2863,16 +2919,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3226,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3367,19 +3423,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3549,16 +3605,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3566,16 +3622,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3623,249 +3679,300 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E7" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G7" s="4" t="str">
+        <f>C7</f>
+        <v>ストレージキャッシュ</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>C5</f>
-        <v>ストレージキャッシュ</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3902,16 +4009,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3919,13 +4026,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -3933,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -3950,7 +4057,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -3961,7 +4068,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -3689,9 +3689,9 @@
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -3737,13 +3737,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3760,13 +3760,13 @@
         <v>117</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3783,13 +3783,13 @@
         <v>115</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3806,14 +3806,14 @@
         <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="F7" s="4" t="str">
         <f>C7</f>
         <v>ストレージキャッシュ</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3827,12 +3827,12 @@
       <c r="D8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3846,12 +3846,12 @@
       <c r="D9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3868,13 +3868,13 @@
         <v>121</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3891,13 +3891,13 @@
         <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3914,13 +3914,13 @@
         <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3937,13 +3937,13 @@
         <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3960,13 +3960,13 @@
         <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/blank_HitachiVSPチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>SSDドライブ情報</t>
-  </si>
-  <si>
-    <t>Eternus</t>
   </si>
   <si>
     <t>enclosure_status</t>
@@ -513,6 +510,22 @@
   </si>
   <si>
     <t>ドライブ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>itachiVSP</t>
+    </r>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -836,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +959,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2913,8 +2929,7 @@
   <cols>
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="9" width="16.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2990,11 +3005,21 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -3280,11 +3305,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3294,9 +3317,7 @@
     <col min="10" max="10" width="13.375" style="11" customWidth="1"/>
     <col min="11" max="11" width="28.125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
-    <col min="13" max="1023" width="9" style="11" customWidth="1"/>
-    <col min="1024" max="1024" width="9" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -3423,19 +3444,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3586,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3597,9 +3618,7 @@
     <col min="1" max="1" width="3.375" style="11" customWidth="1"/>
     <col min="2" max="4" width="17.875" style="11" customWidth="1"/>
     <col min="5" max="5" width="71.625" style="11" customWidth="1"/>
-    <col min="6" max="1025" width="9" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3692,8 +3711,7 @@
     <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3728,7 +3746,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>106</v>
@@ -3751,7 +3769,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>118</v>
@@ -3774,7 +3792,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>116</v>
@@ -3797,7 +3815,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>111</v>
@@ -3819,17 +3837,17 @@
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>54</v>
@@ -3838,17 +3856,17 @@
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>112</v>
@@ -3859,7 +3877,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>122</v>
@@ -3882,7 +3900,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>124</v>
@@ -3905,7 +3923,7 @@
         <v>114</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>126</v>
@@ -3928,7 +3946,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>127</v>
@@ -3951,7 +3969,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>129</v>
@@ -3992,9 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4002,23 +4018,21 @@
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" style="2" customWidth="1"/>
-    <col min="1008" max="1008" width="9" style="2" customWidth="1"/>
-    <col min="1009" max="16384" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>130</v>
+      <c r="B1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4026,13 +4040,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4040,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4057,7 +4071,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4068,7 +4082,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
